--- a/records.xlsx
+++ b/records.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="767">
   <si>
     <t>Project</t>
   </si>
@@ -95,15 +95,6 @@
     <t>add executable attribute to &lt;nunit&gt;.  Fixes Bugzilla Issue 51023.</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:46:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:86:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:91:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:283:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:329:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/or
-...{continued}...</t>
-  </si>
-  <si>
     <t>bcb2e5b9b64bdde32e324c6c6d64d07a6486f4d8</t>
   </si>
   <si>
@@ -111,15 +102,6 @@
   </si>
   <si>
     <t>add basic .gitignore</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:46:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:86:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:91:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:284:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:330:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/or
-...{continued}...</t>
   </si>
   <si>
     <t>3d7ce890c7563f2ddc1c3aa055ca7643f40c0be3</t>
@@ -276,13 +258,8 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@1061884 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/WixTask.java:36:	Avoid unused imports such as 'java.util.List'
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/WixTask.java:54:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/WixTask.java:60:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/WixTask.java:95:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/WixTask.java:105:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/WixTask.java:112:	Avoid unnecessary co
-...{continued}...</t>
+    <t>/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/WixTask.java:105:	Avoid using implementation types like 'ArrayList'; use the interface instead
+/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/WixTask.java:112:	Avoid unnecessary constructors - the compiler will generate these for you</t>
   </si>
   <si>
     <t>4817ceb273701b452728cea6e7a4533e9d24a1bf</t>
@@ -295,13 +272,7 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@984111 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:46:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:86:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:91:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:125:	Avoid unnecessary constructors - the compiler will generate these for you
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:263:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUn
-...{continued}...</t>
+    <t>/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/util/CollectionUtils.java:31:	All methods are static.  Consider using a utility class instead. Alternatively, you could add a private constructor or make the class abstract to silence this warning.</t>
   </si>
   <si>
     <t>00d74e3d5f4bcdf542071880579cce09dfa7e922</t>
@@ -324,7 +295,7 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@909400 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/compile/FSharp.java:22:	Avoid unused imports such as 'org.apache.tools.ant.BuildException'</t>
+    <t>/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/compile/FSharp.java:22:	Avoid unused imports such as 'org.apache.tools.ant.BuildException'</t>
   </si>
   <si>
     <t>ceee1df21d23912c86b96dec6fb944ec5d763f7c</t>
@@ -377,12 +348,12 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@763647 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/TallowTask.java:22:	Avoid unused imports such as 'org.apache.ant.dotnet.build.AbstractBuildTask'
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/TallowTask.java:51:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/TallowTask.java:72:	Avoid unnecessary constructors - the compiler will generate these for you
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/TallowTask.java:157:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/TallowTask.java:167:	This for loop can be replaced by a foreach loop
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/Tal
+    <t>/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/TallowTask.java:22:	Avoid unused imports such as 'org.apache.ant.dotnet.build.AbstractBuildTask'
+/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/TallowTask.java:51:	Avoid using implementation types like 'ArrayList'; use the interface instead
+/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/TallowTask.java:72:	Avoid unnecessary constructors - the compiler will generate these for you
+/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/TallowTask.java:157:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()
+/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/TallowTask.java:167:	This for loop can be replaced by a foreach loop
+/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/TallowTask.java:213:	This for loop can be replaced by a f
 ...{continued}...</t>
   </si>
   <si>
@@ -396,15 +367,6 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@756744 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/WixTask.java:36:	Avoid unused imports such as 'java.util.List'
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/WixTask.java:54:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/WixTask.java:60:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/WixTask.java:95:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/WixTask.java:105:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/WixTask.java:107:	Avoid unnecessary co
-...{continued}...</t>
-  </si>
-  <si>
     <t>4a3dbdd73cd4b4526ddb9f5ee500e0dd948cd84d</t>
   </si>
   <si>
@@ -425,13 +387,7 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@677883 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:45:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:85:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:90:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:124:	Avoid unnecessary constructors - the compiler will generate these for you
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:262:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUn
-...{continued}...</t>
+    <t>/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:308:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()</t>
   </si>
   <si>
     <t>298dd6570ad1bf145bcd7ac98abd5bfd87541061</t>
@@ -444,12 +400,6 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@677880 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NetCommand.java:242:	This for loop can be replaced by a foreach loop
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NetCommand.java:405:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NetCommand.java:425:	Avoid using implementation types like 'Hashtable'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NetCommand.java:431:	This for loop can be replaced by a foreach loop</t>
-  </si>
-  <si>
     <t>30fb84bfe2810a6e7bcdb386c2a5b6fe13d6d603</t>
   </si>
   <si>
@@ -480,9 +430,7 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@641488 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/compile/WsdlToDotnet.java:111:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/compile/WsdlToDotnet.java:409:	New exception is thrown in catch block, original stack trace may be lost
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/compile/WsdlToDotnet.java:556:	This for loop can be replaced by a foreach loop</t>
+    <t>/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/compile/WsdlToDotnet.java:409:	New exception is thrown in catch block, original stack trace may be lost</t>
   </si>
   <si>
     <t>174f066d9791ce6539f88961e5f849d9695eb295</t>
@@ -515,11 +463,6 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@498915 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NetCommand.java:213:	This for loop can be replaced by a foreach loop
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NetCommand.java:386:	Avoid using implementation types like 'Hashtable'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NetCommand.java:392:	This for loop can be replaced by a foreach loop</t>
-  </si>
-  <si>
     <t>a967dffd27a608ec359d2fc73bd3b294cffe7cf0</t>
   </si>
   <si>
@@ -530,11 +473,6 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@498913 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NetCommand.java:220:	This for loop can be replaced by a foreach loop
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NetCommand.java:393:	Avoid using implementation types like 'Hashtable'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NetCommand.java:399:	This for loop can be replaced by a foreach loop</t>
-  </si>
-  <si>
     <t>4d34a9155c4f021541efa22f7262a501163f99f4</t>
   </si>
   <si>
@@ -675,12 +613,6 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@448635 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/build/AbstractBuildTask.java:84:	Document empty constructor
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/build/AbstractBuildTask.java:242:	This for loop can be replaced by a foreach loop
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/build/AbstractBuildTask.java:246:	This for loop can be replaced by a foreach loop
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/build/AbstractBuildTask.java:262:	This for loop can be replaced by a foreach loop</t>
-  </si>
-  <si>
     <t>d1470b0c4ae72c6a391ed2f69ebf5a61615b6588</t>
   </si>
   <si>
@@ -691,15 +623,6 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@447130 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/DotNetExecTask.java:62:	Avoid unnecessary constructors - the compiler will generate these for you
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/DotNetExecTask.java:172:	This for loop can be replaced by a foreach loop
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:45:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:85:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:90:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:124:	Avoid unnecessary const
-...{continued}...</t>
-  </si>
-  <si>
     <t>04bde818d00cbf117b51ee5ac33ad80e8156a701</t>
   </si>
   <si>
@@ -800,15 +723,6 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@438783 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/DotNetExecTask.java:54:	Avoid unnecessary constructors - the compiler will generate these for you
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/DotNetExecTask.java:138:	This for loop can be replaced by a foreach loop
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:45:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:85:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:90:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:117:	Avoid unnecessary const
-...{continued}...</t>
-  </si>
-  <si>
     <t>09a40f8603431667bf6ba39ab47bf07421333d4e</t>
   </si>
   <si>
@@ -839,11 +753,6 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@437217 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/tests/antunit/src/jsharp.java:22:	All classes and interfaces must belong to a named package
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/tests/antunit/src/jsharp.java:22:	All methods are static.  Consider using a utility class instead. Alternatively, you could add a private constructor or make the class abstract to silence this warning.
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/tests/antunit/src/jsharp.java:22:	The class name 'jsharp' doesn't match '[A-Z][a-zA-Z0-9]*'</t>
-  </si>
-  <si>
     <t>02c35f618c873a9fe6a0c94959d8e43d56535bf9</t>
   </si>
   <si>
@@ -854,10 +763,10 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@437212 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/etc/testcases/src/jsharp.java:22:	All classes and interfaces must belong to a named package
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/etc/testcases/src/jsharp.java:22:	All methods are static.  Consider using a utility class instead. Alternatively, you could add a private constructor or make the class abstract to silence this warning.
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/etc/testcases/src/jsharp.java:22:	The class name 'jsharp' doesn't match '[A-Z][a-zA-Z0-9]*'
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/tests/junit/org/apache/ant/dotnet/compile/DotnetTest.java:114:	The instance method name 'testILDASM_empty' doesn't match '[a-z][a-zA-Z0-9]*'</t>
+    <t>/Users/danikgan/Desktop/ant-antlibs-dotnet/src/etc/testcases/src/jsharp.java:22:	All classes and interfaces must belong to a named package
+/Users/danikgan/Desktop/ant-antlibs-dotnet/src/etc/testcases/src/jsharp.java:22:	All methods are static.  Consider using a utility class instead. Alternatively, you could add a private constructor or make the class abstract to silence this warning.
+/Users/danikgan/Desktop/ant-antlibs-dotnet/src/etc/testcases/src/jsharp.java:22:	The class name 'jsharp' doesn't match '[A-Z][a-zA-Z0-9]*'
+/Users/danikgan/Desktop/ant-antlibs-dotnet/src/tests/junit/org/apache/ant/dotnet/compile/DotnetTest.java:114:	The instance method name 'testILDASM_empty' doesn't match '[a-z][a-zA-Z0-9]*'</t>
   </si>
   <si>
     <t>90276cc8a5acc13cfeecec1a8cc3b5fbd5c500d2</t>
@@ -880,12 +789,12 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@434477 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NetCommand.java:212:	This for loop can be replaced by a foreach loop
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NetCommand.java:378:	Avoid using implementation types like 'Hashtable'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NetCommand.java:384:	This for loop can be replaced by a foreach loop
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/compile/DotnetBaseMatchingTask.java:45:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/compile/DotnetBaseMatchingTask.java:106:	Avoid using implementation types like 'Hashtable'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/compile/DotnetBaseMatchingTask.jav
+    <t>/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NetCommand.java:212:	This for loop can be replaced by a foreach loop
+/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NetCommand.java:378:	Avoid using implementation types like 'Hashtable'; use the interface instead
+/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NetCommand.java:384:	This for loop can be replaced by a foreach loop
+/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/compile/DotnetBaseMatchingTask.java:45:	Avoid using implementation types like 'Vector'; use the interface instead
+/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/compile/DotnetBaseMatchingTask.java:106:	Avoid using implementation types like 'Hashtable'; use the interface instead
+/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/compile/DotnetBaseMatchingTask.java:109:	Substitute calls to size() == 0 (or size() != 0
 ...{continued}...</t>
   </si>
   <si>
@@ -899,15 +808,6 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@425610 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/build/AbstractBuildTask.java:69:	Document empty constructor
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/build/AbstractBuildTask.java:209:	This for loop can be replaced by a foreach loop
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/build/AbstractBuildTask.java:213:	This for loop can be replaced by a foreach loop
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/build/AbstractBuildTask.java:229:	This for loop can be replaced by a foreach loop
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/build/MSBuildTask.java:39:	Avoid unnecessary constructors - the compiler will generate these for you
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/build/MSBuildTask.java:58:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() 
-...{continued}...</t>
-  </si>
-  <si>
     <t>dc62e12922c47041b1e9c209c581c4d155de9327</t>
   </si>
   <si>
@@ -928,15 +828,6 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@372448 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/WixTask.java:32:	Avoid unused imports such as 'java.util.List'
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/WixTask.java:50:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/WixTask.java:56:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/WixTask.java:86:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/WixTask.java:88:	Avoid unnecessary constructors - the compiler will generate these for you
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/WixTask.java:176:	Substitute calls to size() == 0 (or size() != 0,
-...{continued}...</t>
-  </si>
-  <si>
     <t>2eb3327479e7b66c4ec23d5e610bb86813931007</t>
   </si>
   <si>
@@ -947,11 +838,6 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@357910 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/MSBuildTask.java:39:	Avoid unnecessary constructors - the compiler will generate these for you
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/MSBuildTask.java:58:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/MSBuildTask.java:79:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()</t>
-  </si>
-  <si>
     <t>3a50bc5924faacbb703324d95f8b44241e39afb0</t>
   </si>
   <si>
@@ -972,14 +858,7 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@348377 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/AbstractBuildTask.java:68:	Document empty constructor
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/AbstractBuildTask.java:208:	This for loop can be replaced by a foreach loop
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/AbstractBuildTask.java:212:	This for loop can be replaced by a foreach loop
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/AbstractBuildTask.java:228:	This for loop can be replaced by a foreach loop
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/MSBuildTask.java:39:	Avoid unnecessary constructors - the compiler will generate these for you
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/MSBuildTask.java:58:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()
-/Users/
-...{continued}...</t>
+    <t>/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/MSBuildTask.java:39:	Avoid unnecessary constructors - the compiler will generate these for you</t>
   </si>
   <si>
     <t>2ee1a9b038d0ce7fafc44afff0f5e1181a4e46cb</t>
@@ -1002,16 +881,6 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/sandbox/antlibs/dotnet/trunk@178161 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/AbstractBuildTask.java:68:	Document empty constructor
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/AbstractBuildTask.java:208:	This for loop can be replaced by a foreach loop
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/AbstractBuildTask.java:212:	This for loop can be replaced by a foreach loop
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/AbstractBuildTask.java:228:	This for loop can be replaced by a foreach loop
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/MSBuildTask.java:36:	Avoid unnecessary constructors - the compiler will generate these for you
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/MSBuildTask.java:55:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()
-/Users/
-...{continued}...</t>
-  </si>
-  <si>
     <t>11592fea7fd69efa176f4aa8ee167f4773867ed5</t>
   </si>
   <si>
@@ -1032,16 +901,6 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/sandbox/antlibs/dotnet/trunk@161885 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/AbstractBuildTask.java:68:	Document empty constructor
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/AbstractBuildTask.java:208:	This for loop can be replaced by a foreach loop
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/AbstractBuildTask.java:212:	This for loop can be replaced by a foreach loop
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/AbstractBuildTask.java:228:	This for loop can be replaced by a foreach loop
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/DotNetExecTask.java:53:	Avoid unnecessary constructors - the compiler will generate these for you
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/DotNetExecTask.java:137:	This for loop can be replaced by a foreach loop
-/Users/danikgan/Desktop/Showcase/ant-antlibs-dotn
-...{continued}...</t>
-  </si>
-  <si>
     <t>65552cf8b752d587dd0f79457637698b3bc20bef</t>
   </si>
   <si>
@@ -1055,6 +914,47 @@
     <t>ant</t>
   </si>
   <si>
+    <t>a0c161ad2aa9c6b9424a8f06d98c2ecbbd57e51a</t>
+  </si>
+  <si>
+    <t>Sat Jan 12 17:18:30 2019 +0100</t>
+  </si>
+  <si>
+    <t>Merge branch '1.9.x'</t>
+  </si>
+  <si>
+    <t>9d63d7ee24e7848d344146831d4da3272e596d69</t>
+  </si>
+  <si>
+    <t>Sat Jan 12 17:13:51 2019 +0100</t>
+  </si>
+  <si>
+    <t>respect failOnError when running ls checkout - Bugzilla 63071
+I've decided to break backwards compatibility with the way I've
+overridden runS. The "proper" way would have been to call the one-arg
+version from the two-arg version so that subclasses overriding runS
+would still get their method called. But I figured it to be extremely
+unlikely that such subclasses exist.</t>
+  </si>
+  <si>
+    <t>/Users/danikgan/Desktop/ant/src/etc/testcases/core/containersrc/test/SpecialSeq.java:30:	Avoid using implementation types like 'Vector'; use the interface instead
+/Users/danikgan/Desktop/ant/src/etc/testcases/taskdefs/javadoc/java/ClassToJavadoc.java:28:	Document empty method body
+/Users/danikgan/Desktop/ant/src/etc/testcases/taskdefs/optional/depend/src6/org.dummy/Foo.java:20:	All methods are static.  Consider using a utility class instead. Alternatively, you could add a private constructor or make the class abstract to silence this warning.
+/Users/danikgan/Desktop/ant/src/etc/testcases/taskdefs/rmic/src/AntTimestamp.java:26:	All classes and interfaces must belong to a named package
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/ProjectComponent.java:167:	The return type of the clone() method must be the class name when implements Cloneable
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/ProjectHelper.java:153:	Avoid using implementation types like 'Vector'; use t
+...{continued}...</t>
+  </si>
+  <si>
+    <t>d106673e3e7b9beebe024b14086e4d554b5ed2f2</t>
+  </si>
+  <si>
+    <t>Sat Jan 12 17:01:01 2019 +0100</t>
+  </si>
+  <si>
+    <t>the task does not extend ExecTask (anymore?)</t>
+  </si>
+  <si>
     <t>Jaikiran Pai &lt;jaikiran@apache.org&gt;</t>
   </si>
   <si>
@@ -1067,6 +967,17 @@
     <t>Merge 1.9.x branch into master</t>
   </si>
   <si>
+    <t>/Users/danikgan/Desktop/ant/src/etc/testcases/core/containersrc/test/SpecialSeq.java:31:	Avoid using implementation types like 'Vector'; use the interface instead
+/Users/danikgan/Desktop/ant/src/etc/testcases/taskdefs/javadoc/java/ClassToJavadoc.java:28:	Document empty method body
+/Users/danikgan/Desktop/ant/src/etc/testcases/taskdefs/rmic/src/AntTimestamp.java:17:	Avoid unused imports such as 'java.rmi.Remote'
+/Users/danikgan/Desktop/ant/src/etc/testcases/taskdefs/rmic/src/AntTimestamp.java:21:	Avoid unused imports such as 'org.apache.tools.ant.BuildException'
+/Users/danikgan/Desktop/ant/src/etc/testcases/taskdefs/rmic/src/AntTimestamp.java:29:	All classes and interfaces must belong to a named package
+/Users/danikgan/Desktop/ant/src/etc/testcases/taskdefs/rmic/src/RemoteTimestampImpl.java:17:	Avoid unused imports such as 'java.rmi.Remote'
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/DefaultDefinitions.java:69:	Avoid unused local variables such as 'n'.
+/Users/danikgan/Desk
+...{continued}...</t>
+  </si>
+  <si>
     <t>eb99b1f3f602a293e1ad51a2ba399abc1d6133b4</t>
   </si>
   <si>
@@ -1076,29 +987,10 @@
     <t>Update the install.html and ant-jsch pom.xml to use the newer 0.1.55 version of jsch library</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/etc/testcases/core/containersrc/test/SpecialSeq.java:30:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/etc/testcases/taskdefs/javadoc/java/ClassToJavadoc.java:28:	Document empty method body
-/Users/danikgan/Desktop/Showcase/ant/src/etc/testcases/taskdefs/optional/depend/src6/org.dummy/Foo.java:20:	All methods are static.  Consider using a utility class instead. Alternatively, you could add a private constructor or make the class abstract to silence this warning.
-/Users/danikgan/Desktop/Showcase/ant/src/etc/testcases/taskdefs/rmic/src/AntTimestamp.java:26:	All classes and interfaces must belong to a named package
-/Users/danikgan/Desktop/Showcase/ant/src/etc/testcases/taskdefs/rmic/src/RemoteTimestampImpl.java:22:	All classes and interfaces must belong to a named package
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntClassLoader.java:95:	Avoid empty catch bl
-...{continued}...</t>
-  </si>
-  <si>
     <t>45bee01696daacda1b321e7856547675313aab65</t>
   </si>
   <si>
     <t>Thu Dec 27 18:38:24 2018 +0530</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/etc/testcases/core/containersrc/test/SpecialSeq.java:31:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/etc/testcases/taskdefs/javadoc/java/ClassToJavadoc.java:28:	Document empty method body
-/Users/danikgan/Desktop/Showcase/ant/src/etc/testcases/taskdefs/rmic/src/AntTimestamp.java:17:	Avoid unused imports such as 'java.rmi.Remote'
-/Users/danikgan/Desktop/Showcase/ant/src/etc/testcases/taskdefs/rmic/src/AntTimestamp.java:21:	Avoid unused imports such as 'org.apache.tools.ant.BuildException'
-/Users/danikgan/Desktop/Showcase/ant/src/etc/testcases/taskdefs/rmic/src/AntTimestamp.java:29:	All classes and interfaces must belong to a named package
-/Users/danikgan/Desktop/Showcase/ant/src/etc/testcases/taskdefs/rmic/src/RemoteTimestampImpl.java:17:	Avoid unused imports such as 'java.rmi.Remote'
-/Users/danikgan/Desktop/Showcase/ant/src/etc/testcases/taskdefs/rmic/src/RemoteTimestampImpl.j
-...{continued}...</t>
   </si>
   <si>
     <t>1a7c4a69e73f39d84a31863c3a9f596687228ff2</t>
@@ -1209,12 +1101,6 @@
     <t>Added tasks for JDK's jmod and jlink tools.</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/modules/Jmod.java:1248:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/modules/Link.java:1128:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/modules/Link.java:1129:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/modules/Link.java:1145:	Useless parentheses.</t>
-  </si>
-  <si>
     <t>7b29e8ff8643b6a0ebb6e53927544cb149c19c01</t>
   </si>
   <si>
@@ -1224,14 +1110,14 @@
     <t>Update the manual of junitlauncher task as well as add a note in WHATSNEW about the changed class names of that task</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/modules/Jmod.java:1246:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/modules/Link.java:1126:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/modules/Link.java:1127:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/modules/Link.java:1143:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/taskdefs/modules/JmodTest.java:89:	Avoid unused local variables such as 'jar'.
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/taskdefs/modules/JmodTest.java:190:	Position literals first in String comparisons
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/taskdefs/modules/JmodTest.java:203:	Position literals first in String comparisons
-/Users/danikgan/Desktop/Showcase/ant/src/tests/juni
+    <t>/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/taskdefs/modules/Jmod.java:1246:	Useless parentheses.
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/taskdefs/modules/Link.java:1126:	Useless parentheses.
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/taskdefs/modules/Link.java:1127:	Useless parentheses.
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/taskdefs/modules/Link.java:1143:	Useless parentheses.
+/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/taskdefs/modules/JmodTest.java:89:	Avoid unused local variables such as 'jar'.
+/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/taskdefs/modules/JmodTest.java:190:	Position literals first in String comparisons
+/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/taskdefs/modules/JmodTest.java:203:	Position literals first in String comparisons
+/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/taskdefs/modules/JmodTest.java:216:	Position lite
 ...{continued}...</t>
   </si>
   <si>
@@ -1273,121 +1159,85 @@
 ...{continued}...</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/Project.java:147:	Avoid using implementation types like 'Hashtable'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/Project.java:150:	Avoid using implementation types like 'HashMap'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/Project.java:156:	Avoid using implementation types like 'Hashtable'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/Project.java:160:	Non-static initializers are confusing
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/Project.java:180:	Use of modifier volatile is not recommended.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/Project.java:274:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/Project.java:394:	Use equals() to compare object references.
-/Users/danikgan/Desktop/Showc
+    <t>/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/Project.java:147:	Avoid using implementation types like 'Hashtable'; use the interface instead</t>
+  </si>
+  <si>
+    <t>69269adced56238dc80297b9ae881442cd56259c</t>
+  </si>
+  <si>
+    <t>Wed Dec 5 19:36:53 2018 +0530</t>
+  </si>
+  <si>
+    <t>bz-62952 Fix the jar-test.xml#testMultiReleaseJar antunit test case</t>
+  </si>
+  <si>
+    <t>/Users/danikgan/Desktop/ant/src/tests/junit/org/example/junitlauncher/Tracker.java:28:	Avoid unused imports such as 'java.io.FileOutputStream'
+/Users/danikgan/Desktop/ant/src/tests/junit/org/example/junitlauncher/Tracker.java:33:	Avoid unused imports such as 'java.nio.file.OpenOption'</t>
+  </si>
+  <si>
+    <t>593aff2d2ea52a025cfe7da32155216719029a7d</t>
+  </si>
+  <si>
+    <t>Wed Dec 5 18:26:14 2018 +0530</t>
+  </si>
+  <si>
+    <t>bz-62952 Make AntClassLoader multi-release jar aware when it deals with java.util.jar.JarFile</t>
+  </si>
+  <si>
+    <t>Gintas Grigelionis &lt;gintas@apache.org&gt;</t>
+  </si>
+  <si>
+    <t>ac46ff190ed158bcb5ec5764b583ef82f1ecaa80</t>
+  </si>
+  <si>
+    <t>Tue Nov 20 22:13:21 2018 +0100</t>
+  </si>
+  <si>
+    <t>A typo</t>
+  </si>
+  <si>
+    <t>3e0890f750d938c2cda5d3784b59b7f03eea9aaf</t>
+  </si>
+  <si>
+    <t>Tue Nov 20 07:32:48 2018 +0100</t>
+  </si>
+  <si>
+    <t>Fix javadoc</t>
+  </si>
+  <si>
+    <t>57895fd06465933703cdb955b5afe954095710bd</t>
+  </si>
+  <si>
+    <t>Mon Nov 19 22:22:05 2018 +0100</t>
+  </si>
+  <si>
+    <t>Make DataType and Reference generic</t>
+  </si>
+  <si>
+    <t>/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/types/selectors/AbstractSelectorContainer.java:371:	The method 'clone()' is missing an @Override annotation.
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/types/selectors/AbstractSelectorContainer.java:371:	The return type of the clone() method must be the class name when implements Cloneable
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/types/selectors/AbstractSelectorContainer.java:371:	clone() method should throw CloneNotSupportedException</t>
+  </si>
+  <si>
+    <t>bd82d189ad5bb32cb5b0a537113eae14dac32f1f</t>
+  </si>
+  <si>
+    <t>Mon Nov 19 17:04:01 2018 +0100</t>
+  </si>
+  <si>
+    <t>Remove unused imports</t>
+  </si>
+  <si>
+    <t>/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/types/FileList.java:136:	This call to Collection.toArray() may be optimizable
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/types/FilterChain.java:69:	Avoid using implementation types like 'Vector'; use the interface instead
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/types/optional/depend/ClassfileSet.java:164:	Object clone() should be implemented with super.clone()
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/types/optional/depend/ClassfileSet.java:164:	The return type of the clone() method must be the class name when implements Cloneable
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/types/optional/depend/ClassfileSet.java:164:	clone() method should throw CloneNotSupportedException
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/types/resources/MultiRootFileSet.java:114:	The return type of the clone() method must be the class name when implements Cloneable
+/Users/dan
 ...{continued}...</t>
   </si>
   <si>
-    <t>69269adced56238dc80297b9ae881442cd56259c</t>
-  </si>
-  <si>
-    <t>Wed Dec 5 19:36:53 2018 +0530</t>
-  </si>
-  <si>
-    <t>bz-62952 Fix the jar-test.xml#testMultiReleaseJar antunit test case</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junitlauncher/LauncherSupport.java:139:	This call to Collection.toArray() may be optimizable
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junitlauncher/LauncherSupport.java:144:	Avoid empty catch blocks
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junitlauncher/LauncherSupport.java:149:	Avoid empty catch blocks
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junitlauncher/LauncherSupport.java:228:	Unnecessary use of fully qualified name 'java.nio.file.Path' due to existing import 'java.nio.file.Path'
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junitlauncher/LauncherSupport.java:480:	Use of modifier volatile is not recommended.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junitlauncher/LauncherSupport.java:51
-...{continued}...</t>
-  </si>
-  <si>
-    <t>593aff2d2ea52a025cfe7da32155216719029a7d</t>
-  </si>
-  <si>
-    <t>Wed Dec 5 18:26:14 2018 +0530</t>
-  </si>
-  <si>
-    <t>bz-62952 Make AntClassLoader multi-release jar aware when it deals with java.util.jar.JarFile</t>
-  </si>
-  <si>
-    <t>Gintas Grigelionis &lt;gintas@apache.org&gt;</t>
-  </si>
-  <si>
-    <t>ac46ff190ed158bcb5ec5764b583ef82f1ecaa80</t>
-  </si>
-  <si>
-    <t>Tue Nov 20 22:13:21 2018 +0100</t>
-  </si>
-  <si>
-    <t>A typo</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntClassLoader.java:95:	Avoid empty catch blocks
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntClassLoader.java:152:	The method 'hasMoreElements()' is missing an @Override annotation.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntClassLoader.java:153:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntClassLoader.java:161:	The method 'nextElement()' is missing an @Override annotation.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntClassLoader.java:178:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntClassLoader.java:178:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntClassLoader.java:183:	Avoid empty catch blocks
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntClassLoader.java:206:	Avoid using implementa
-...{continued}...</t>
-  </si>
-  <si>
-    <t>3e0890f750d938c2cda5d3784b59b7f03eea9aaf</t>
-  </si>
-  <si>
-    <t>Tue Nov 20 07:32:48 2018 +0100</t>
-  </si>
-  <si>
-    <t>Fix javadoc</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/AbstractFileSet.java:643:	This call to Collection.toArray() may be optimizable
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/AbstractFileSet.java:920:	The return type of the clone() method must be the class name when implements Cloneable
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/AbstractFileSet.java:920:	clone() method should throw CloneNotSupportedException
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/AbstractFileSet.java:922:	Useless parentheses.</t>
-  </si>
-  <si>
-    <t>57895fd06465933703cdb955b5afe954095710bd</t>
-  </si>
-  <si>
-    <t>Mon Nov 19 22:22:05 2018 +0100</t>
-  </si>
-  <si>
-    <t>Make DataType and Reference generic</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/AbstractFileSet.java:643:	This call to Collection.toArray() may be optimizable
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/AbstractFileSet.java:920:	The return type of the clone() method must be the class name when implements Cloneable
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/AbstractFileSet.java:920:	clone() method should throw CloneNotSupportedException
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/AbstractFileSet.java:922:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/Reference.java:40:	Document empty constructor
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/Resource.java:72:	Document empty constructor
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/Resource.java:250:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/s
-...{continued}...</t>
-  </si>
-  <si>
-    <t>bd82d189ad5bb32cb5b0a537113eae14dac32f1f</t>
-  </si>
-  <si>
-    <t>Mon Nov 19 17:04:01 2018 +0100</t>
-  </si>
-  <si>
-    <t>Remove unused imports</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/Classloader.java:202:	Avoid empty if statements
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/extension/ExtensionSet.java:103:	This call to Collection.toArray() may be optimizable
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/AbstractFileSet.java:644:	This call to Collection.toArray() may be optimizable
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/AbstractFileSet.java:921:	The return type of the clone() method must be the class name when implements Cloneable
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/AbstractFileSet.java:921:	clone() method should throw CloneNotSupportedException
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/AbstractFileSet.java:923:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/AntFilterReader.java
-...{continued}...</t>
-  </si>
-  <si>
     <t>2c2cdb090ebdecbed8f737af3045f1edfbe3ad2a</t>
   </si>
   <si>
@@ -1397,16 +1247,6 @@
     <t>Refactor getZipEntryStream</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/EchoXML.java:103:	Document empty constructor
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/image/ImageIOTask.java:248:	Do not explicitly trigger a garbage collection.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/image/ImageIOTask.java:362:	New exception is thrown in catch block, original stack trace may be lost
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/image/ImageIOTask.java:392:	Document empty constructor
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/util/FileUtils.java:138:	Document empty constructor
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/util/FileUtils.java:284:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/util/FileUtils.java:314:	Avoid using imp
-...{continued}...</t>
-  </si>
-  <si>
     <t>aff7eefe14a3239e83de9a427cabe5a0b44444cc</t>
   </si>
   <si>
@@ -1416,16 +1256,6 @@
     <t>Avoid leaks in AntAnalyzer</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/depend/AntAnalyzer.java:67:	Avoid empty catch blocks
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/depend/AntAnalyzer.java:80:	Avoid empty catch blocks
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/resources/ZipResource.java:48:	Document empty constructor
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/resources/ZipResource.java:86:	The method 'addConfigured(ResourceCollection)' is missing an @Override annotation.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/resources/ZipResource.java:115:	The method 'setRefid(Reference)' is missing an @Override annotation.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/resources/ZipResource.java:128:	The method 'getInputStream()' is missing an @Override annotation.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tool
-...{continued}...</t>
-  </si>
-  <si>
     <t>9321ea62bf774db037a102d594dcfe174c249488</t>
   </si>
   <si>
@@ -1435,8 +1265,8 @@
     <t>Revert: any RuntimeException must be wrapped</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/depend/AntAnalyzer.java:67:	Avoid empty catch blocks
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/depend/AntAnalyzer.java:79:	Avoid empty catch blocks</t>
+    <t>/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/taskdefs/optional/depend/AntAnalyzer.java:67:	Avoid empty catch blocks
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/taskdefs/optional/depend/AntAnalyzer.java:79:	Avoid empty catch blocks</t>
   </si>
   <si>
     <t>d6f1dc6bd8e1b17b1952d63798a8c1feb70a50fa</t>
@@ -1445,10 +1275,6 @@
     <t>Sat Nov 17 17:25:03 2018 +0100</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/EchoXML.java:21:	Avoid unused imports such as 'java.io.IOException'
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/EchoXML.java:104:	Document empty constructor</t>
-  </si>
-  <si>
     <t>c5b8dab9103b225f72523939652bdc6356f0937c</t>
   </si>
   <si>
@@ -1458,11 +1284,6 @@
     <t>Fix backwards compatibility</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/CharSet.java:45:	Document empty constructor
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/CharSet.java:117:	When doing a String.toLowerCase()/toUpperCase() call, use a Locale
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/CharSet.java:117:	When doing a String.toLowerCase()/toUpperCase() call, use a Locale</t>
-  </si>
-  <si>
     <t>1e30b48a0ef0977f0daa492ee7d811c40d589e6e</t>
   </si>
   <si>
@@ -1472,17 +1293,6 @@
     <t>Use try-with-resources</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/Jar.java:715:	Avoid empty if statements
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/Jar.java:796:	A catch statement should never catch throwable since it includes errors.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/Jar.java:1138:	Document empty constructor
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/Manifest.java:136:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/Manifest.java:146:	Document empty constructor
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/Manifest.java:487:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/Manifest.java:678:	Object clone() should be implemented with super.clone()
-/Users/danikgan/Desktop/Showcase/ant/src/main
-...{continued}...</t>
-  </si>
-  <si>
     <t>1078b579044e16c0e1d8fb5f52be665104fad51f</t>
   </si>
   <si>
@@ -1492,15 +1302,8 @@
     <t>Update javadoc</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntClassLoader.java:129:	The method 'hasMoreElements()' is missing an @Override annotation.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntClassLoader.java:130:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntClassLoader.java:138:	The method 'nextElement()' is missing an @Override annotation.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntClassLoader.java:155:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntClassLoader.java:155:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntClassLoader.java:160:	Avoid empty catch blocks
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntClassLoader.java:183:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/a
-...{continued}...</t>
+    <t>/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/taskdefs/optional/junit/JUnitTestRunner.java:1218:	Avoid empty catch blocks
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/types/selectors/modifiedselector/HashvalueAlgorithm.java:55:	The method 'getValue(File)' is missing an @Override annotation.</t>
   </si>
   <si>
     <t>ab13b876c6cca733449a5b2a4bf3386f3013ddd2</t>
@@ -1512,11 +1315,6 @@
     <t>Make CharSet backwards compatible</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junitlauncher/confined/ListenerDefinition.java:54:	Avoid unnecessary constructors - the compiler will generate these for you
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junitlauncher/confined/ListenerDefinition.java:54:	Document empty constructor
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junitlauncher/confined/ListenerDefinition.java:83:	Switch statements should have a default label</t>
-  </si>
-  <si>
     <t>fbfad85aec148d68501c5b68235902f01d8c1836</t>
   </si>
   <si>
@@ -1526,14 +1324,7 @@
     <t>A new CharSet type to hold available Charset names</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/CharSet.java:45:	Document empty constructor
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/CharSet.java:116:	When doing a String.toLowerCase()/toUpperCase() call, use a Locale
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/CharSet.java:116:	When doing a String.toLowerCase()/toUpperCase() call, use a Locale
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/EnumeratedAttribute.java:55:	Document empty constructor
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/EnumeratedAttribute.java:69:	getInstance method always creates a new object and hence does not comply to Singleton Design Pattern behaviour. Please review
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/EnumeratedAttribute.java:106:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/types/CharSe
-...{continued}...</t>
+    <t>/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/types/CharSetTest.java:29:	Avoid unused imports such as 'org.hamcrest.Matchers.equalTo'</t>
   </si>
   <si>
     <t>e208ad936016e871412d19848ea15db54f8e8b52</t>
@@ -1545,7 +1336,7 @@
     <t>Implement ArcType as suggested</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/CharSet.java:43:	Document empty constructor</t>
+    <t>/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/types/CharSet.java:43:	Document empty constructor</t>
   </si>
   <si>
     <t>570ca18375c7562948c35d1c04a96e17aef25ebd</t>
@@ -1557,9 +1348,6 @@
     <t>Change an attribute name and explain why</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/types/optional/imageio/Arc.java:108:	Document empty constructor</t>
-  </si>
-  <si>
     <t>39e5e40e3901821fac72718c6afd4e77c1cdfbac</t>
   </si>
   <si>
@@ -1569,13 +1357,6 @@
     <t>closes #77</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/image/ImageIOTask.java:42:	Avoid unused imports such as 'java.util.Arrays'
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/image/ImageIOTask.java:45:	Avoid unused imports such as 'java.util.stream.Collectors'
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/image/ImageIOTask.java:250:	Do not explicitly trigger a garbage collection.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/image/ImageIOTask.java:364:	New exception is thrown in catch block, original stack trace may be lost
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/image/ImageIOTask.java:394:	Document empty constructor</t>
-  </si>
-  <si>
     <t>reudismam@gmail.com &lt;reudismam@gmail.com&gt;</t>
   </si>
   <si>
@@ -1597,11 +1378,10 @@
     <t>Add “since” tag to documentation</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/tests/antunit/core/uuencode/src/task/BaseTask.java:25:	Avoid unused imports such as 'java.io.FileInputStream'
-/Users/danikgan/Desktop/Showcase/ant/src/tests/antunit/core/uuencode/src/task/BaseTask.java:26:	Avoid unused imports such as 'java.io.FileOutputStream'
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/taskdefs/BZip2Test.java:29:	Avoid unused imports such as 'java.io.FileInputStream'
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/taskdefs/FixCrLfTest.java:23:	Avoid unused imports such as 'java.io.FileInputStream'
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/taskdefs/ReplaceTest.java:23:	Avoid unused imports such as 'java.io.FileInputStream'</t>
+    <t>/Users/danikgan/Desktop/ant/src/tests/antunit/core/uuencode/src/task/BaseTask.java:26:	Avoid unused imports such as 'java.io.FileOutputStream'
+/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/taskdefs/BZip2Test.java:29:	Avoid unused imports such as 'java.io.FileInputStream'
+/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/taskdefs/FixCrLfTest.java:23:	Avoid unused imports such as 'java.io.FileInputStream'
+/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/taskdefs/ReplaceTest.java:23:	Avoid unused imports such as 'java.io.FileInputStream'</t>
   </si>
   <si>
     <t>454c252fe42625200bd91d6555e241b9932853fd</t>
@@ -1611,10 +1391,6 @@
   </si>
   <si>
     <t>Include fix for bz-62890 in WHATSNEW</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/util/ReaderInputStream.java:101:	Avoid assignments in operands
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/util/ReaderInputStream.java:170:	New exception is thrown in catch block, original stack trace may be lost</t>
   </si>
   <si>
     <t>65cd88f59c042dd585be2c741a5ab60dd986fe25</t>
@@ -1636,174 +1412,131 @@
     <t>Get most of junit task tests running under Surefire</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/util/FileUtils.java:34:	Avoid unused imports such as 'java.nio.file.FileSystem'
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/util/FileUtils.java:43:	Avoid unused imports such as 'java.util.HashMap'
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/util/FileUtils.java:46:	Avoid unused imports such as 'java.util.Map'
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/util/FileUtils.java:141:	Document empty constructor
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/util/FileUtils.java:287:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/util/FileUtils.java:317:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/util/FileUtils.java:452:	Avoid using implementation types l
+    <t>103fc3dd5ab6d2b0b4561271757081ea4b837d6b</t>
+  </si>
+  <si>
+    <t>Sun Nov 11 23:11:11 2018 +0100</t>
+  </si>
+  <si>
+    <t>Complete antrun plugin update fix unit task dependencies</t>
+  </si>
+  <si>
+    <t>f871e80a6a9f6165137d24b72e209a73283494e8</t>
+  </si>
+  <si>
+    <t>Sun Nov 11 21:50:29 2018 +0100</t>
+  </si>
+  <si>
+    <t>Get the tests dependent on ANT_HOME running</t>
+  </si>
+  <si>
+    <t>2165dd22552a80620c20b3df2c938cc945e5e3e8</t>
+  </si>
+  <si>
+    <t>Sun Nov 11 13:39:01 2018 +0100</t>
+  </si>
+  <si>
+    <t>Simplify tests, use Rule and/or try with resources</t>
+  </si>
+  <si>
+    <t>a5b49c1aa390f9fcc10f5e37df011f814ebf0b2a</t>
+  </si>
+  <si>
+    <t>Sun Nov 11 13:34:11 2018 +0100</t>
+  </si>
+  <si>
+    <t>Simplify tests, use Charset</t>
+  </si>
+  <si>
+    <t>d1af31d0ea0ae8ea79b63ab7d7a44e7119889e0c</t>
+  </si>
+  <si>
+    <t>Fri Nov 9 06:17:32 2018 +0100</t>
+  </si>
+  <si>
+    <t>Tidy up code, use out-of-the-box test rules</t>
+  </si>
+  <si>
+    <t>8ae8894fc2e910490bcff63c649e5b7aebbfce8b</t>
+  </si>
+  <si>
+    <t>Thu Nov 8 18:24:12 2018 +0530</t>
+  </si>
+  <si>
+    <t>bz-62890 fix the newly added test in SyncTest. Also, in the implementation of FileUtils#isCaseSensitiveFileSystem, take into account Files.isSame can throw NoSuchFileException in the absence of either of the paths being checked</t>
+  </si>
+  <si>
+    <t>52c8c5a0798a0dcf81c84849a2a3a1996df16ab0</t>
+  </si>
+  <si>
+    <t>Thu Nov 8 17:55:24 2018 +0530</t>
+  </si>
+  <si>
+    <t>bz-62890 Make sure the sync task considers the case sensitivity of the destination directory's filesystem while looking for orphan files to delete</t>
+  </si>
+  <si>
+    <t>/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/taskdefs/SyncTest.java:23:	Avoid unused imports such as 'org.junit.Assume'
+/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/taskdefs/SyncTest.java:28:	Avoid unused imports such as 'java.util.Optional'</t>
+  </si>
+  <si>
+    <t>abce9225f5f8d7091bbe0e50c8217eac65ad3424</t>
+  </si>
+  <si>
+    <t>Wed Nov 7 11:06:56 2018 +0530</t>
+  </si>
+  <si>
+    <t>Update the junitlauncher task to explain the ability to include JUnit libraries as part of the task's classpath</t>
+  </si>
+  <si>
+    <t>/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/util/FileUtilsTest.java:24:	Avoid unused imports such as 'java.nio.file.FileSystem'</t>
+  </si>
+  <si>
+    <t>59c79222772275522f3d971ae4f0c6417a8d7de8</t>
+  </si>
+  <si>
+    <t>Tue Nov 6 22:10:28 2018 +0100</t>
+  </si>
+  <si>
+    <t>Remove a nonexistent type</t>
+  </si>
+  <si>
+    <t>f410119cf936f36a09265cb8ee2b81ce803aed85</t>
+  </si>
+  <si>
+    <t>Tue Nov 6 16:16:52 2018 +0530</t>
+  </si>
+  <si>
+    <t>551cb55e328281002810714a9059f34f0502c13d</t>
+  </si>
+  <si>
+    <t>Sun Nov 4 19:45:48 2018 +0100</t>
+  </si>
+  <si>
+    <t>Revert last 5 commits</t>
+  </si>
+  <si>
+    <t>/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/DirectoryScanner.java:1241:	Useless parentheses.</t>
+  </si>
+  <si>
+    <t>2b699eb695dd42f5343f8f007a87b01e499b146b</t>
+  </si>
+  <si>
+    <t>Sun Nov 4 12:56:27 2018 +0100</t>
+  </si>
+  <si>
+    <t>SonarQube: nested if’s is a major code smell</t>
+  </si>
+  <si>
+    <t>/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/AntClassLoader.java:129:	The method 'hasMoreElements()' is missing an @Override annotation.
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/AntClassLoader.java:130:	Useless parentheses.
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/AntTypeDefinition.java:319:	Useless parentheses.
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/AntTypeDefinition.java:319:	Useless parentheses.
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/BuildException.java:144:	The method 'toString()' is missing an @Override annotation.
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/ComponentHelper.java:714:	Useless parentheses.
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/Project.java:271:	Useless parentheses.
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/ProjectHelper.java:131:	The method 'toString()' is missing an @Override annotation.
+/Users/danikgan/Desktop/ant/src/main/org/apac
 ...{continued}...</t>
-  </si>
-  <si>
-    <t>103fc3dd5ab6d2b0b4561271757081ea4b837d6b</t>
-  </si>
-  <si>
-    <t>Sun Nov 11 23:11:11 2018 +0100</t>
-  </si>
-  <si>
-    <t>Complete antrun plugin update fix unit task dependencies</t>
-  </si>
-  <si>
-    <t>f871e80a6a9f6165137d24b72e209a73283494e8</t>
-  </si>
-  <si>
-    <t>Sun Nov 11 21:50:29 2018 +0100</t>
-  </si>
-  <si>
-    <t>Get the tests dependent on ANT_HOME running</t>
-  </si>
-  <si>
-    <t>2165dd22552a80620c20b3df2c938cc945e5e3e8</t>
-  </si>
-  <si>
-    <t>Sun Nov 11 13:39:01 2018 +0100</t>
-  </si>
-  <si>
-    <t>Simplify tests, use Rule and/or try with resources</t>
-  </si>
-  <si>
-    <t>a5b49c1aa390f9fcc10f5e37df011f814ebf0b2a</t>
-  </si>
-  <si>
-    <t>Sun Nov 11 13:34:11 2018 +0100</t>
-  </si>
-  <si>
-    <t>Simplify tests, use Charset</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/filters/TokenFilterTest.java:277:	When doing a String.toLowerCase()/toUpperCase() call, use a Locale
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/taskdefs/ExecStreamRedirectorTest.java:68:	Use assertEquals(x, y) instead of assertTrue(x.equals(y))
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/taskdefs/optional/junit/JUnitReportTest.java:198:	Document empty method body
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/taskdefs/optional/junit/JUnitReportTest.java:222:	Document empty method body
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/util/FileUtilsTest.java:70:	When doing a String.toLowerCase()/toUpperCase() call, use a Locale
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/util/FileUtilsTest.java:365:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/or
-...{continued}...</t>
-  </si>
-  <si>
-    <t>d1af31d0ea0ae8ea79b63ab7d7a44e7119889e0c</t>
-  </si>
-  <si>
-    <t>Fri Nov 9 06:17:32 2018 +0100</t>
-  </si>
-  <si>
-    <t>Tidy up code, use out-of-the-box test rules</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/Sync.java:160:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/Sync.java:534:	Avoid unnecessary constructors - the compiler will generate these for you
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/util/ReaderInputStream.java:100:	Avoid assignments in operands
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/util/ReaderInputStream.java:169:	New exception is thrown in catch block, original stack trace may be lost</t>
-  </si>
-  <si>
-    <t>8ae8894fc2e910490bcff63c649e5b7aebbfce8b</t>
-  </si>
-  <si>
-    <t>Thu Nov 8 18:24:12 2018 +0530</t>
-  </si>
-  <si>
-    <t>bz-62890 fix the newly added test in SyncTest. Also, in the implementation of FileUtils#isCaseSensitiveFileSystem, take into account Files.isSame can throw NoSuchFileException in the absence of either of the paths being checked</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntTypeDefinition.java:221:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntTypeDefinition.java:267:	New exception is thrown in catch block, original stack trace may be lost
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntTypeDefinition.java:274:	New exception is thrown in catch block, original stack trace may be lost
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntTypeDefinition.java:277:	New exception is thrown in catch block, original stack trace may be lost
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntTypeDefinition.java:280:	New exception is thrown in catch block, original stack trace may be lost
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntTypeDefinition.java:282:	A catch statement should never catch throwable since it includes errors.
-/Users/danikgan/Desktop/Showcase/ant/src/mai
-...{continued}...</t>
-  </si>
-  <si>
-    <t>52c8c5a0798a0dcf81c84849a2a3a1996df16ab0</t>
-  </si>
-  <si>
-    <t>Thu Nov 8 17:55:24 2018 +0530</t>
-  </si>
-  <si>
-    <t>bz-62890 Make sure the sync task considers the case sensitivity of the destination directory's filesystem while looking for orphan files to delete</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/util/FileUtils.java:142:	Document empty constructor
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/util/FileUtils.java:288:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/util/FileUtils.java:318:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/util/FileUtils.java:453:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/util/FileUtils.java:489:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/util/FileUtils.java:527:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/a
-...{continued}...</t>
-  </si>
-  <si>
-    <t>abce9225f5f8d7091bbe0e50c8217eac65ad3424</t>
-  </si>
-  <si>
-    <t>Wed Nov 7 11:06:56 2018 +0530</t>
-  </si>
-  <si>
-    <t>Update the junitlauncher task to explain the ability to include JUnit libraries as part of the task's classpath</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/Sync.java:161:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/Sync.java:538:	Avoid unnecessary constructors - the compiler will generate these for you
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/util/FileUtils.java:141:	Document empty constructor
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/util/FileUtils.java:287:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/util/FileUtils.java:317:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/util/FileUtils.java:452:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/util/FileUtils.java:488:	Avoid using im
-...{continued}...</t>
-  </si>
-  <si>
-    <t>59c79222772275522f3d971ae4f0c6417a8d7de8</t>
-  </si>
-  <si>
-    <t>Tue Nov 6 22:10:28 2018 +0100</t>
-  </si>
-  <si>
-    <t>Remove a nonexistent type</t>
-  </si>
-  <si>
-    <t>f410119cf936f36a09265cb8ee2b81ce803aed85</t>
-  </si>
-  <si>
-    <t>Tue Nov 6 16:16:52 2018 +0530</t>
-  </si>
-  <si>
-    <t>551cb55e328281002810714a9059f34f0502c13d</t>
-  </si>
-  <si>
-    <t>Sun Nov 4 19:45:48 2018 +0100</t>
-  </si>
-  <si>
-    <t>Revert last 5 commits</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/DirectoryScanner.java:260:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/DirectoryScanner.java:263:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/DirectoryScanner.java:269:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/DirectoryScanner.java:275:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/DirectoryScanner.java:278:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/DirectoryScanner.java:284:	Avoid using implementation types like 'Vector'; use the interface 
-...{continued}...</t>
-  </si>
-  <si>
-    <t>2b699eb695dd42f5343f8f007a87b01e499b146b</t>
-  </si>
-  <si>
-    <t>Sun Nov 4 12:56:27 2018 +0100</t>
-  </si>
-  <si>
-    <t>SonarQube: nested if’s is a major code smell</t>
   </si>
   <si>
     <t>e8762432be2a78f5850e989dffb94b697c222563</t>
@@ -1816,59 +1549,42 @@
 (major code smell)</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/IntrospectionHelper.java:268:	Avoid empty catch blocks
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/IntrospectionHelper.java:294:	Avoid empty catch blocks
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/IntrospectionHelper.java:485:	Avoid protected fields in a final class.  Change to private or package access.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/IntrospectionHelper.java:493:	Avoid protected fields in a final class.  Change to private or package access.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/IntrospectionHelper.java:1028:	Unnecessary use of fully qualified name 'java.lang.Object' due to existing implicit import 'java.lang.*'
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/IntrospectionHelper.java:1050:	Unnecessary use of fully qualified name 'java.lang.Character' due to existing implicit import 'java.lan
+    <t>/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/util/GlobPatternMapper.java:199:	When doing a String.toLowerCase()/toUpperCase() call, use a Locale</t>
+  </si>
+  <si>
+    <t>ec70921a964be0c38fbceff8a01c16bcad9ebd40</t>
+  </si>
+  <si>
+    <t>Sun Nov 4 10:23:51 2018 +0100</t>
+  </si>
+  <si>
+    <t>Revert a regression, improve tests</t>
+  </si>
+  <si>
+    <t>e2dd6ec79a083901907e35ac4f0cd3631e71ec55</t>
+  </si>
+  <si>
+    <t>Sun Nov 4 10:02:42 2018 +0100</t>
+  </si>
+  <si>
+    <t>SonarQube: unnecessary parentheses is a major code smell</t>
+  </si>
+  <si>
+    <t>2977bb596c7f8f0b3f81258d04d1c1ef0b3848b7</t>
+  </si>
+  <si>
+    <t>Sun Nov 4 10:01:43 2018 +0100</t>
+  </si>
+  <si>
+    <t>Checkstyle: dangling operators</t>
+  </si>
+  <si>
+    <t>/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/dispatch/DispatchUtils.java:109:	New exception is thrown in catch block, original stack trace may be lost
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/bzip2/BZip2Constants.java:42:	Avoid constants in interfaces. Interfaces define types, constants are implementation details better placed in classes or enums. See Effective Java, item 19.
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/bzip2/BZip2Constants.java:43:	Avoid constants in interfaces. Interfaces define types, constants are implementation details better placed in classes or enums. See Effective Java, item 19.
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/bzip2/BZip2Constants.java:44:	Avoid constants in interfaces. Interfaces define types, constants are implementation details better placed in classes or enums. See Effective Java, item 19.
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/bzip2/BZip2Constants.java:45:	Avoid constants in interfaces
 ...{continued}...</t>
-  </si>
-  <si>
-    <t>ec70921a964be0c38fbceff8a01c16bcad9ebd40</t>
-  </si>
-  <si>
-    <t>Sun Nov 4 10:23:51 2018 +0100</t>
-  </si>
-  <si>
-    <t>Revert a regression, improve tests</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntClassLoader.java:157:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntClassLoader.java:157:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntClassLoader.java:162:	Avoid empty catch blocks
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntClassLoader.java:185:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntClassLoader.java:203:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntClassLoader.java:210:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntClassLoader.java:228:	Avoid using implementation types like 'Hashtable'; use the interfac
-...{continued}...</t>
-  </si>
-  <si>
-    <t>e2dd6ec79a083901907e35ac4f0cd3631e71ec55</t>
-  </si>
-  <si>
-    <t>Sun Nov 4 10:02:42 2018 +0100</t>
-  </si>
-  <si>
-    <t>SonarQube: unnecessary parentheses is a major code smell</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/Java.java:87:	Document empty constructor
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/Java.java:254:	A catch statement should never catch throwable since it includes errors.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/Java.java:988:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/taskdefs/JavaTest.java:373:	Avoid empty catch blocks
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/taskdefs/JavaTest.java:484:	Unnecessary use of fully qualified name 'Assume.assumeTrue' due to existing static import 'org.junit.Assume.assumeTrue'
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/taskdefs/JavaTest.java:491:	All methods are static.  Consider using a utility class instead. Alternatively, you could add a private
-...{continued}...</t>
-  </si>
-  <si>
-    <t>2977bb596c7f8f0b3f81258d04d1c1ef0b3848b7</t>
-  </si>
-  <si>
-    <t>Sun Nov 4 10:01:43 2018 +0100</t>
-  </si>
-  <si>
-    <t>Checkstyle: dangling operators</t>
   </si>
   <si>
     <t>8cc8feebb0581bbcce5d745c8283c231db715d5a</t>
@@ -1881,15 +1597,6 @@
 This reverts commit 05bfffa247c470d12a5b93326a05d3fd0d890ce0 and 506c3ab47a1d69ecff691cc535ae8368d0aeb1db.</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/etc/testcases/core/containersrc/test/SpecialSeq.java:30:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/etc/testcases/taskdefs/javadoc/java/ClassToJavadoc.java:28:	Document empty method body
-/Users/danikgan/Desktop/Showcase/ant/src/etc/testcases/taskdefs/optional/depend/src6/org.dummy/Foo.java:20:	All methods are static.  Consider using a utility class instead. Alternatively, you could add a private constructor or make the class abstract to silence this warning.
-/Users/danikgan/Desktop/Showcase/ant/src/etc/testcases/taskdefs/rmic/src/AntTimestamp.java:26:	All classes and interfaces must belong to a named package
-/Users/danikgan/Desktop/Showcase/ant/src/etc/testcases/taskdefs/rmic/src/RemoteTimestampImpl.java:22:	All classes and interfaces must belong to a named package
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/AntClassLoader.java:129:	The method 'hasMore
-...{continued}...</t>
-  </si>
-  <si>
     <t>6c860479a13852637876aee516ed974f5736c0ee</t>
   </si>
   <si>
@@ -1935,14 +1642,6 @@
     <t>Dependency update/sync with POM build</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junitlauncher/StandaloneLauncher.java:63:	All methods are static.  Consider using a utility class instead. Alternatively, you could add a private constructor or make the class abstract to silence this warning.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junitlauncher/StandaloneLauncher.java:81:	Switch statements should have a default label
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junitlauncher/StandaloneLauncher.java:88:	Unnecessary modifier 'final' on resource specification 'is': resource specifications are implicitly final
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junitlauncher/StandaloneLauncher.java:111:	A catch statement should never catch throwable since it includes errors.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junitlauncher
-...{continued}...</t>
-  </si>
-  <si>
     <t>83aa80729adf14e340b3d31c09d8ab9f98c408c3</t>
   </si>
   <si>
@@ -1979,13 +1678,8 @@
     <t>there are no tests in MagicTestNames, thanks Gintas</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junitlauncher/LauncherSupport.java:139:	This call to Collection.toArray() may be optimizable
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junitlauncher/LauncherSupport.java:144:	Avoid empty catch blocks
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junitlauncher/LauncherSupport.java:149:	Avoid empty catch blocks
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junitlauncher/LauncherSupport.java:230:	Unnecessary use of fully qualified name 'java.nio.file.Path' due to existing import 'java.nio.file.Path'
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junitlauncher/LauncherSupport.java:463:	Use of modifier volatile is not recommended.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junitlauncher/LauncherSupport.java:50
-...{continued}...</t>
+    <t>/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/taskdefs/optional/junitlauncher/confined/Constants.java:24:	The utility class name 'Constants' doesn't match '[A-Z][a-zA-Z0-9]+(Utils?|Helper)'
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/taskdefs/optional/junitlauncher/confined/JUnitLauncherClassPathUtil.java:31:	All methods are static.  Consider using a utility class instead. Alternatively, you could add a private constructor or make the class abstract to silence this warning.</t>
   </si>
   <si>
     <t>3b0fb1ebaa5ac11b503f9aa6fee999d701be59f9</t>
@@ -2016,12 +1710,7 @@
 (please note different exclude rules than for compiler…)</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/MagicNames.java:29:	The utility class name 'MagicNames' doesn't match '[A-Z][a-zA-Z0-9]+(Utils?|Helper)'
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/BuildFileRule.java:66:	StringBuffers can grow quite a lot, and so may become a source of memory leak (if the owning class has a long life time).
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/BuildFileRule.java:67:	StringBuffers can grow quite a lot, and so may become a source of memory leak (if the owning class has a long life time).
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/BuildFileRule.java:68:	StringBuffers can grow quite a lot, and so may become a source of memory leak (if the owning class has a long life time).
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/BuildFileRule.java:69:	StringBuffers can grow quite a lot, and so may become a source of memory l
-...{continued}...</t>
+    <t>/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/MagicTestNames.java:25:	The utility class name 'MagicTestNames' doesn't match '[A-Z][a-zA-Z0-9]+(Utils?|Helper)'</t>
   </si>
   <si>
     <t>432cc329eee0764d235ada5891e5462440914945</t>
@@ -2043,325 +1732,501 @@
     <t>Fixed a broken test</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/UnknownElementTest.java:59:	Document empty method body
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/UnknownElementTest.java:62:	Document empty method body
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/UnknownElementTest.java:65:	Document empty method body
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/UnknownElementTest.java:68:	Document empty method body
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/UnknownElementTest.java:79:	Document empty method body
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/taskdefs/AntlibTest.java:78:	The JUnit 4 test method name 'testAntlib_uri' doesn't match '[a-z][a-zA-Z0-9]*'
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/taskdefs/AntlibTest.java:84:	The JUnit 4 test method name 'testAntlib_uri_auto' doesn't match '[a-
+    <t>/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/UnknownElementTest.java:59:	Document empty method body
+/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/UnknownElementTest.java:62:	Document empty method body
+/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/UnknownElementTest.java:65:	Document empty method body
+/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/UnknownElementTest.java:68:	Document empty method body
+/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/UnknownElementTest.java:79:	Document empty method body</t>
+  </si>
+  <si>
+    <t>99b2c646d30b3c30a39007e0add2f45a65cc1a74</t>
+  </si>
+  <si>
+    <t>Sat Oct 27 10:36:49 2018 +0200</t>
+  </si>
+  <si>
+    <t>Make contents of jar files similar to those built by Ant</t>
+  </si>
+  <si>
+    <t>fbe6a53be56713a5993b6918e6fd394b9cfe8acb</t>
+  </si>
+  <si>
+    <t>Fri Oct 26 22:22:01 2018 +0200</t>
+  </si>
+  <si>
+    <t>Remove unused root property, add assertions for build.tests.value</t>
+  </si>
+  <si>
+    <t>79b44c57c0a0797cd8c2a40cd75e3f478f37b333</t>
+  </si>
+  <si>
+    <t>Thu Oct 25 23:56:19 2018 +0200</t>
+  </si>
+  <si>
+    <t>Activate more tests in Surefire</t>
+  </si>
+  <si>
+    <t>f32cf7cfa542457455366a8caddb62f4d950992f</t>
+  </si>
+  <si>
+    <t>Thu Oct 25 20:57:42 2018 +0200</t>
+  </si>
+  <si>
+    <t>More hardcoded assumptions about file tree structure</t>
+  </si>
+  <si>
+    <t>f7aa06b03f474ad9dfd9e74f64956c3cfc58df13</t>
+  </si>
+  <si>
+    <t>Thu Oct 25 19:39:50 2018 +0200</t>
+  </si>
+  <si>
+    <t>Missed special properties…</t>
+  </si>
+  <si>
+    <t>3690ab246ddfaa1333db642b30abe2a0e40a1aaf</t>
+  </si>
+  <si>
+    <t>Thu Oct 25 19:05:39 2018 +0200</t>
+  </si>
+  <si>
+    <t>Fix “javac missing on Java 8” issue with Surefire</t>
+  </si>
+  <si>
+    <t>f3837f017b5cae73832a47fb1f8b1708216acc00</t>
+  </si>
+  <si>
+    <t>Thu Oct 25 17:06:24 2018 +0200</t>
+  </si>
+  <si>
+    <t>Make Jenkins builds work again</t>
+  </si>
+  <si>
+    <t>0d3d1373124c5aeceb586c1a71caa03cde721f96</t>
+  </si>
+  <si>
+    <t>Thu Oct 25 08:20:01 2018 +0200</t>
+  </si>
+  <si>
+    <t>Adjust packaging, get more tests running in Surefire</t>
+  </si>
+  <si>
+    <t>706d002129865450494a0938c63deb525afd53a1</t>
+  </si>
+  <si>
+    <t>Wed Oct 24 22:35:02 2018 +0200</t>
+  </si>
+  <si>
+    <t>More MagicNames</t>
+  </si>
+  <si>
+    <t>c7ab4faae7f4f3166206d7365193fb078ecdef1b</t>
+  </si>
+  <si>
+    <t>Wed Oct 24 08:04:25 2018 +0200</t>
+  </si>
+  <si>
+    <t>Update WHATSNEW</t>
+  </si>
+  <si>
+    <t>1c5f720db78a95595a161515b3d78dd7fe8b1c06</t>
+  </si>
+  <si>
+    <t>Wed Oct 24 00:28:00 2018 +0200</t>
+  </si>
+  <si>
+    <t>Try to run a majority of available tests in Surefire without modifications</t>
+  </si>
+  <si>
+    <t>d3f7c0e63c5c5348b663a2fc4b5c9cca7f23079b</t>
+  </si>
+  <si>
+    <t>Tue Oct 23 22:09:57 2018 +0200</t>
+  </si>
+  <si>
+    <t>Try to run more tests with Surefire; document snags, fix packaging</t>
+  </si>
+  <si>
+    <t>679a94224de0c57c777f6ecca5c33207c11e500b</t>
+  </si>
+  <si>
+    <t>Tue Oct 23 20:16:24 2018 +0200</t>
+  </si>
+  <si>
+    <t>Add magic names for tests, run more tests in Surefire</t>
+  </si>
+  <si>
+    <t>9b76c358850430674858a2193ef5081ad1a2a691</t>
+  </si>
+  <si>
+    <t>Sat Oct 20 09:28:39 2018 +0200</t>
+  </si>
+  <si>
+    <t>Use canonical download URL for SonarQube tasks</t>
+  </si>
+  <si>
+    <t>/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/types/selectors/OwnedBySelectorTest.java:48:	This final field could be made static</t>
+  </si>
+  <si>
+    <t>7f67244c034bdbfe5472192090ee56f4afd4e16a</t>
+  </si>
+  <si>
+    <t>Sat Oct 20 09:13:02 2018 +0200</t>
+  </si>
+  <si>
+    <t>Disable Surefire for ant-jai, too</t>
+  </si>
+  <si>
+    <t>eea994440f5e530f2e8f8cda4ba828e9da2b31b8</t>
+  </si>
+  <si>
+    <t>Sat Oct 20 09:04:14 2018 +0200</t>
+  </si>
+  <si>
+    <t>Try to run some tests with Surefire</t>
+  </si>
+  <si>
+    <t>d8d00ba41b762e4a0c0741234ce3eae1e4e790a6</t>
+  </si>
+  <si>
+    <t>Sat Oct 20 09:01:30 2018 +0200</t>
+  </si>
+  <si>
+    <t>Update dependencies, fix packaging</t>
+  </si>
+  <si>
+    <t>f3ca2517ca977b570d893d765aa1f7243f97ac1a</t>
+  </si>
+  <si>
+    <t>Sat Oct 20 08:58:19 2018 +0200</t>
+  </si>
+  <si>
+    <t>Add imageio to Maven reactor</t>
+  </si>
+  <si>
+    <t>b49d325fe8678afa471e4ee561240022ac27c960</t>
+  </si>
+  <si>
+    <t>Wed Oct 17 13:34:53 2018 +0200</t>
+  </si>
+  <si>
+    <t>f1d2c1551c8f45cb209b11df98adab5798605f68</t>
+  </si>
+  <si>
+    <t>Wed Oct 17 13:34:31 2018 +0200</t>
+  </si>
+  <si>
+    <t>use generics properly</t>
+  </si>
+  <si>
+    <t>6f569185973f1d3fd5075d90ade9171495e143fa</t>
+  </si>
+  <si>
+    <t>Fri Oct 5 11:35:03 2018 +0530</t>
+  </si>
+  <si>
+    <t>189ad7e59b4def41bc29fd61f0056fdabd822e51</t>
+  </si>
+  <si>
+    <t>Thu Oct 4 12:16:28 2018 +0530</t>
+  </si>
+  <si>
+    <t>bz-62764 Add a debug log message when we skip invalid path elements from the AntClassLoader's classpath</t>
+  </si>
+  <si>
+    <t>2a359a6d3d13c572b4bac8e8c2fc21ad5001e32c</t>
+  </si>
+  <si>
+    <t>Sat Sep 29 18:01:36 2018 +0200</t>
+  </si>
+  <si>
+    <t>6b76234c3c551addb35345af29123ffcf24f2064</t>
+  </si>
+  <si>
+    <t>Sat Sep 29 17:59:26 2018 +0200</t>
+  </si>
+  <si>
+    <t>fix javadocs</t>
+  </si>
+  <si>
+    <t>1db485590212804acf41e5e18b5388b741571258</t>
+  </si>
+  <si>
+    <t>Fri Sep 28 20:43:40 2018 +0200</t>
+  </si>
+  <si>
+    <t>bad rowspan</t>
+  </si>
+  <si>
+    <t>872a9bcdedc9611e3703cfe739dc53896adce4ee</t>
+  </si>
+  <si>
+    <t>Fri Sep 28 20:42:18 2018 +0200</t>
+  </si>
+  <si>
+    <t>accumulo</t>
+  </si>
+  <si>
+    <t>Mike Walch &lt;mwalch@apache.org&gt;</t>
+  </si>
+  <si>
+    <t>44b4af2c5243f7c123ea22e364b70158512a0643</t>
+  </si>
+  <si>
+    <t>Fri Jan 11 18:01:07 2019 -0500</t>
+  </si>
+  <si>
+    <t>Fix #883 Specify client props as HDFS path in new M/R API (#894)
+* Also cleaned up new M/R API by removing unnecessary methods
+and using properties in place of ClientInfo</t>
+  </si>
+  <si>
+    <t>Christopher Tubbs &lt;ctubbsii@apache.org&gt;</t>
+  </si>
+  <si>
+    <t>729524c201f4472d38d452c42f2d91a281e531b3</t>
+  </si>
+  <si>
+    <t>Fri Jan 11 17:06:10 2019 -0500</t>
+  </si>
+  <si>
+    <t>Fix SslIT integration tests (#895)
+Ensure ssl parameters are properly passed from the Ssl IT to the
+mapreduce client process running with ssl.</t>
+  </si>
+  <si>
+    <t>/Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapreduce/lib/ConfiguratorBase.java:17:	Package name contains upper case characters</t>
+  </si>
+  <si>
+    <t>b78f8e90789c824fa1802fcfee9c4193dc572606</t>
+  </si>
+  <si>
+    <t>Fri Jan 11 10:03:18 2019 -0500</t>
+  </si>
+  <si>
+    <t>Revert core/mapred* serialization (#892)
+* Fix broken core/mapred* ITs
+* Revert serialization to previous (1.9) serialization in core
+* Make use of stored fields in input splits before reading job
+configuration for constructing client
+* Use ConnectorImpl's ClientContext in core/mapred
+* Revert unnecessary closing of ClientContext from ConnectorImpl
+* Revert unnecessary "simplification" of Configurators to manage
+deprecated types (remove unnecessary deprecation of internal
+configurator classes)
+* Slight simplifications to ITs to ease debugging
+* Check failure state when core/mapred ITs fail</t>
+  </si>
+  <si>
+    <t>Mike Miller &lt;mmiller@apache.org&gt;</t>
+  </si>
+  <si>
+    <t>2e405b51eb6c2bd93b8557ed43e38580af3d92cd</t>
+  </si>
+  <si>
+    <t>Thu Jan 10 16:20:55 2019 -0500</t>
+  </si>
+  <si>
+    <t>Fix formatting</t>
+  </si>
+  <si>
+    <t>05d564fce5e70a4cf0de5405e4eff265419a5afe</t>
+  </si>
+  <si>
+    <t>Thu Jan 10 14:53:38 2019 -0500</t>
+  </si>
+  <si>
+    <t>Clean up new Map Reduce internals (#884)
+* Create AccumuloRecordReader from AbstractRecordReader
+* Remove intermediate abstract Input classes
+* Make AccumuloRecordWriter its own class
+* Cleanup AccumuloFileOutputFormat classes
+* Drop AccumuloFileOutputFormatImpl and call configurator directly
+* Make classes pass class to job serialization</t>
+  </si>
+  <si>
+    <t>3a1dc3d36a3e51cb3b2f970211e3f3b0b8ed18b3</t>
+  </si>
+  <si>
+    <t>Thu Jan 10 10:53:44 2019 -0500</t>
+  </si>
+  <si>
+    <t>Fix #885 Simplify 'accumulo classpath' command (#887)
+* Remove Java implementation and echo CLASSPATH variable</t>
+  </si>
+  <si>
+    <t>/Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapred/AccumuloRecordReader.java:17:	Package name contains upper case characters
+/Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapred/AccumuloRecordReader.java:122:	This statement should have braces
+/Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapred/AccumuloRecordReader.java:131:	Logger calls should be surrounded by log level guards.
+/Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapred/AccumuloRecordReader.java:144:	Logger calls should be surrounded by log level guards.
+/Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapred/AccumuloRecordReader.java:145:	Logger calls should be surrounded by log level guards.
+/Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImp
 ...{continued}...</t>
   </si>
   <si>
-    <t>99b2c646d30b3c30a39007e0add2f45a65cc1a74</t>
-  </si>
-  <si>
-    <t>Sat Oct 27 10:36:49 2018 +0200</t>
-  </si>
-  <si>
-    <t>Make contents of jar files similar to those built by Ant</t>
-  </si>
-  <si>
-    <t>fbe6a53be56713a5993b6918e6fd394b9cfe8acb</t>
-  </si>
-  <si>
-    <t>Fri Oct 26 22:22:01 2018 +0200</t>
-  </si>
-  <si>
-    <t>Remove unused root property, add assertions for build.tests.value</t>
-  </si>
-  <si>
-    <t>79b44c57c0a0797cd8c2a40cd75e3f478f37b333</t>
-  </si>
-  <si>
-    <t>Thu Oct 25 23:56:19 2018 +0200</t>
-  </si>
-  <si>
-    <t>Activate more tests in Surefire</t>
-  </si>
-  <si>
-    <t>f32cf7cfa542457455366a8caddb62f4d950992f</t>
-  </si>
-  <si>
-    <t>Thu Oct 25 20:57:42 2018 +0200</t>
-  </si>
-  <si>
-    <t>More hardcoded assumptions about file tree structure</t>
-  </si>
-  <si>
-    <t>f7aa06b03f474ad9dfd9e74f64956c3cfc58df13</t>
-  </si>
-  <si>
-    <t>Thu Oct 25 19:39:50 2018 +0200</t>
-  </si>
-  <si>
-    <t>Missed special properties…</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junit/JUnitTask.java:158:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junit/JUnitTask.java:195:	Use of modifier volatile is not recommended.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junit/JUnitTask.java:937:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junit/JUnitTask.java:937:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junit/JUnitTask.java:1289:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junit/JUnitTask.java:1383:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/optional/junit/JUni
+    <t>Keith Turner &lt;kturner@apache.org&gt;</t>
+  </si>
+  <si>
+    <t>0930e896e222193d6edd50d0c40d14a4078fdf6c</t>
+  </si>
+  <si>
+    <t>Thu Jan 10 10:40:28 2019 -0500</t>
+  </si>
+  <si>
+    <t>fixes #869 check transaction are alive for new bulk import RPCs (#871)</t>
+  </si>
+  <si>
+    <t>6d60e3bc16d0b455cb8d035580212af7ffa040d4</t>
+  </si>
+  <si>
+    <t>Thu Jan 10 10:19:21 2019 -0500</t>
+  </si>
+  <si>
+    <t>Merge branch '1.9'</t>
+  </si>
+  <si>
+    <t>/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/tabletserver/thrift/TabletClientService.java:59:	Unnecessary modifier 'public' on method 'bulkImport': the method is declared in an interface type
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/tabletserver/thrift/TabletClientService.java:59:	Unnecessary use of fully qualified name 'java.lang.String' due to existing implicit import 'java.lang.*'
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/tabletserver/thrift/TabletClientService.java:61:	Unnecessary modifier 'public' on method 'loadFiles': the method is declared in an interface type
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/tabletserver/thrift/TabletClientService.java:61:	Unnecessary use of fully qualified name 'java.lang.String' due to existing implicit import 'java.lang.*'
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/tabletserver/t
 ...{continued}...</t>
   </si>
   <si>
-    <t>3690ab246ddfaa1333db642b30abe2a0e40a1aaf</t>
-  </si>
-  <si>
-    <t>Thu Oct 25 19:05:39 2018 +0200</t>
-  </si>
-  <si>
-    <t>Fix “javac missing on Java 8” issue with Surefire</t>
-  </si>
-  <si>
-    <t>f3837f017b5cae73832a47fb1f8b1708216acc00</t>
-  </si>
-  <si>
-    <t>Thu Oct 25 17:06:24 2018 +0200</t>
-  </si>
-  <si>
-    <t>Make Jenkins builds work again</t>
-  </si>
-  <si>
-    <t>0d3d1373124c5aeceb586c1a71caa03cde721f96</t>
-  </si>
-  <si>
-    <t>Thu Oct 25 08:20:01 2018 +0200</t>
-  </si>
-  <si>
-    <t>Adjust packaging, get more tests running in Surefire</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/taskdefs/AntTest.java:390:	Document empty method body
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/taskdefs/AntTest.java:393:	Document empty method body
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/taskdefs/AntTest.java:396:	Document empty method body
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/taskdefs/AntTest.java:399:	Document empty method body
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/taskdefs/AntTest.java:402:	Document empty method body
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/taskdefs/AntTest.java:405:	Document empty method body
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/taskdefs/AntTest.java:440:	Document empty method body
-/Users/danikgan/Desktop/Showcase/ant/src/tests/junit/org/apache/tools/ant/taskdefs/AntTest.java:443:	Doc
+    <t>577dd9a643574b79700ed3de076eb84f9d4d8124</t>
+  </si>
+  <si>
+    <t>Thu Jan 10 10:18:17 2019 -0500</t>
+  </si>
+  <si>
+    <t>During tablet recovery filter logs out that do not define tablet. (#881)
+In a situation where a tablet had lots of write ahead logs, log
+recovery consumed a lot of memory.  The reason for the memory
+consumption was that all recovery logs are opened at once.  This
+means the index for each file and a few key/values from each file
+are read into memory.
+This patch modifies the code to first open logs one at time to see if
+they define the tablet. Then only the logs that define the tablet are
+opened at the same time.  This has the potential to use less memory
+when a subset of the logs define a tablet.</t>
+  </si>
+  <si>
+    <t>/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/Constants.java:25:	The utility class name 'Constants' doesn't match '[A-Z][a-zA-Z0-9]+(Utils?|Helper)'
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/cli/ConfigOpts.java:96:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/cli/ConfigOpts.java:100:	Logger calls should be surrounded by log level guards.
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/client/Accumulo.java:47:	The utility class name 'Accumulo' doesn't match '[A-Z][a-zA-Z0-9]+(Utils?|Helper)'
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/client/ClientConfiguration.java:53:	A class which only has private constructors should be final
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/client/TableOfflineException.j
 ...{continued}...</t>
   </si>
   <si>
-    <t>706d002129865450494a0938c63deb525afd53a1</t>
-  </si>
-  <si>
-    <t>Wed Oct 24 22:35:02 2018 +0200</t>
-  </si>
-  <si>
-    <t>More MagicNames</t>
-  </si>
-  <si>
-    <t>c7ab4faae7f4f3166206d7365193fb078ecdef1b</t>
-  </si>
-  <si>
-    <t>Wed Oct 24 08:04:25 2018 +0200</t>
-  </si>
-  <si>
-    <t>Update WHATSNEW</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/helper/ProjectHelper2.java:291:	New exception is thrown in catch block, original stack trace may be lost
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/helper/ProjectHelper2.java:403:	Document empty method body
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/helper/ProjectHelper2.java:439:	Document empty method body
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/helper/ProjectHelper2.java:449:	Document empty method body
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/helper/ProjectHelper2.java:479:	Document empty method body
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/helper/ProjectHelper2.java:831:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/helper/ProjectHelper2.java:949:	New exception is thrown in catch block, original stack trace may be lost
-/Users/danikgan/Desktop/Showcase
+    <t>d379b5f8d3db635046996d4cd39f502ab0dea7d8</t>
+  </si>
+  <si>
+    <t>Wed Jan 9 16:31:21 2019 -0500</t>
+  </si>
+  <si>
+    <t>Make new Bulk Import tableTime take boolean (#880)
+* Also add new test to BulkLoadIT for tableTime</t>
+  </si>
+  <si>
+    <t>/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/Constants.java:27:	The utility class name 'Constants' doesn't match '[A-Z][a-zA-Z0-9]+(Utils?|Helper)'
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/cli/MapReduceClientOnRequiredTable.java:40:	Use one line for each declaration, it enhances code readability.
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/cli/MapReduceClientOpts.java:67:	Logger calls should be surrounded by log level guards.
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/client/TableOfflineException.java:27:	This statement should have braces
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/client/admin/DiskUsage.java:49:	This statement should have braces
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/client/admin/DiskUsage.java:50:	Avoid unnecessary if..then..else statements when returning booleans
 ...{continued}...</t>
   </si>
   <si>
-    <t>1c5f720db78a95595a161515b3d78dd7fe8b1c06</t>
-  </si>
-  <si>
-    <t>Wed Oct 24 00:28:00 2018 +0200</t>
-  </si>
-  <si>
-    <t>Try to run a majority of available tests in Surefire without modifications</t>
-  </si>
-  <si>
-    <t>d3f7c0e63c5c5348b663a2fc4b5c9cca7f23079b</t>
-  </si>
-  <si>
-    <t>Tue Oct 23 22:09:57 2018 +0200</t>
-  </si>
-  <si>
-    <t>Try to run more tests with Surefire; document snags, fix packaging</t>
-  </si>
-  <si>
-    <t>679a94224de0c57c777f6ecca5c33207c11e500b</t>
-  </si>
-  <si>
-    <t>Tue Oct 23 20:16:24 2018 +0200</t>
-  </si>
-  <si>
-    <t>Add magic names for tests, run more tests in Surefire</t>
-  </si>
-  <si>
-    <t>9b76c358850430674858a2193ef5081ad1a2a691</t>
-  </si>
-  <si>
-    <t>Sat Oct 20 09:28:39 2018 +0200</t>
-  </si>
-  <si>
-    <t>Use canonical download URL for SonarQube tasks</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/MagicNames.java:29:	The utility class name 'MagicNames' doesn't match '[A-Z][a-zA-Z0-9]+(Utils?|Helper)'
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/CallTarget.java:84:	The method 'init()' is missing an @Override annotation.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/CallTarget.java:94:	The method 'execute()' is missing an @Override annotation.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/CallTarget.java:178:	The method 'handleOutput(String)' is missing an @Override annotation.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/CallTarget.java:200:	The method 'handleInput(byte, int, int)' is missing an @Override annotation.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/CallTarget.java:216:	The method 'handleFlush(String)' is missing an @Override annotation.
-/Users/danikga
+    <t>42d82d9cdc0a401ff7e3dfc8c6e9b8659e5927d7</t>
+  </si>
+  <si>
+    <t>Tue Jan 8 11:42:52 2019 -0500</t>
+  </si>
+  <si>
+    <t>Fix latest round of warnings (#879)
+* Remove import statement for deprecated class
+* Restore some deleted KeyShortenerTest code, and make use of the
+expected parameter for verifying shortened keys
+* Remove some unused variables</t>
+  </si>
+  <si>
+    <t>71fc7e77edbd73f21599a9d8b9b9254eb0dc74b9</t>
+  </si>
+  <si>
+    <t>Mon Jan 7 19:13:04 2019 -0500</t>
+  </si>
+  <si>
+    <t>Cleanup params in PermissionHandler (#878)
+* Also remove unused initTable method</t>
+  </si>
+  <si>
+    <t>/Users/danikgan/Desktop/accumulo/server/base/src/main/java/org/apache/accumulo/server/util/MasterMetadataUtil.java:130:	Useless parentheses.</t>
+  </si>
+  <si>
+    <t>d351abff8198ea12fd9a9bb055fe003bf6cdf8ca</t>
+  </si>
+  <si>
+    <t>Mon Jan 7 18:18:29 2019 -0500</t>
+  </si>
+  <si>
+    <t>Regenerate thrift after #846</t>
+  </si>
+  <si>
+    <t>/Users/danikgan/Desktop/accumulo/server/base/src/main/java/org/apache/accumulo/server/security/SecurityOperation.java:401:	This statement should have braces
+/Users/danikgan/Desktop/accumulo/server/base/src/main/java/org/apache/accumulo/server/security/SecurityOperation.java:404:	New exception is thrown in catch block, original stack trace may be lost</t>
+  </si>
+  <si>
+    <t>2c06451b858a29fb312b6d4717a1b92747560522</t>
+  </si>
+  <si>
+    <t>Mon Jan 7 18:10:44 2019 -0500</t>
+  </si>
+  <si>
+    <t>/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/rpc/thrift/SimpleThriftService.java:211:	The class name 'echoPass_call' doesn't match '[A-Z][a-zA-Z0-9]*'
+/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/rpc/thrift/SimpleThriftService.java:211:	Unnecessary use of fully qualified name 'java.lang.String' due to existing implicit import 'java.lang.*'
+/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/rpc/thrift/SimpleThriftService.java:212:	Unnecessary use of fully qualified name 'java.lang.String' due to existing implicit import 'java.lang.*'
+/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/rpc/thrift/SimpleThriftService.java:213:	Unnecessary use of fully qualified name 'java.lang.String' due to existing implicit import 'java.lang.*'
+/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/rpc/thrift/SimpleThriftService.java:213:	Unnecessary use of fully quali
 ...{continued}...</t>
   </si>
   <si>
-    <t>7f67244c034bdbfe5472192090ee56f4afd4e16a</t>
-  </si>
-  <si>
-    <t>Sat Oct 20 09:13:02 2018 +0200</t>
-  </si>
-  <si>
-    <t>Disable Surefire for ant-jai, too</t>
-  </si>
-  <si>
-    <t>eea994440f5e530f2e8f8cda4ba828e9da2b31b8</t>
-  </si>
-  <si>
-    <t>Sat Oct 20 09:04:14 2018 +0200</t>
-  </si>
-  <si>
-    <t>Try to run some tests with Surefire</t>
-  </si>
-  <si>
-    <t>d8d00ba41b762e4a0c0741234ce3eae1e4e790a6</t>
-  </si>
-  <si>
-    <t>Sat Oct 20 09:01:30 2018 +0200</t>
-  </si>
-  <si>
-    <t>Update dependencies, fix packaging</t>
-  </si>
-  <si>
-    <t>f3ca2517ca977b570d893d765aa1f7243f97ac1a</t>
-  </si>
-  <si>
-    <t>Sat Oct 20 08:58:19 2018 +0200</t>
-  </si>
-  <si>
-    <t>Add imageio to Maven reactor</t>
-  </si>
-  <si>
-    <t>b49d325fe8678afa471e4ee561240022ac27c960</t>
-  </si>
-  <si>
-    <t>Wed Oct 17 13:34:53 2018 +0200</t>
-  </si>
-  <si>
-    <t>Merge branch '1.9.x'</t>
-  </si>
-  <si>
-    <t>f1d2c1551c8f45cb209b11df98adab5798605f68</t>
-  </si>
-  <si>
-    <t>Wed Oct 17 13:34:31 2018 +0200</t>
-  </si>
-  <si>
-    <t>use generics properly</t>
-  </si>
-  <si>
-    <t>6f569185973f1d3fd5075d90ade9171495e143fa</t>
-  </si>
-  <si>
-    <t>Fri Oct 5 11:35:03 2018 +0530</t>
-  </si>
-  <si>
-    <t>189ad7e59b4def41bc29fd61f0056fdabd822e51</t>
-  </si>
-  <si>
-    <t>Thu Oct 4 12:16:28 2018 +0530</t>
-  </si>
-  <si>
-    <t>bz-62764 Add a debug log message when we skip invalid path elements from the AntClassLoader's classpath</t>
-  </si>
-  <si>
-    <t>2a359a6d3d13c572b4bac8e8c2fc21ad5001e32c</t>
-  </si>
-  <si>
-    <t>Sat Sep 29 18:01:36 2018 +0200</t>
-  </si>
-  <si>
-    <t>6b76234c3c551addb35345af29123ffcf24f2064</t>
-  </si>
-  <si>
-    <t>Sat Sep 29 17:59:26 2018 +0200</t>
-  </si>
-  <si>
-    <t>fix javadocs</t>
-  </si>
-  <si>
-    <t>1db485590212804acf41e5e18b5388b741571258</t>
-  </si>
-  <si>
-    <t>Fri Sep 28 20:43:40 2018 +0200</t>
-  </si>
-  <si>
-    <t>bad rowspan</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/AbstractJarSignerTask.java:84:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/AbstractJarSignerTask.java:127:	Use one line for each declaration, it enhances code readability.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/AbstractJarSignerTask.java:450:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/AbstractJarSignerTask.java:486:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/Javadoc.java:230:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/Javadoc.java:33
-...{continued}...</t>
-  </si>
-  <si>
-    <t>872a9bcdedc9611e3703cfe739dc53896adce4ee</t>
-  </si>
-  <si>
-    <t>Fri Sep 28 20:42:18 2018 +0200</t>
-  </si>
-  <si>
-    <t>048015b7d891edd74c8d458aa582a504511872c6</t>
-  </si>
-  <si>
-    <t>Fri Sep 28 20:27:53 2018 +0200</t>
-  </si>
-  <si>
-    <t>BZ 62424 minimal module support for javadoc</t>
-  </si>
-  <si>
-    <t>24e47067a2ee35cd63597d92ab66a1d410a1f1bf</t>
-  </si>
-  <si>
-    <t>Fri Sep 28 18:33:58 2018 +0200</t>
-  </si>
-  <si>
-    <t>sorry, fingers slipped and I didn't notice</t>
-  </si>
-  <si>
-    <t>b99b6fa538e857f7f064b943729babe25e2a60f0</t>
-  </si>
-  <si>
-    <t>Fri Sep 28 18:30:04 2018 +0200</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/AbstractJarSignerTask.java:95:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/AbstractJarSignerTask.java:127:	Use one line for each declaration, it enhances code readability.
-/Users/danikgan/Desktop/Showcase/ant/src/main/org/apache/tools/ant/taskdefs/AbstractJarSignerTask.java:447:	Avoid using implementation types like 'Vector'; use the interface instead</t>
-  </si>
-  <si>
-    <t>accumulo</t>
-  </si>
-  <si>
-    <t>Mike Walch &lt;mwalch@apache.org&gt;</t>
+    <t>91988183d0649e9fd09901e2c5905e9f7a678368</t>
+  </si>
+  <si>
+    <t>Mon Jan 7 16:53:44 2019 -0500</t>
+  </si>
+  <si>
+    <t>Make replication services start when configured (#868)
+* Replication services in tserver and master will now only start when replication.name is set</t>
+  </si>
+  <si>
+    <t>d59f3d68943430abc54bd0ca33774d4e996eca22</t>
+  </si>
+  <si>
+    <t>Mon Jan 7 15:02:14 2019 -0500</t>
+  </si>
+  <si>
+    <t>Remove unused code in master and server (#870)
+* Also deprecated PermissionHander.initTable() since it has never been used</t>
+  </si>
+  <si>
+    <t>/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/TabletServer.java:344:	Use of modifier volatile is not recommended.
+/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/TabletServer.java:346:	Perhaps 'bulkFailedCopyQ' could be replaced by a local variable.</t>
+  </si>
+  <si>
+    <t>0adec43da0d3652f4642c5fbcd16537fccf4a0aa</t>
+  </si>
+  <si>
+    <t>Mon Jan 7 14:21:11 2019 -0500</t>
+  </si>
+  <si>
+    <t>Fix MapReduce bug (#874)
+* AccumuloOutputFormat is using wrong getClientInfo method</t>
+  </si>
+  <si>
+    <t>/Users/danikgan/Desktop/accumulo/server/base/src/main/java/org/apache/accumulo/server/security/SecurityUtil.java:30:	All methods are static.  Consider using a utility class instead. Alternatively, you could add a private constructor or make the class abstract to silence this warning.</t>
   </si>
   <si>
     <t>c265ea5b16171032419b164e809f5478f70bbba8</t>
@@ -2379,6 +2244,15 @@
 by unit test</t>
   </si>
   <si>
+    <t>c8b413261530017faed40c5d86930da017e4292f</t>
+  </si>
+  <si>
+    <t>Fri Jan 4 14:33:26 2019 -0500</t>
+  </si>
+  <si>
+    <t>#859 - Fix CLASSPATH bug causing cur dir to be added (#864)</t>
+  </si>
+  <si>
     <t>Jeffrey L. Zeiberg &lt;Jeffrey.Zeiberg@asrcfederal.com&gt;</t>
   </si>
   <si>
@@ -2391,18 +2265,6 @@
     <t>fixes #807 Refactor KeyExtent.toMetadataRange to use TabletSection (#818)</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/minicluster/src/main/java/org/apache/accumulo/cluster/standalone/StandaloneClusterControl.java:26:	Avoid unused imports such as 'java.net.URL'
-/Users/danikgan/Desktop/Showcase/accumulo/minicluster/src/main/java/org/apache/accumulo/cluster/standalone/StandaloneClusterControl.java:27:	Avoid unused imports such as 'java.security.CodeSource'
-/Users/danikgan/Desktop/Showcase/accumulo/minicluster/src/main/java/org/apache/accumulo/cluster/standalone/StandaloneClusterControl.java:57:	Use one line for each declaration, it enhances code readability.
-/Users/danikgan/Desktop/Showcase/accumulo/minicluster/src/main/java/org/apache/accumulo/cluster/standalone/StandaloneClusterControl.java:68:	Use one line for each declaration, it enhances code readability.
-/Users/danikgan/Desktop/Showcase/accumulo/minicluster/src/main/java/org/apache/accumulo/cluster/standalone/StandaloneClusterControl.java:120:	This call to Collection.toArray() may be optimizable
-/Users/dani
-...{continued}...</t>
-  </si>
-  <si>
-    <t>Mike Miller &lt;mmiller@apache.org&gt;</t>
-  </si>
-  <si>
     <t>966a4ad0f5b08b4209f9a1a61b54ce6ad972cd01</t>
   </si>
   <si>
@@ -2412,19 +2274,6 @@
     <t>Use secureRandom in ManyWriteAheadLogsIT</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/dataImpl/KeyExtent.java:17:	Package name contains upper case characters
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/dataImpl/KeyExtent.java:68:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/dataImpl/KeyExtent.java:71:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/dataImpl/KeyExtent.java:143:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/dataImpl/KeyExtent.java:171:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/dataImpl/KeyExtent.java:173:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/dataImpl/KeyE
-...{continued}...</t>
-  </si>
-  <si>
-    <t>Keith Turner &lt;kturner@apache.org&gt;</t>
-  </si>
-  <si>
     <t>c22ca4a86f06dab5b2081053560854c0b1bf08e2</t>
   </si>
   <si>
@@ -2434,24 +2283,15 @@
     <t>Merge branch 'master' of github.com:apache/accumulo</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/test/src/main/java/org/apache/accumulo/test/functional/ManyWriteAheadLogsIT.java:155:	Logger calls should be surrounded by log level guards.</t>
-  </si>
-  <si>
     <t>c0f9e322111c8f6bcbfcaf1c67160756153b63a5</t>
   </si>
   <si>
     <t>Wed Jan 2 16:53:01 2019 -0500</t>
   </si>
   <si>
-    <t>Merge branch '1.9'</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/ReplicationClient.java:17:	Package name contains upper case characters
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/ReplicationClient.java:39:	All methods are static.  Consider using a utility class instead. Alternatively, you could add a private constructor or make the class abstract to silence this warning.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/ReplicationClient.java:39:	The utility class name 'ReplicationClient' doesn't match '[A-Z][a-zA-Z0-9]+(Utils?|Helper)'
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/ReplicationClient.java:55:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/ReplicationClient.java:72:	Substitute calls to size() == 0 (or size()
-...{continued}...</t>
+    <t>/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/TabletServer.java:334:	Perhaps 'majorCompactorThread' could be replaced by a local variable.
+/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/TabletServer.java:338:	Use of modifier volatile is not recommended.
+/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/tablet/ScanOptions.java:95:	This statement should have braces</t>
   </si>
   <si>
     <t>6539df69aa741a280e9297e8f398929e37823953</t>
@@ -2463,12 +2303,12 @@
     <t>Remove duplicate close in ReplicationClient</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/admin/NewTableConfiguration.java:173:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/admin/NewTableConfiguration.java:297:	Unnecessary use of fully qualified name 'Objects.requireNonNull' due to existing static import 'java.util.Objects.requireNonNull'
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/admin/NewTableConfiguration.java:298:	Unnecessary use of fully qualified name 'Objects.requireNonNull' due to existing static import 'java.util.Objects.requireNonNull'
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/admin/NewTableConfiguration.java:307:	When doing a String.toLowerCase()/toUpperCase() call, use a Locale
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/InstanceOperations
-...{continued}...</t>
+    <t>/Users/danikgan/Desktop/accumulo/server/base/src/main/java/org/apache/accumulo/server/log/WalStateManager.java:172:	Logger calls should be surrounded by log level guards.
+/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/TabletServerResourceManager.java:744:	This statement should have braces
+/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/tablet/ScanOptions.java:99:	This statement should have braces
+/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/functional/BulkFailureIT.java:155:	Avoid empty catch blocks
+/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/functional/BulkFailureIT.java:187:	Consider simply returning the value vs storing it in local variable 'filesStr'
+/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/functional/ManyWriteAheadLogsIT.java:154:	Logger calls should be surrounded by log level guards.</t>
   </si>
   <si>
     <t>b915947c0c22d9db717067b601c62829205d1505</t>
@@ -2505,15 +2345,6 @@
 ...{continued}...</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/Constants.java:25:	The utility class name 'Constants' doesn't match '[A-Z][a-zA-Z0-9]+(Utils?|Helper)'
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/bloomfilter/BloomFilter.java:236:	New exception is thrown in catch block, original stack trace may be lost
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/bloomfilter/BloomFilter.java:240:	Use one line for each declaration, it enhances code readability.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/bloomfilter/Filter.java:91:	Document empty constructor
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/cli/ClientOpts.java:130:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/cli/ConfigOpts.java:96:	Substitute calls to size() == 0 (or s
-...{continued}...</t>
-  </si>
-  <si>
     <t>f3c86441a525686c4ceca926d593db0f0eb66af9</t>
   </si>
   <si>
@@ -2523,9 +2354,7 @@
     <t>Fixes #854 handle many tablets referencing many WALs (#860)</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/server/base/src/main/java/org/apache/accumulo/server/log/WalStateManager.java:83:	Unnecessary modifier 'static' on enum 'WalState': nested enums are implicitly static
-/Users/danikgan/Desktop/Showcase/accumulo/server/base/src/main/java/org/apache/accumulo/server/log/WalStateManager.java:95:	Use of modifier volatile is not recommended.
-/Users/danikgan/Desktop/Showcase/accumulo/server/base/src/main/java/org/apache/accumulo/server/log/WalStateManager.java:173:	Logger calls should be surrounded by log level guards.</t>
+    <t>/Users/danikgan/Desktop/accumulo/server/base/src/main/java/org/apache/accumulo/server/log/WalStateManager.java:173:	Logger calls should be surrounded by log level guards.</t>
   </si>
   <si>
     <t>dbc744427a02e476eb63386451f9f860e9dabca2</t>
@@ -2535,16 +2364,6 @@
   </si>
   <si>
     <t>Update copyright date to 2019 (#867)</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/Constants.java:27:	The utility class name 'Constants' doesn't match '[A-Z][a-zA-Z0-9]+(Utils?|Helper)'
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/bloomfilter/BloomFilter.java:231:	New exception is thrown in catch block, original stack trace may be lost
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/bloomfilter/BloomFilter.java:235:	Use one line for each declaration, it enhances code readability.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/bloomfilter/Filter.java:91:	Document empty constructor
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/cli/ClientOpts.java:148:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/cli/ClientOpts.java:214:	This statement should have braces
-/U
-...{continued}...</t>
   </si>
   <si>
     <t>31f16ac7b7eda0766dd2acc25da2c1d10fe8e965</t>
@@ -2569,13 +2388,8 @@
 if the config is bad.</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/TabletServer.java:324:	Perhaps 'majorCompactorThread' could be replaced by a local variable.
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/TabletServer.java:329:	Use of modifier volatile is not recommended.
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/TabletServer.java:330:	Use of modifier volatile is not recommended.
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/TabletServer.java:331:	Use of modifier volatile is not recommended.
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/TabletServer.java:338:	Perhaps 'bulkFailedCopyQ' could be replaced by a local variable.
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/TabletServer.java:356
-...{continued}...</t>
+    <t>/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/TabletServer.java:3461:	Logger calls should be surrounded by log level guards.
+/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/TabletServer.java:3464:	Logger calls should be surrounded by log level guards.</t>
   </si>
   <si>
     <t>db5f18b1fc44a03898e80c213cf75e3168349aca</t>
@@ -2585,15 +2399,6 @@
   </si>
   <si>
     <t>fixes #800 avoid importing files for completed bulk transactions (#837)</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/impl/InstanceOperationsImpl.java:145:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/impl/InstanceOperationsImpl.java:179:	'catch' branch identical to 'TTransportException' branch
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/impl/InstanceOperationsImpl.java:183:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/impl/InstanceOperationsImpl.java:216:	'catch' branch identical to 'TTransportException' branch
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/impl/InstanceOperationsImpl.java:220:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/a
-...{continued}...</t>
   </si>
   <si>
     <t>6424b0834321fd0d2ed04d7095f86ffa7b7eac63</t>
@@ -2645,15 +2450,6 @@
 * Also inline print method only called by other print method</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/TabletServer.java:333:	Perhaps 'majorCompactorThread' could be replaced by a local variable.
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/TabletServer.java:338:	Use of modifier volatile is not recommended.
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/TabletServer.java:339:	Use of modifier volatile is not recommended.
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/TabletServer.java:346:	Perhaps 'bulkFailedCopyQ' could be replaced by a local variable.
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/TabletServer.java:365:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/TabletServe
-...{continued}...</t>
-  </si>
-  <si>
     <t>a6fa30fa8716c5a0f9010948616d40015e1a1860</t>
   </si>
   <si>
@@ -2661,15 +2457,6 @@
   </si>
   <si>
     <t>Create builder to clean up CachableBlockFile (#858)</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/summary/Gatherer.java:118:	Perhaps 'summarizerPattern' could be replaced by a local variable.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/summary/Gatherer.java:304:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/summary/Gatherer.java:323:	'catch' branch identical to 'TApplicationException' branch
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/summary/Gatherer.java:395:	The instance method name '_get' doesn't match '[a-z][a-zA-Z0-9]*'
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/summary/Gatherer.java:410:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()
-/Users/danikgan/Desktop/Showcase/accumulo/core/sr
-...{continued}...</t>
   </si>
   <si>
     <t>22b0bf59bc8186f7ca29f769f459c3ecd8c46d78</t>
@@ -2682,15 +2469,6 @@
 * Created human readable option which is now default
 * Xml can still be output by passing --xml argument
 * Utility can now be called using 'accumulo-util dump-zoo'</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/rfile/RFileScanner.java:93:	Avoid using implementation types like 'HashMap'; use the interface instead
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/rfile/RFileScanner.java:146:	A switch statement does not contain a break
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/rfile/RFileScanner.java:175:	Document empty method body
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/rfile/RFileScanner.java:187:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/rfile/RFileScanner.java:271:	Document empty method body
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/rfile/RFileScanner.java:274:
-...{continued}...</t>
   </si>
   <si>
     <t>b66ba5c3f9843f813dfde97664e4ed24445b279e</t>
@@ -2708,24 +2486,23 @@
 * Remove gc dependency no longer used</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/server/base/src/main/java/org/apache/accumulo/server/util/DumpZookeeper.java:34:	All methods are static.  Consider using a utility class instead. Alternatively, you could add a private constructor or make the class abstract to silence this warning.
-/Users/danikgan/Desktop/Showcase/accumulo/server/base/src/main/java/org/apache/accumulo/server/util/DumpZookeeper.java:80:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/server/base/src/main/java/org/apache/accumulo/server/util/DumpZookeeper.java:81:	Position literals first in String comparisons
-/Users/danikgan/Desktop/Showcase/accumulo/server/base/src/main/java/org/apache/accumulo/server/util/DumpZookeeper.java:82:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/server/base/src/main/java/org/apache/accumulo/server/util/DumpZookeeper.java:90:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/server/base/src/main/java/o
+    <t>fdd885c0ee92495d2427f64c3e38466d3d6adc9a</t>
+  </si>
+  <si>
+    <t>Fri Dec 21 17:35:51 2018 -0500</t>
+  </si>
+  <si>
+    <t>fixes #815 test converting key values to TabletMetadata object (#851)</t>
+  </si>
+  <si>
+    <t>/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/file/rfile/PrintInfo.java:181:	The local variable name '_rdr' doesn't match '[a-z][a-zA-Z0-9]*'
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/file/rfile/RFileOperations.java:48:	The local variable name '_cbr' doesn't match '[a-z][a-zA-Z0-9]*'
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/summary/SummaryReader.java:181:	Unnecessary use of fully qualified name 'org.apache.accumulo.core.file.blockfile.impl.CachableBlockFile.Reader' due to existing import 'org.apache.accumulo.core.file.blockfile.impl.CachableBlockFile'
+/Users/danikgan/Desktop/accumulo/core/src/test/java/org/apache/accumulo/core/file/rfile/MultiLevelIndexTest.java:85:	The local variable name '_cbr' doesn't match '[a-z][a-zA-Z0-9]*'
+/Users/danikgan/Desktop/accumulo/core/src/test/java/org/apache/accumulo/core/file/rfile/MultiThreadedRFileTest.java:189:	The local variable name '_cbr' doesn'
 ...{continued}...</t>
   </si>
   <si>
-    <t>fdd885c0ee92495d2427f64c3e38466d3d6adc9a</t>
-  </si>
-  <si>
-    <t>Fri Dec 21 17:35:51 2018 -0500</t>
-  </si>
-  <si>
-    <t>fixes #815 test converting key values to TabletMetadata object (#851)</t>
-  </si>
-  <si>
     <t>6f47590896755a454e8b48b465923724e396f81b</t>
   </si>
   <si>
@@ -2735,13 +2512,6 @@
     <t>Remove unnecessary exceptions in core module (#853)</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/metadata/schema/TabletMetadata.java:90:	Unnecessary modifier 'static' on enum 'LocationType': nested enums are implicitly static
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/metadata/schema/TabletMetadata.java:94:	Unnecessary modifier 'static' on enum 'FetchedColumns': nested enums are implicitly static
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/metadata/schema/TabletMetadata.java:152:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/metadata/schema/TabletMetadata.java:281:	Switch statements should have a default label
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/metadata/schema/TabletMetadata.java:338:	This statement should have braces</t>
-  </si>
-  <si>
     <t>dbfbfe88f4e1e5d2c1ccd96bbde988d4c16b34b6</t>
   </si>
   <si>
@@ -2751,13 +2521,13 @@
     <t>Add validation to SiteConfiguration (#852)</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/BulkImport.java:17:	Package name contains upper case characters
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/BulkImport.java:161:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/BulkImport.java:163:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/BulkImport.java:220:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/BulkImport.java:236:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/BulkImport.java:238:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumul
+    <t>/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/ClientConfConverter.java:17:	Package name contains upper case characters
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/ConcurrentKeyExtentCache.java:17:	Package name contains upper case characters
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/TabletServerBatchWriter.java:227:	This statement should have braces
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/ThriftScanner.java:96:	This statement should have braces
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/lexicoder/FixedByteArrayOutputStream.java:17:	Package name contains upper case characters
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/mapreduce/BatchInputSplit.java:111:	This statement should have braces
+/Users/danikgan/Desktop/accumulo/cor
 ...{continued}...</t>
   </si>
   <si>
@@ -2772,9 +2542,6 @@
 * Avoided API and internal pluggable components</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/conf/SiteConfiguration.java:205:	This statement should have braces</t>
-  </si>
-  <si>
     <t>2b9c9275ea5f992cfa2bd1a7e3f8994a41e69df3</t>
   </si>
   <si>
@@ -2782,6 +2549,16 @@
   </si>
   <si>
     <t>Remove empty comments (#847)</t>
+  </si>
+  <si>
+    <t>/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/ConditionalWriterImpl.java:632:	'catch' branch identical to 'TTransportException' branch
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/ThriftScanner.java:96:	This statement should have braces
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/file/rfile/RFileOperations.java:132:	The local variable name '_cbw' doesn't match '[a-z][a-zA-Z0-9]*'
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/iterators/system/MapFileIterator.java:55:	Avoid unused constructor parameters such as 'acuconf'.
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/fate/Fate.java:74:	This statement should have braces
+/Users/danikgan/Desktop/accumulo/core/src/test/java/org/apache/accumulo/core/file/rfile/CreateCompatTestFile.java:63:	The local variable name '_cbw' doesn't match '[a-z][a-zA-Z0-9]*'
+/Users/danikgan/D
+...{continued}...</t>
   </si>
   <si>
     <t>c06636e1d701947bc66d0ff6f3652e32ef5dddb6</t>
@@ -2795,12 +2572,11 @@
 pass the count down to the InMemoryMap</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/iterators/user/RowEncodingIterator.java:106:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/iterators/user/RowEncodingIterator.java:110:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/iterators/user/RowEncodingIterator.java:218:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/spi/cache/BlockCacheManager.java:155:	When doing a String.toLowerCase()/toUpperCase() call, use a Locale
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/ActiveAssignmentRunnable.java:36:	Use of modifier volatile is not recommended.
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/ConditionalMutationSet.java:30:	All m
+    <t>/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/ConditionalMutationSet.java:30:	All methods are static.  Consider using a utility class instead. Alternatively, you could add a private constructor or make the class abstract to silence this warning.
+/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/ConditionalMutationSet.java:30:	The utility class name 'ConditionalMutationSet' doesn't match '[A-Z][a-zA-Z0-9]+(Utils?|Helper)'
+/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/metrics/Metrics2TabletServerMetrics.java:33:	Use one line for each declaration, it enhances code readability.
+/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/metrics/Metrics2TabletServerMinCMetrics.java:32:	Use one line for each declaration, it enhances code readability.
+/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserv
 ...{continued}...</t>
   </si>
   <si>
@@ -2813,13 +2589,7 @@
     <t>Remove unnecessary exceptions in test module (#846)</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/InMemoryMap.java:89:	Use of modifier volatile is not recommended.
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/InMemoryMap.java:149:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/InMemoryMap.java:166:	A catch statement should never catch throwable since it includes errors.
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/InMemoryMap.java:232:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/InMemoryMap.java:317:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/InMemoryMap.ja
-...{continued}...</t>
+    <t>/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/InMemoryMapIT.java:270:	This statement should have braces</t>
   </si>
   <si>
     <t>7abe4e8dc73e14bc25524587924781e2f9d322bc</t>
@@ -2831,13 +2601,13 @@
     <t>Remove unnecessary exceptions (#844)</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/test/src/main/java/org/apache/accumulo/harness/AccumuloClusterHarness.java:176:	Use one line for each declaration, it enhances code readability.
-/Users/danikgan/Desktop/Showcase/accumulo/test/src/main/java/org/apache/accumulo/harness/AccumuloClusterHarness.java:368:	Document empty method body
-/Users/danikgan/Desktop/Showcase/accumulo/test/src/main/java/org/apache/accumulo/harness/MiniClusterHarness.java:167:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/test/src/main/java/org/apache/accumulo/harness/SharedMiniClusterBase.java:114:	Use one line for each declaration, it enhances code readability.
-/Users/danikgan/Desktop/Showcase/accumulo/test/src/main/java/org/apache/accumulo/harness/TestingKdc.java:46:	Use one line for each declaration, it enhances code readability.
-/Users/danikgan/Desktop/Showcase/accumulo/test/src/main/java/org/apache/accumulo/harness/TestingKdc.java:49:	This final field could be made static
-/User
+    <t>/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/CloneIT.java:228:	Avoid unused method parameters such as 'dir'.
+/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/functional/ConfigurableMacBase.java:68:	Document empty method body
+/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/functional/ConfigurableMacBase.java:70:	Document empty method body
+/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/mapreduce/AccumuloOutputFormatIT.java:64:	This statement should have braces
+/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/mapreduce/TokenFileIT.java:70:	This statement should have braces
+/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/rpc/thrift/SimpleThriftService.java:211:	The class name 'echoPass_call' doesn't match '[A-Z][a-zA-Z0-9]*'
+/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/rpc/thrift/Simpl
 ...{continued}...</t>
   </si>
   <si>
@@ -2853,12 +2623,12 @@
 * Replaced setIterators method with addIterator</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/proxy/src/test/java/org/apache/accumulo/proxy/ProxyServerTest.java:66:	Avoid empty catch blocks
-/Users/danikgan/Desktop/Showcase/accumulo/proxy/src/test/java/org/apache/accumulo/proxy/ProxyServerTest.java:105:	Avoid empty catch blocks
-/Users/danikgan/Desktop/Showcase/accumulo/server/base/src/main/java/org/apache/accumulo/server/client/BulkImporter.java:95:	Unnecessary modifier 'static' on enum 'Timers': nested enums are implicitly static
-/Users/danikgan/Desktop/Showcase/accumulo/server/base/src/main/java/org/apache/accumulo/server/client/BulkImporter.java:153:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/server/base/src/main/java/org/apache/accumulo/server/client/BulkImporter.java:157:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()
-/Users/danikgan/Desktop/Showcase/accumulo/server/base/src/main/java/org/apache/accumulo/server/client/BulkImporter
+    <t>/Users/danikgan/Desktop/accumulo/server/base/src/main/java/org/apache/accumulo/server/master/recovery/MapRLogCloser.java:37:	Do not start a literal by 0 unless its an octal value
+/Users/danikgan/Desktop/accumulo/server/base/src/main/java/org/apache/accumulo/server/security/SecurityOperation.java:139:	This statement should have braces
+/Users/danikgan/Desktop/accumulo/server/base/src/test/java/org/apache/accumulo/server/constraints/MetadataConstraintsTest.java:49:	This statement should have braces
+/Users/danikgan/Desktop/accumulo/server/base/src/test/java/org/apache/accumulo/server/iterators/MetadataBulkLoadFilterTest.java:51:	This statement should have braces
+/Users/danikgan/Desktop/accumulo/server/base/src/test/java/org/apache/accumulo/server/security/UserImpersonationTest.java:279:	Use one line for each declaration, it enhances code readability.
+/Users/danikgan/Desktop/accumulo/server/base/src/test/java/org/apache/accumulo/server/zookeeper/TransactionWatcherTest.java:76:	This statemen
 ...{continued}...</t>
   </si>
   <si>
@@ -2871,13 +2641,11 @@
     <t>Formatting</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoop/mapred/AccumuloInputFormat.java:74:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoop/mapred/AccumuloRowInputFormat.java:77:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoop/mapreduce/AccumuloInputFormat.java:98:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapred/AbstractInputFormat.java:17:	Package name contains upper case characters
-/Users/danikgan/Desktop/Showcase/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapred/AbstractInputFormat.java:260:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapred/AbstractInputF
-...{continued}...</t>
+    <t>/Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapreduce/lib/InputConfigurator.java:783:	This statement should have braces
+/Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapreduce/lib/InputConfigurator.java:786:	This statement should have braces
+/Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/test/java/org/apache/accumulo/hadoop/its/mapred/MultiTableInputFormatIT.java:63:	This statement should have braces
+/Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/test/java/org/apache/accumulo/hadoop/its/mapred/MultiTableInputFormatIT.java:74:	Document empty method body
+/Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/test/java/org/apache/accumulo/hadoop/its/mapreduce/MultiTableInputFormatIT.java:60:	This statement should have braces</t>
   </si>
   <si>
     <t>90dfad3b341a5098113ea8fdce28a0bc4511d067</t>
@@ -2891,16 +2659,6 @@
 * Improved unit test</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/log/DfsLogger.java:174:	Switch statements should have a default label
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/log/DfsLogger.java:195:	Use equals() to compare object references.
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/log/DfsLogger.java:233:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/log/DfsLogger.java:234:	Use equals() to compare object references.
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/log/DfsLogger.java:235:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/log/DfsLogger.java:237:	This statement should have braces
-/Users/danikgan/Desktop/Show
-...{continued}...</t>
-  </si>
-  <si>
     <t>2297c0c3d03c49491dc1c2e82086572c136aa014</t>
   </si>
   <si>
@@ -2910,333 +2668,8 @@
     <t>Stop creating double OuputStreams for WAL (#829)</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/ClientConfConverter.java:17:	Package name contains upper case characters
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/ClientConfConverter.java:37:	All methods are static.  Consider using a utility class instead. Alternatively, you could add a private constructor or make the class abstract to silence this warning.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/ClientConfConverter.java:37:	The utility class name 'ClientConfConverter' doesn't match '[A-Z][a-zA-Z0-9]+(Utils?|Helper)'
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/ClientConfConverter.java:175:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/ClientConfConverter.java:182:	This st
-...{continued}...</t>
-  </si>
-  <si>
-    <t>Christopher Tubbs &lt;ctubbsii@apache.org&gt;</t>
-  </si>
-  <si>
-    <t>8062d7dff76a8f5cb24ee64c0cebebb968c0ebde</t>
-  </si>
-  <si>
-    <t>Wed Dec 19 01:53:23 2018 -0500</t>
-  </si>
-  <si>
-    <t>Merge pull request #804 from milleruntime/mr-compatibility
-Make old MR more backwards compatible &amp; deprecate</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/crypto/streams/NoFlushOutputStream.java:39:	Document empty method body
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/log/DfsLogger.java:51:	Avoid unused imports such as 'org.apache.accumulo.core.cryptoImpl.NoFileEncrypter'
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/log/DfsLogger.java:175:	Switch statements should have a default label
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/log/DfsLogger.java:196:	Use equals() to compare object references.
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/log/DfsLogger.java:234:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/log/DfsLogger.java:235:	Use equals() to compare
-...{continued}...</t>
-  </si>
-  <si>
-    <t>38f382cb8f00cd61ab2442e6cbb12279824c31b0</t>
-  </si>
-  <si>
-    <t>Wed Dec 19 01:48:31 2018 -0500</t>
-  </si>
-  <si>
-    <t>Cleanup deprecation warnings for core mapreduce</t>
-  </si>
-  <si>
-    <t>2465562cd088b126bfb17523c33c8acd0a48309f</t>
-  </si>
-  <si>
-    <t>Tue Oct 30 18:38:40 2018 -0400</t>
-  </si>
-  <si>
-    <t>Deprecate core/client/{mapred,mapreduce}
-Remove API leakage, but otherwise, leave core mapreduce libraries the
-same as in 1.9 (restore additional APIs which had previously been
-removed). Defer new features and other API changes to separate
-mapreduce module.</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/mapred/AbstractInputFormat.java:151:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/mapred/AbstractInputFormat.java:453:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/mapred/AbstractInputFormat.java:480:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/mapred/AbstractInputFormat.java:494:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/mapred/AbstractInputFormat.java:495:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/map
-...{continued}...</t>
-  </si>
-  <si>
-    <t>dfb4c8e0db15e4233f635c28df9df6bfaeec7fa8</t>
-  </si>
-  <si>
-    <t>Thu Dec 6 13:29:20 2018 -0500</t>
-  </si>
-  <si>
-    <t>Deprecate core client Map reduce API</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/mapred/AbstractInputFormat.java:152:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/mapred/AbstractInputFormat.java:444:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/mapred/AbstractInputFormat.java:471:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/mapred/AbstractInputFormat.java:482:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/mapred/AbstractInputFormat.java:483:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/map
-...{continued}...</t>
-  </si>
-  <si>
-    <t>fe2c8486197214789050769bb16689db9bfb21ad</t>
-  </si>
-  <si>
-    <t>Wed Dec 5 17:21:59 2018 -0500</t>
-  </si>
-  <si>
-    <t>Make old MR more backwards compatible
-* Remove new API that had been added
-* Add back non consequential deprecated methods that were dropped</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/mapred/AbstractInputFormat.java:152:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/mapred/AbstractInputFormat.java:428:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/mapred/AbstractInputFormat.java:437:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/mapred/AbstractInputFormat.java:448:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/mapred/AbstractInputFormat.java:449:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/map
-...{continued}...</t>
-  </si>
-  <si>
-    <t>826f9f2004b1ccfe878065e3ecc02cdf2b4f8f98</t>
-  </si>
-  <si>
-    <t>Tue Dec 18 20:14:05 2018 -0500</t>
-  </si>
-  <si>
-    <t>Fix Replication test failure from #833</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/mapred/AbstractInputFormat.java:148:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/mapred/AbstractInputFormat.java:424:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/mapred/AbstractInputFormat.java:433:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/mapred/AbstractInputFormat.java:444:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/mapred/AbstractInputFormat.java:445:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/map
-...{continued}...</t>
-  </si>
-  <si>
-    <t>Christopher McTague &lt;cjmctague@apache.org&gt;</t>
-  </si>
-  <si>
-    <t>e56f2d35653e3b5bc1e7366153f26f76e4045df3</t>
-  </si>
-  <si>
-    <t>Tue Dec 18 14:09:17 2018 -0500</t>
-  </si>
-  <si>
-    <t>Fix some codestyle issues that are not automated. (#838)
-- Adjust the comparisons so that the constant is on the right side of
-of the comparison. This was the pattern found throughout the majority
-of the project. Also logically makes more sense.
-- Add missing @Override annotations</t>
-  </si>
-  <si>
-    <t>a67cf5b3f08f8257ff6cb70f8b52b4429934e3aa</t>
-  </si>
-  <si>
-    <t>Mon Dec 17 20:01:42 2018 -0500</t>
-  </si>
-  <si>
-    <t>Close some unclosed objects causing resource leaks (#835)</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/BatchWriterConfig.java:66:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/BatchWriterConfig.java:68:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/BatchWriterConfig.java:88:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/BatchWriterConfig.java:116:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/BatchWriterConfig.java:119:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/BatchWriterConfig.java:123:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/a
-...{continued}...</t>
-  </si>
-  <si>
-    <t>8c9a4e147f4284af1d02948f8f44d6e3bce3804b</t>
-  </si>
-  <si>
-    <t>Mon Dec 17 17:10:51 2018 -0500</t>
-  </si>
-  <si>
-    <t>Merge ClientContext and AccumuloClientImpl (#833)
-* Removed AccumuloClientImpl and kept ClientContext
-class which implements AccumuloClient
-* Removed use of context.getClient() as ClientContext
-implements AccumuloClient
-* Limited instantiation of ClientContext by casting
-AccumuloClient to ClientContext</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/mapred/AbstractInputFormat.java:187:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/mapred/AbstractInputFormat.java:472:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/mapred/AbstractInputFormat.java:481:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/mapred/AbstractInputFormat.java:492:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/mapred/AbstractInputFormat.java:493:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/map
-...{continued}...</t>
-  </si>
-  <si>
-    <t>cleroux &lt;leroux.cedric@gmail.com&gt;</t>
-  </si>
-  <si>
-    <t>62e0ba0dd488ae3c5cc7c5905089ca745476c3b4</t>
-  </si>
-  <si>
-    <t>Mon Dec 17 12:37:34 2018 -0800</t>
-  </si>
-  <si>
-    <t>Monitor 2.0: HTML, CSS, and plot updates (#832)
-* HTML and CSS updates to adhere to Bootstrap patterns and best practices
-* Remove time zone from x-axis tick labels</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/Accumulo.java:47:	The utility class name 'Accumulo' doesn't match '[A-Z][a-zA-Z0-9]+(Utils?|Helper)'
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/MutationsRejectedException.java:61:	Avoid unused constructor parameters such as 'instance'.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/ZooKeeperInstance.java:100:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/ZooKeeperInstance.java:141:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/ZooKeeperInstance.java:165:	Useless parentheses.
-/Users/danikgan/Desktop/Showcase/accumulo/core/src/main/java/org/apache/accumulo/core/client/ZooKeeperInstance.java:193:	Useless parentheses.
-/Users/danikgan/Desktop/Sho
-...{continued}...</t>
-  </si>
-  <si>
-    <t>8b8c9eba9d0de88ee4e29f1f484cc229374f4d99</t>
-  </si>
-  <si>
-    <t>Mon Dec 17 15:07:10 2018 -0500</t>
-  </si>
-  <si>
-    <t>Create shared test methods for duplicate code</t>
-  </si>
-  <si>
-    <t>9e169aec59fc59138ea7381c399fec79d9339eb8</t>
-  </si>
-  <si>
-    <t>Fri Dec 14 16:18:25 2018 -0500</t>
-  </si>
-  <si>
-    <t>#820 - Fix broken ITs due to client issues (#830)
-* Converted more getClient methods to createClient to fix ITs
-* Fix RowHashIT
-* Fix AccumuloFileOutputFormatIT
-* Fix TabletServerGivesUpIT</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/test/src/main/java/org/apache/accumulo/test/functional/WriteAheadLogEncryptedIT.java:55:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/test/src/main/java/org/apache/accumulo/test/functional/WriteAheadLogEncryptedIT.java:57:	This statement should have braces</t>
-  </si>
-  <si>
-    <t>9cde6427dce49c35b49d48cabc7366185c335db7</t>
-  </si>
-  <si>
-    <t>Thu Dec 13 17:35:13 2018 -0500</t>
-  </si>
-  <si>
-    <t>Fix formatting</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapred/AbstractInputFormat.java:17:	Package name contains upper case characters
-/Users/danikgan/Desktop/Showcase/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapred/AbstractInputFormat.java:289:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapred/AbstractInputFormat.java:298:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapred/AbstractInputFormat.java:310:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapred/AbstractInputFormat.java:311:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/Showcase/accumulo/hadoop-mapr
-...{continued}...</t>
-  </si>
-  <si>
-    <t>e154a4139e7e143e429c287a0484be1801dcc4e7</t>
-  </si>
-  <si>
-    <t>Thu Dec 13 15:54:55 2018 -0500</t>
-  </si>
-  <si>
-    <t>#820 - Converted getClient to createClient (#828)</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/test/src/main/java/org/apache/accumulo/harness/AccumuloClusterHarness.java:70:	Unnecessary modifier 'static' on enum 'ClusterType': nested enums are implicitly static
-/Users/danikgan/Desktop/Showcase/accumulo/test/src/main/java/org/apache/accumulo/harness/AccumuloClusterHarness.java:177:	Use one line for each declaration, it enhances code readability.
-/Users/danikgan/Desktop/Showcase/accumulo/test/src/main/java/org/apache/accumulo/harness/AccumuloClusterHarness.java:373:	Document empty method body</t>
-  </si>
-  <si>
-    <t>18d30b1db9aa025d7270092081792ae3f92a810d</t>
-  </si>
-  <si>
-    <t>Thu Dec 13 14:15:37 2018 -0500</t>
-  </si>
-  <si>
-    <t>#820 Fix ITs by using createAccumuloClient (#827)
-* ITs were failing as getAccumuloClient was used within try-with-resources
-* Replaced use of getAccumuloClient with createAccumuloClient to fix issue</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/hadoop-mapreduce/src/test/java/org/apache/accumulo/hadoop/its/mapred/AccumuloOutputFormatIT.java:130:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/hadoop-mapreduce/src/test/java/org/apache/accumulo/hadoop/its/mapred/AccumuloOutputFormatIT.java:141:	Document empty method body
-/Users/danikgan/Desktop/Showcase/accumulo/hadoop-mapreduce/src/test/java/org/apache/accumulo/hadoop/its/mapreduce/RowHashIT.java:131:	Document empty method body
-/Users/danikgan/Desktop/Showcase/accumulo/hadoop-mapreduce/src/test/java/org/apache/accumulo/hadoop/its/mapreduce/RowHashIT.java:154:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/test/src/main/java/org/apache/accumulo/test/AuditMessageIT.java:95:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/Showcase/accumulo/test/src/main/java/org/apache/accumulo/test/AuditMessageIT.java:106:	Avoid using implementati
-...{continued}...</t>
-  </si>
-  <si>
-    <t>eff92f178b01786c4debcc9f927c8cd9a84103a7</t>
-  </si>
-  <si>
-    <t>Wed Dec 12 17:57:50 2018 -0500</t>
-  </si>
-  <si>
-    <t>Cleanup TabletServerLogger code (#793)
-* Remove unnecessary object manipulation across method calls
-* Remove unused methods
-* Replace code with lambdas
-* Removed Mutations class that is no longer needed
-* Removed extra loops for checking durability by creating maxDurability method
-* Make Tserver not log mutation when durability is none
-* Simplify sendables object that calls commit on mutations</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/Showcase/accumulo/hadoop-mapreduce/src/test/java/org/apache/accumulo/hadoop/its/mapred/AccumuloFileOutputFormatIT.java:115:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/hadoop-mapreduce/src/test/java/org/apache/accumulo/hadoop/its/mapred/AccumuloFileOutputFormatIT.java:127:	Document empty method body
-/Users/danikgan/Desktop/Showcase/accumulo/hadoop-mapreduce/src/test/java/org/apache/accumulo/hadoop/its/mapred/AccumuloInputFormatIT.java:78:	This statement should have braces
-/Users/danikgan/Desktop/Showcase/accumulo/hadoop-mapreduce/src/test/java/org/apache/accumulo/hadoop/its/mapred/AccumuloInputFormatIT.java:90:	Document empty method body
-/Users/danikgan/Desktop/Showcase/accumulo/hadoop-mapreduce/src/test/java/org/apache/accumulo/hadoop/its/mapred/AccumuloInputFormatIT.java:180:	The final local variable name 'TEST_TABLE_3' doesn't match '[a-z][a-zA-Z0-9]*'
-/Users/danikgan/Desktop/Showcase/accumulo/hadoop-mapreduce/src/test/java/org
-...{continued}...</t>
-  </si>
-  <si>
-    <t>ee785ec3584bdf4cc36bddfce1d69dbe3a6eeaf3</t>
-  </si>
-  <si>
-    <t>Wed Dec 12 17:41:25 2018 -0500</t>
-  </si>
-  <si>
-    <t>Removed unused code (#826)
-* Code was not used by Accumulo, unit tests or ITs
-* If this code is ever brought back to life, it should probably
-live in accumulo-testing repo or a personal repo</t>
-  </si>
-  <si>
-    <t>00467938d36950f91fd9a680df92bcd736f5b0bb</t>
-  </si>
-  <si>
-    <t>Wed Dec 12 17:36:27 2018 -0500</t>
-  </si>
-  <si>
-    <t>#820 - Make sure AccumuloClient is closed (#825)
-* Closed AccumuloClient in many places where it was not being closed
-* Updated method names to reflect if AccumuloClient should be closed.
-* 'create' in method name means returned AccumuloClient must closed by user
-* 'get' in method name means returned AccumuloClient doesn't need to be
-closed by user</t>
+    <t>/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/ClientConfConverter.java:175:	Logger calls should be surrounded by log level guards.
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/conf/CredentialProviderFactoryShim.java:353:	Return an empty array rather than null.</t>
   </si>
 </sst>
 </file>
@@ -3440,10 +2873,10 @@
         <v>26</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -3454,19 +2887,19 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="E7" t="s" s="2">
-        <v>30</v>
-      </c>
       <c r="F7" t="s" s="2">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -3477,13 +2910,13 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>34</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>17</v>
@@ -3500,13 +2933,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s" s="2">
         <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s" s="2">
-        <v>37</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>17</v>
@@ -3523,13 +2956,13 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s" s="2">
         <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>17</v>
@@ -3543,16 +2976,16 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s" s="2">
         <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>17</v>
@@ -3569,13 +3002,13 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>17</v>
@@ -3592,13 +3025,13 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s" s="2">
-        <v>50</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>17</v>
@@ -3615,13 +3048,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>17</v>
@@ -3638,13 +3071,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" t="s" s="2">
-        <v>56</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>17</v>
@@ -3661,13 +3094,13 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s" s="2">
-        <v>59</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>17</v>
@@ -3684,13 +3117,13 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>17</v>
@@ -3707,13 +3140,13 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="D18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" t="s" s="2">
-        <v>65</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>17</v>
@@ -3730,13 +3163,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s" s="2">
         <v>66</v>
-      </c>
-      <c r="D19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" t="s" s="2">
-        <v>68</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>17</v>
@@ -3753,13 +3186,13 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="D20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" t="s" s="2">
-        <v>71</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>17</v>
@@ -3776,13 +3209,13 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="D21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>17</v>
@@ -3799,19 +3232,19 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="E22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F22" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="G22" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="23">
@@ -3822,19 +3255,19 @@
         <v>13</v>
       </c>
       <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="D23" t="s">
+      <c r="F23" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="E23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="F23" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="G23" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
@@ -3845,13 +3278,13 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="D24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>17</v>
@@ -3868,16 +3301,16 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="E25" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="G25" t="n">
         <v>1.0</v>
@@ -3891,13 +3324,13 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>17</v>
@@ -3914,13 +3347,13 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="D27" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>17</v>
@@ -3937,13 +3370,13 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="D28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>17</v>
@@ -3960,13 +3393,13 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="D29" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>17</v>
@@ -3983,16 +3416,16 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="E30" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="G30" t="n">
         <v>6.0</v>
@@ -4006,19 +3439,19 @@
         <v>13</v>
       </c>
       <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="D31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" t="s" s="2">
-        <v>108</v>
-      </c>
       <c r="F31" t="s" s="2">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="G31" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
@@ -4029,13 +3462,13 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>17</v>
@@ -4052,19 +3485,19 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="F33" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="D33" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="G33" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
@@ -4075,19 +3508,19 @@
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="G34" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
@@ -4098,13 +3531,13 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>17</v>
@@ -4121,13 +3554,13 @@
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>17</v>
@@ -4144,19 +3577,19 @@
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G37" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
@@ -4167,13 +3600,13 @@
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>17</v>
@@ -4190,13 +3623,13 @@
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>17</v>
@@ -4213,19 +3646,19 @@
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="G40" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
@@ -4236,19 +3669,19 @@
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="G41" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
@@ -4259,13 +3692,13 @@
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D42" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>17</v>
@@ -4282,13 +3715,13 @@
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D43" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>17</v>
@@ -4305,13 +3738,13 @@
         <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D44" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>17</v>
@@ -4328,13 +3761,13 @@
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D45" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>17</v>
@@ -4351,13 +3784,13 @@
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D46" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>17</v>
@@ -4374,13 +3807,13 @@
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D47" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>17</v>
@@ -4397,13 +3830,13 @@
         <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D48" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>17</v>
@@ -4420,13 +3853,13 @@
         <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>17</v>
@@ -4443,13 +3876,13 @@
         <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D50" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>17</v>
@@ -4466,13 +3899,13 @@
         <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D51" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>17</v>
@@ -4489,13 +3922,13 @@
         <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D52" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>17</v>
@@ -4512,13 +3945,13 @@
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D53" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>17</v>
@@ -4535,13 +3968,13 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D54" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>17</v>
@@ -4558,19 +3991,19 @@
         <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D55" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="G55" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
@@ -4581,19 +4014,19 @@
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D56" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="G56" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
@@ -4604,13 +4037,13 @@
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D57" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>17</v>
@@ -4627,13 +4060,13 @@
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D58" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>17</v>
@@ -4650,13 +4083,13 @@
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D59" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>17</v>
@@ -4673,13 +4106,13 @@
         <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D60" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>17</v>
@@ -4696,13 +4129,13 @@
         <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D61" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>17</v>
@@ -4719,13 +4152,13 @@
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D62" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>17</v>
@@ -4742,13 +4175,13 @@
         <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D63" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>17</v>
@@ -4765,13 +4198,13 @@
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D64" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>17</v>
@@ -4788,13 +4221,13 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D65" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>17</v>
@@ -4811,19 +4244,19 @@
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D66" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>222</v>
+        <v>17</v>
       </c>
       <c r="G66" t="n">
-        <v>74.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
@@ -4834,13 +4267,13 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D67" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E67" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>17</v>
@@ -4857,13 +4290,13 @@
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D68" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>17</v>
@@ -4880,19 +4313,19 @@
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D69" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>232</v>
+        <v>17</v>
       </c>
       <c r="G69" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="70">
@@ -4903,16 +4336,16 @@
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D70" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="G70" t="n">
         <v>4.0</v>
@@ -4926,13 +4359,13 @@
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D71" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E71" t="s" s="2">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>17</v>
@@ -4949,16 +4382,16 @@
         <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D72" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E72" t="s" s="2">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G72" t="n">
         <v>41.0</v>
@@ -4972,19 +4405,19 @@
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D73" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E73" t="s" s="2">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="G73" t="n">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
@@ -4995,13 +4428,13 @@
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D74" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="E74" t="s" s="2">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>17</v>
@@ -5018,19 +4451,19 @@
         <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D75" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E75" t="s" s="2">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>254</v>
+        <v>17</v>
       </c>
       <c r="G75" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="76">
@@ -5041,19 +4474,19 @@
         <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D76" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>258</v>
+        <v>17</v>
       </c>
       <c r="G76" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="77">
@@ -5064,13 +4497,13 @@
         <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D77" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E77" t="s" s="2">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>17</v>
@@ -5087,19 +4520,19 @@
         <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D78" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="E78" t="s" s="2">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G78" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="79">
@@ -5110,13 +4543,13 @@
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D79" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="E79" t="s" s="2">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>17</v>
@@ -5133,19 +4566,19 @@
         <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D80" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="E80" t="s" s="2">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>272</v>
+        <v>17</v>
       </c>
       <c r="G80" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
@@ -5156,13 +4589,13 @@
         <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="D81" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="E81" t="s" s="2">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>17</v>
@@ -5179,19 +4612,19 @@
         <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="D82" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="E82" t="s" s="2">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="G82" t="n">
-        <v>29.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
@@ -5202,13 +4635,13 @@
         <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D83" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E83" t="s" s="2">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>17</v>
@@ -5219,19 +4652,19 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B84" t="s">
-        <v>284</v>
+        <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D84" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="E84" t="s" s="2">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>12</v>
@@ -5242,180 +4675,180 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B85" t="s">
-        <v>284</v>
+        <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D85" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="E85" t="s" s="2">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="G85" t="n">
-        <v>2509.0</v>
+        <v>222.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B86" t="s">
-        <v>284</v>
+        <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D86" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E86" t="s" s="2">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>294</v>
+        <v>17</v>
       </c>
       <c r="G86" t="n">
-        <v>4838.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>268</v>
+      </c>
+      <c r="B87" t="s">
+        <v>279</v>
+      </c>
+      <c r="C87" t="s">
+        <v>280</v>
+      </c>
+      <c r="D87" t="s">
+        <v>281</v>
+      </c>
+      <c r="E87" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="F87" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="B87" t="s">
-        <v>284</v>
-      </c>
-      <c r="C87" t="s">
-        <v>295</v>
-      </c>
-      <c r="D87" t="s">
-        <v>296</v>
-      </c>
-      <c r="E87" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="G87" t="n">
-        <v>2509.0</v>
+        <v>319.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B88" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C88" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="D88" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="E88" t="s" s="2">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="G88" t="n">
-        <v>4838.0</v>
+        <v>222.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>268</v>
+      </c>
+      <c r="B89" t="s">
+        <v>279</v>
+      </c>
+      <c r="C89" t="s">
+        <v>287</v>
+      </c>
+      <c r="D89" t="s">
+        <v>288</v>
+      </c>
+      <c r="E89" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="F89" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="B89" t="s">
-        <v>302</v>
-      </c>
-      <c r="C89" t="s">
-        <v>303</v>
-      </c>
-      <c r="D89" t="s">
-        <v>304</v>
-      </c>
-      <c r="E89" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="G89" t="n">
-        <v>0.0</v>
+        <v>319.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B90" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C90" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="D90" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="E90" t="s" s="2">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>17</v>
+        <v>275</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0</v>
+        <v>222.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>268</v>
+      </c>
+      <c r="B91" t="s">
+        <v>292</v>
+      </c>
+      <c r="C91" t="s">
+        <v>293</v>
+      </c>
+      <c r="D91" t="s">
+        <v>294</v>
+      </c>
+      <c r="E91" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="F91" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="B91" t="s">
-        <v>13</v>
-      </c>
-      <c r="C91" t="s">
-        <v>309</v>
-      </c>
-      <c r="D91" t="s">
-        <v>310</v>
-      </c>
-      <c r="E91" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="G91" t="n">
-        <v>0.0</v>
+        <v>319.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>296</v>
       </c>
       <c r="C92" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="D92" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E92" t="s" s="2">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>17</v>
@@ -5426,19 +4859,19 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>292</v>
       </c>
       <c r="C93" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="D93" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>17</v>
@@ -5449,19 +4882,19 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B94" t="s">
         <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="D94" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="E94" t="s" s="2">
-        <v>319</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>17</v>
@@ -5472,19 +4905,19 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B95" t="s">
         <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="D95" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="E95" t="s" s="2">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>17</v>
@@ -5495,19 +4928,19 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B96" t="s">
-        <v>323</v>
+        <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D96" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="E96" t="s" s="2">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>17</v>
@@ -5518,65 +4951,65 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B97" t="s">
-        <v>323</v>
+        <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="D97" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="E97" t="s" s="2">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="G97" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B98" t="s">
-        <v>284</v>
+        <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="D98" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="E98" t="s" s="2">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>334</v>
+        <v>17</v>
       </c>
       <c r="G98" t="n">
-        <v>38.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B99" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="C99" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="D99" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="E99" t="s" s="2">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>17</v>
@@ -5587,65 +5020,65 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B100" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="C100" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="D100" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="E100" t="s" s="2">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>342</v>
+        <v>17</v>
       </c>
       <c r="G100" t="n">
-        <v>45.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B101" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C101" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="D101" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="E101" t="s" s="2">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="G101" t="n">
-        <v>12.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B102" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="C102" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="D102" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="E102" t="s" s="2">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>17</v>
@@ -5656,456 +5089,456 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B103" t="s">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="C103" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="D103" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="E103" t="s" s="2">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="G103" t="n">
-        <v>28.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B104" t="s">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="C104" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="D104" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="E104" t="s" s="2">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="G104" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B105" t="s">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="C105" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="D105" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="E105" t="s" s="2">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>362</v>
+        <v>17</v>
       </c>
       <c r="G105" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B106" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C106" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="D106" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="E106" t="s" s="2">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>366</v>
+        <v>17</v>
       </c>
       <c r="G106" t="n">
-        <v>185.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B107" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C107" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="D107" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="E107" t="s" s="2">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>370</v>
+        <v>17</v>
       </c>
       <c r="G107" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B108" t="s">
+        <v>343</v>
+      </c>
+      <c r="C108" t="s">
         <v>350</v>
       </c>
-      <c r="C108" t="s">
-        <v>371</v>
-      </c>
       <c r="D108" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="E108" t="s" s="2">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="G108" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B109" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C109" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="D109" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="E109" t="s" s="2">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="G109" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B110" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C110" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="D110" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="E110" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>381</v>
+        <v>17</v>
       </c>
       <c r="G110" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B111" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C111" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="D111" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="E111" t="s" s="2">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>385</v>
+        <v>17</v>
       </c>
       <c r="G111" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B112" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C112" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="D112" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="E112" t="s" s="2">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="G112" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B113" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C113" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="D113" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="E113" t="s" s="2">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>393</v>
+        <v>17</v>
       </c>
       <c r="G113" t="n">
-        <v>194.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B114" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C114" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="D114" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="E114" t="s" s="2">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>397</v>
+        <v>17</v>
       </c>
       <c r="G114" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B115" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C115" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="D115" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="E115" t="s" s="2">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>401</v>
+        <v>17</v>
       </c>
       <c r="G115" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B116" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C116" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="D116" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="E116" t="s" s="2">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="G116" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B117" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C117" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="D117" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="E117" t="s" s="2">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>409</v>
+        <v>17</v>
       </c>
       <c r="G117" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>343</v>
       </c>
       <c r="C118" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="D118" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="E118" t="s" s="2">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>413</v>
+        <v>386</v>
       </c>
       <c r="G118" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B119" t="s">
-        <v>414</v>
+        <v>343</v>
       </c>
       <c r="C119" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="D119" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="E119" t="s" s="2">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>17</v>
+        <v>390</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B120" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C120" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="D120" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
       <c r="E120" t="s" s="2">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>421</v>
+        <v>17</v>
       </c>
       <c r="G120" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B121" t="s">
-        <v>284</v>
+        <v>13</v>
       </c>
       <c r="C121" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="D121" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="E121" t="s" s="2">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>425</v>
+        <v>17</v>
       </c>
       <c r="G121" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B122" t="s">
-        <v>284</v>
+        <v>397</v>
       </c>
       <c r="C122" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
       <c r="D122" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="E122" t="s" s="2">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="F122" t="s" s="2">
         <v>17</v>
@@ -6116,42 +5549,42 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B123" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C123" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="D123" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="E123" t="s" s="2">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="G123" t="n">
-        <v>21.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B124" t="s">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="C124" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="D124" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="E124" t="s" s="2">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="F124" t="s" s="2">
         <v>17</v>
@@ -6162,19 +5595,19 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B125" t="s">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="C125" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="D125" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="E125" t="s" s="2">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="F125" t="s" s="2">
         <v>17</v>
@@ -6185,19 +5618,19 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B126" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C126" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="D126" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="E126" t="s" s="2">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="F126" t="s" s="2">
         <v>17</v>
@@ -6208,134 +5641,134 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B127" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C127" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="D127" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="E127" t="s" s="2">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>445</v>
+        <v>17</v>
       </c>
       <c r="G127" t="n">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B128" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C128" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="D128" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="E128" t="s" s="2">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>449</v>
+        <v>17</v>
       </c>
       <c r="G128" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B129" t="s">
-        <v>284</v>
+        <v>343</v>
       </c>
       <c r="C129" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="D129" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="E129" t="s" s="2">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>453</v>
+        <v>17</v>
       </c>
       <c r="G129" t="n">
-        <v>59.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B130" t="s">
-        <v>284</v>
+        <v>343</v>
       </c>
       <c r="C130" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="D130" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="E130" t="s" s="2">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="F130" t="s" s="2">
-        <v>457</v>
+        <v>17</v>
       </c>
       <c r="G130" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B131" t="s">
-        <v>284</v>
+        <v>343</v>
       </c>
       <c r="C131" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="D131" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="E131" t="s" s="2">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>461</v>
+        <v>17</v>
       </c>
       <c r="G131" t="n">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B132" t="s">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="C132" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="D132" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="E132" t="s" s="2">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="F132" t="s" s="2">
         <v>17</v>
@@ -6346,318 +5779,318 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B133" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C133" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D133" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="E133" t="s" s="2">
-        <v>287</v>
+        <v>434</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>17</v>
+        <v>435</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B134" t="s">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="C134" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="D134" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="E134" t="s" s="2">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="G134" t="n">
-        <v>36.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B135" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C135" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="D135" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="E135" t="s" s="2">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>393</v>
+        <v>17</v>
       </c>
       <c r="G135" t="n">
-        <v>884.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B136" t="s">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="C136" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="D136" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="E136" t="s" s="2">
-        <v>476</v>
+        <v>282</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>477</v>
+        <v>17</v>
       </c>
       <c r="G136" t="n">
-        <v>251.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B137" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C137" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="D137" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
       <c r="E137" t="s" s="2">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>481</v>
+        <v>448</v>
       </c>
       <c r="G137" t="n">
-        <v>96.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B138" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C138" t="s">
-        <v>482</v>
+        <v>449</v>
       </c>
       <c r="D138" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="E138" t="s" s="2">
-        <v>484</v>
+        <v>451</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="G138" t="n">
-        <v>11.0</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B139" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C139" t="s">
-        <v>486</v>
+        <v>453</v>
       </c>
       <c r="D139" t="s">
-        <v>487</v>
+        <v>454</v>
       </c>
       <c r="E139" t="s" s="2">
-        <v>488</v>
+        <v>455</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G139" t="n">
-        <v>344.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B140" t="s">
-        <v>284</v>
+        <v>343</v>
       </c>
       <c r="C140" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="D140" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="E140" t="s" s="2">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>492</v>
+        <v>17</v>
       </c>
       <c r="G140" t="n">
-        <v>2454.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B141" t="s">
-        <v>284</v>
+        <v>343</v>
       </c>
       <c r="C141" t="s">
-        <v>493</v>
+        <v>460</v>
       </c>
       <c r="D141" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
       <c r="E141" t="s" s="2">
-        <v>287</v>
+        <v>462</v>
       </c>
       <c r="F141" t="s" s="2">
-        <v>294</v>
+        <v>17</v>
       </c>
       <c r="G141" t="n">
-        <v>4834.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B142" t="s">
-        <v>284</v>
+        <v>343</v>
       </c>
       <c r="C142" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="D142" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="E142" t="s" s="2">
-        <v>497</v>
+        <v>465</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>492</v>
+        <v>466</v>
       </c>
       <c r="G142" t="n">
-        <v>2455.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B143" t="s">
-        <v>498</v>
+        <v>279</v>
       </c>
       <c r="C143" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="D143" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="E143" t="s" s="2">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>17</v>
+        <v>275</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0</v>
+        <v>181.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>268</v>
+      </c>
+      <c r="B144" t="s">
+        <v>279</v>
+      </c>
+      <c r="C144" t="s">
+        <v>470</v>
+      </c>
+      <c r="D144" t="s">
+        <v>471</v>
+      </c>
+      <c r="E144" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="F144" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="B144" t="s">
-        <v>284</v>
-      </c>
-      <c r="C144" t="s">
-        <v>502</v>
-      </c>
-      <c r="D144" t="s">
-        <v>503</v>
-      </c>
-      <c r="E144" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="F144" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="G144" t="n">
-        <v>4836.0</v>
+        <v>324.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B145" t="s">
-        <v>350</v>
+        <v>279</v>
       </c>
       <c r="C145" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="D145" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="E145" t="s" s="2">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>508</v>
+        <v>275</v>
       </c>
       <c r="G145" t="n">
-        <v>8.0</v>
+        <v>181.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B146" t="s">
-        <v>284</v>
+        <v>475</v>
       </c>
       <c r="C146" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="D146" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="E146" t="s" s="2">
-        <v>511</v>
+        <v>478</v>
       </c>
       <c r="F146" t="s" s="2">
         <v>17</v>
@@ -6668,42 +6101,42 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
+        <v>268</v>
+      </c>
+      <c r="B147" t="s">
+        <v>279</v>
+      </c>
+      <c r="C147" t="s">
+        <v>479</v>
+      </c>
+      <c r="D147" t="s">
+        <v>480</v>
+      </c>
+      <c r="E147" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="F147" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="B147" t="s">
-        <v>284</v>
-      </c>
-      <c r="C147" t="s">
-        <v>512</v>
-      </c>
-      <c r="D147" t="s">
-        <v>513</v>
-      </c>
-      <c r="E147" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="F147" t="s" s="2">
-        <v>17</v>
-      </c>
       <c r="G147" t="n">
-        <v>0.0</v>
+        <v>324.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B148" t="s">
-        <v>284</v>
+        <v>343</v>
       </c>
       <c r="C148" t="s">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="D148" t="s">
-        <v>516</v>
+        <v>483</v>
       </c>
       <c r="E148" t="s" s="2">
-        <v>517</v>
+        <v>484</v>
       </c>
       <c r="F148" t="s" s="2">
         <v>17</v>
@@ -6714,42 +6147,42 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>279</v>
       </c>
       <c r="C149" t="s">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="D149" t="s">
-        <v>519</v>
+        <v>486</v>
       </c>
       <c r="E149" t="s" s="2">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>521</v>
+        <v>17</v>
       </c>
       <c r="G149" t="n">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>279</v>
       </c>
       <c r="C150" t="s">
-        <v>522</v>
+        <v>488</v>
       </c>
       <c r="D150" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="E150" t="s" s="2">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="F150" t="s" s="2">
         <v>17</v>
@@ -6760,19 +6193,19 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B151" t="s">
-        <v>13</v>
+        <v>279</v>
       </c>
       <c r="C151" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="D151" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
       <c r="E151" t="s" s="2">
-        <v>527</v>
+        <v>493</v>
       </c>
       <c r="F151" t="s" s="2">
         <v>17</v>
@@ -6783,42 +6216,42 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B152" t="s">
-        <v>350</v>
+        <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>528</v>
+        <v>494</v>
       </c>
       <c r="D152" t="s">
-        <v>529</v>
+        <v>495</v>
       </c>
       <c r="E152" t="s" s="2">
-        <v>530</v>
+        <v>496</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>531</v>
+        <v>497</v>
       </c>
       <c r="G152" t="n">
-        <v>42.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B153" t="s">
-        <v>350</v>
+        <v>13</v>
       </c>
       <c r="C153" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="D153" t="s">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="E153" t="s" s="2">
-        <v>534</v>
+        <v>500</v>
       </c>
       <c r="F153" t="s" s="2">
         <v>17</v>
@@ -6829,65 +6262,65 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B154" t="s">
-        <v>350</v>
+        <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>535</v>
+        <v>501</v>
       </c>
       <c r="D154" t="s">
-        <v>536</v>
+        <v>502</v>
       </c>
       <c r="E154" t="s" s="2">
-        <v>537</v>
+        <v>503</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>538</v>
+        <v>17</v>
       </c>
       <c r="G154" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B155" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C155" t="s">
-        <v>539</v>
+        <v>504</v>
       </c>
       <c r="D155" t="s">
-        <v>540</v>
+        <v>505</v>
       </c>
       <c r="E155" t="s" s="2">
-        <v>541</v>
+        <v>506</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>17</v>
+        <v>507</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B156" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C156" t="s">
-        <v>542</v>
+        <v>508</v>
       </c>
       <c r="D156" t="s">
-        <v>543</v>
+        <v>509</v>
       </c>
       <c r="E156" t="s" s="2">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="F156" t="s" s="2">
         <v>17</v>
@@ -6898,42 +6331,42 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B157" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C157" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
       <c r="D157" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
       <c r="E157" t="s" s="2">
-        <v>547</v>
+        <v>513</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>17</v>
+        <v>514</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B158" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C158" t="s">
-        <v>548</v>
+        <v>515</v>
       </c>
       <c r="D158" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
       <c r="E158" t="s" s="2">
-        <v>550</v>
+        <v>517</v>
       </c>
       <c r="F158" t="s" s="2">
         <v>17</v>
@@ -6944,42 +6377,42 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B159" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C159" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
       <c r="D159" t="s">
-        <v>552</v>
+        <v>519</v>
       </c>
       <c r="E159" t="s" s="2">
-        <v>553</v>
+        <v>520</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>554</v>
+        <v>17</v>
       </c>
       <c r="G159" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B160" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C160" t="s">
-        <v>555</v>
+        <v>521</v>
       </c>
       <c r="D160" t="s">
-        <v>556</v>
+        <v>522</v>
       </c>
       <c r="E160" t="s" s="2">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="F160" t="s" s="2">
         <v>17</v>
@@ -6990,19 +6423,19 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B161" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C161" t="s">
-        <v>558</v>
+        <v>524</v>
       </c>
       <c r="D161" t="s">
-        <v>559</v>
+        <v>525</v>
       </c>
       <c r="E161" t="s" s="2">
-        <v>560</v>
+        <v>526</v>
       </c>
       <c r="F161" t="s" s="2">
         <v>17</v>
@@ -7013,42 +6446,42 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B162" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C162" t="s">
-        <v>561</v>
+        <v>527</v>
       </c>
       <c r="D162" t="s">
-        <v>562</v>
+        <v>528</v>
       </c>
       <c r="E162" t="s" s="2">
-        <v>563</v>
+        <v>529</v>
       </c>
       <c r="F162" t="s" s="2">
-        <v>564</v>
+        <v>17</v>
       </c>
       <c r="G162" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B163" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C163" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="D163" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
       <c r="E163" t="s" s="2">
-        <v>567</v>
+        <v>532</v>
       </c>
       <c r="F163" t="s" s="2">
         <v>17</v>
@@ -7059,42 +6492,42 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B164" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C164" t="s">
-        <v>568</v>
+        <v>533</v>
       </c>
       <c r="D164" t="s">
-        <v>569</v>
+        <v>534</v>
       </c>
       <c r="E164" t="s" s="2">
-        <v>570</v>
+        <v>535</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>571</v>
+        <v>17</v>
       </c>
       <c r="G164" t="n">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B165" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C165" t="s">
-        <v>572</v>
+        <v>536</v>
       </c>
       <c r="D165" t="s">
-        <v>573</v>
+        <v>537</v>
       </c>
       <c r="E165" t="s" s="2">
-        <v>574</v>
+        <v>538</v>
       </c>
       <c r="F165" t="s" s="2">
         <v>17</v>
@@ -7105,19 +6538,19 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B166" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C166" t="s">
-        <v>575</v>
+        <v>539</v>
       </c>
       <c r="D166" t="s">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="E166" t="s" s="2">
-        <v>577</v>
+        <v>541</v>
       </c>
       <c r="F166" t="s" s="2">
         <v>17</v>
@@ -7128,19 +6561,19 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B167" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C167" t="s">
-        <v>578</v>
+        <v>542</v>
       </c>
       <c r="D167" t="s">
-        <v>579</v>
+        <v>543</v>
       </c>
       <c r="E167" t="s" s="2">
-        <v>580</v>
+        <v>544</v>
       </c>
       <c r="F167" t="s" s="2">
         <v>17</v>
@@ -7151,42 +6584,42 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B168" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C168" t="s">
-        <v>581</v>
+        <v>545</v>
       </c>
       <c r="D168" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="E168" t="s" s="2">
-        <v>583</v>
+        <v>547</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>584</v>
+        <v>17</v>
       </c>
       <c r="G168" t="n">
-        <v>62.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B169" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C169" t="s">
-        <v>585</v>
+        <v>548</v>
       </c>
       <c r="D169" t="s">
-        <v>586</v>
+        <v>549</v>
       </c>
       <c r="E169" t="s" s="2">
-        <v>587</v>
+        <v>550</v>
       </c>
       <c r="F169" t="s" s="2">
         <v>17</v>
@@ -7197,19 +6630,19 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B170" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C170" t="s">
-        <v>588</v>
+        <v>551</v>
       </c>
       <c r="D170" t="s">
-        <v>589</v>
+        <v>552</v>
       </c>
       <c r="E170" t="s" s="2">
-        <v>590</v>
+        <v>553</v>
       </c>
       <c r="F170" t="s" s="2">
         <v>17</v>
@@ -7220,42 +6653,42 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B171" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C171" t="s">
-        <v>591</v>
+        <v>554</v>
       </c>
       <c r="D171" t="s">
-        <v>592</v>
+        <v>555</v>
       </c>
       <c r="E171" t="s" s="2">
-        <v>593</v>
+        <v>556</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>17</v>
+        <v>557</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B172" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C172" t="s">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="D172" t="s">
-        <v>595</v>
+        <v>559</v>
       </c>
       <c r="E172" t="s" s="2">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="F172" t="s" s="2">
         <v>17</v>
@@ -7266,19 +6699,19 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B173" t="s">
-        <v>13</v>
+        <v>343</v>
       </c>
       <c r="C173" t="s">
-        <v>597</v>
+        <v>561</v>
       </c>
       <c r="D173" t="s">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="E173" t="s" s="2">
-        <v>599</v>
+        <v>563</v>
       </c>
       <c r="F173" t="s" s="2">
         <v>17</v>
@@ -7289,249 +6722,249 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B174" t="s">
-        <v>13</v>
+        <v>343</v>
       </c>
       <c r="C174" t="s">
-        <v>600</v>
+        <v>564</v>
       </c>
       <c r="D174" t="s">
-        <v>601</v>
+        <v>565</v>
       </c>
       <c r="E174" t="s" s="2">
-        <v>602</v>
+        <v>566</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>492</v>
+        <v>17</v>
       </c>
       <c r="G174" t="n">
-        <v>2446.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B175" t="s">
-        <v>284</v>
+        <v>343</v>
       </c>
       <c r="C175" t="s">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="D175" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="E175" t="s" s="2">
-        <v>287</v>
+        <v>569</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>294</v>
+        <v>17</v>
       </c>
       <c r="G175" t="n">
-        <v>4827.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B176" t="s">
-        <v>284</v>
+        <v>13</v>
       </c>
       <c r="C176" t="s">
-        <v>605</v>
+        <v>570</v>
       </c>
       <c r="D176" t="s">
-        <v>606</v>
+        <v>571</v>
       </c>
       <c r="E176" t="s" s="2">
-        <v>607</v>
+        <v>271</v>
       </c>
       <c r="F176" t="s" s="2">
-        <v>492</v>
+        <v>17</v>
       </c>
       <c r="G176" t="n">
-        <v>2446.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B177" t="s">
         <v>13</v>
       </c>
       <c r="C177" t="s">
-        <v>608</v>
+        <v>572</v>
       </c>
       <c r="D177" t="s">
-        <v>609</v>
+        <v>573</v>
       </c>
       <c r="E177" t="s" s="2">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="F177" t="s" s="2">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="G177" t="n">
-        <v>4827.0</v>
+        <v>178.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
+        <v>268</v>
+      </c>
+      <c r="B178" t="s">
+        <v>279</v>
+      </c>
+      <c r="C178" t="s">
+        <v>575</v>
+      </c>
+      <c r="D178" t="s">
+        <v>576</v>
+      </c>
+      <c r="E178" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="F178" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="B178" t="s">
-        <v>13</v>
-      </c>
-      <c r="C178" t="s">
-        <v>610</v>
-      </c>
-      <c r="D178" t="s">
-        <v>611</v>
-      </c>
-      <c r="E178" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="F178" t="s" s="2">
-        <v>492</v>
-      </c>
       <c r="G178" t="n">
-        <v>2447.0</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
-        <v>13</v>
+        <v>279</v>
       </c>
       <c r="C179" t="s">
-        <v>613</v>
+        <v>577</v>
       </c>
       <c r="D179" t="s">
-        <v>614</v>
+        <v>578</v>
       </c>
       <c r="E179" t="s" s="2">
-        <v>615</v>
+        <v>579</v>
       </c>
       <c r="F179" t="s" s="2">
-        <v>616</v>
+        <v>275</v>
       </c>
       <c r="G179" t="n">
-        <v>49.0</v>
+        <v>178.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
+        <v>268</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" t="s">
+        <v>580</v>
+      </c>
+      <c r="D180" t="s">
+        <v>581</v>
+      </c>
+      <c r="E180" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="F180" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="B180" t="s">
-        <v>13</v>
-      </c>
-      <c r="C180" t="s">
-        <v>617</v>
-      </c>
-      <c r="D180" t="s">
-        <v>618</v>
-      </c>
-      <c r="E180" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="F180" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="G180" t="n">
-        <v>4828.0</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B181" t="s">
         <v>13</v>
       </c>
       <c r="C181" t="s">
-        <v>619</v>
+        <v>582</v>
       </c>
       <c r="D181" t="s">
-        <v>620</v>
+        <v>583</v>
       </c>
       <c r="E181" t="s" s="2">
-        <v>621</v>
+        <v>584</v>
       </c>
       <c r="F181" t="s" s="2">
-        <v>492</v>
+        <v>275</v>
       </c>
       <c r="G181" t="n">
-        <v>2447.0</v>
+        <v>178.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B182" t="s">
         <v>13</v>
       </c>
       <c r="C182" t="s">
-        <v>622</v>
+        <v>585</v>
       </c>
       <c r="D182" t="s">
-        <v>623</v>
+        <v>586</v>
       </c>
       <c r="E182" t="s" s="2">
-        <v>624</v>
+        <v>587</v>
       </c>
       <c r="F182" t="s" s="2">
-        <v>294</v>
+        <v>17</v>
       </c>
       <c r="G182" t="n">
-        <v>4828.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
+        <v>268</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" t="s">
+        <v>588</v>
+      </c>
+      <c r="D183" t="s">
+        <v>589</v>
+      </c>
+      <c r="E183" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="F183" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="B183" t="s">
-        <v>13</v>
-      </c>
-      <c r="C183" t="s">
-        <v>625</v>
-      </c>
-      <c r="D183" t="s">
-        <v>626</v>
-      </c>
-      <c r="E183" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="F183" t="s" s="2">
-        <v>627</v>
-      </c>
       <c r="G183" t="n">
-        <v>3.0</v>
+        <v>325.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B184" t="s">
-        <v>629</v>
+        <v>591</v>
       </c>
       <c r="C184" t="s">
-        <v>630</v>
+        <v>592</v>
       </c>
       <c r="D184" t="s">
-        <v>631</v>
+        <v>593</v>
       </c>
       <c r="E184" t="s" s="2">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="F184" t="s" s="2">
         <v>12</v>
@@ -7542,318 +6975,318 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B185" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="C185" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="D185" t="s">
-        <v>635</v>
+        <v>597</v>
       </c>
       <c r="E185" t="s" s="2">
-        <v>636</v>
+        <v>598</v>
       </c>
       <c r="F185" t="s" s="2">
-        <v>637</v>
+        <v>599</v>
       </c>
       <c r="G185" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B186" t="s">
-        <v>638</v>
+        <v>595</v>
       </c>
       <c r="C186" t="s">
-        <v>639</v>
+        <v>600</v>
       </c>
       <c r="D186" t="s">
-        <v>640</v>
+        <v>601</v>
       </c>
       <c r="E186" t="s" s="2">
-        <v>641</v>
+        <v>602</v>
       </c>
       <c r="F186" t="s" s="2">
-        <v>642</v>
+        <v>17</v>
       </c>
       <c r="G186" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B187" t="s">
-        <v>643</v>
+        <v>603</v>
       </c>
       <c r="C187" t="s">
-        <v>644</v>
+        <v>604</v>
       </c>
       <c r="D187" t="s">
-        <v>645</v>
+        <v>605</v>
       </c>
       <c r="E187" t="s" s="2">
-        <v>646</v>
+        <v>606</v>
       </c>
       <c r="F187" t="s" s="2">
-        <v>647</v>
+        <v>17</v>
       </c>
       <c r="G187" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B188" t="s">
-        <v>643</v>
+        <v>603</v>
       </c>
       <c r="C188" t="s">
-        <v>648</v>
+        <v>607</v>
       </c>
       <c r="D188" t="s">
-        <v>649</v>
+        <v>608</v>
       </c>
       <c r="E188" t="s" s="2">
-        <v>650</v>
+        <v>609</v>
       </c>
       <c r="F188" t="s" s="2">
-        <v>651</v>
+        <v>17</v>
       </c>
       <c r="G188" t="n">
-        <v>393.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B189" t="s">
-        <v>638</v>
+        <v>591</v>
       </c>
       <c r="C189" t="s">
-        <v>652</v>
+        <v>610</v>
       </c>
       <c r="D189" t="s">
-        <v>653</v>
+        <v>611</v>
       </c>
       <c r="E189" t="s" s="2">
-        <v>654</v>
+        <v>612</v>
       </c>
       <c r="F189" t="s" s="2">
-        <v>655</v>
+        <v>613</v>
       </c>
       <c r="G189" t="n">
-        <v>611.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B190" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
       <c r="C190" t="s">
-        <v>656</v>
+        <v>615</v>
       </c>
       <c r="D190" t="s">
-        <v>657</v>
+        <v>616</v>
       </c>
       <c r="E190" t="s" s="2">
-        <v>658</v>
+        <v>617</v>
       </c>
       <c r="F190" t="s" s="2">
-        <v>651</v>
+        <v>17</v>
       </c>
       <c r="G190" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B191" t="s">
-        <v>643</v>
+        <v>614</v>
       </c>
       <c r="C191" t="s">
-        <v>659</v>
+        <v>618</v>
       </c>
       <c r="D191" t="s">
-        <v>660</v>
+        <v>619</v>
       </c>
       <c r="E191" t="s" s="2">
-        <v>661</v>
+        <v>620</v>
       </c>
       <c r="F191" t="s" s="2">
-        <v>662</v>
+        <v>621</v>
       </c>
       <c r="G191" t="n">
-        <v>44155.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B192" t="s">
-        <v>643</v>
+        <v>614</v>
       </c>
       <c r="C192" t="s">
-        <v>663</v>
+        <v>622</v>
       </c>
       <c r="D192" t="s">
-        <v>664</v>
+        <v>623</v>
       </c>
       <c r="E192" t="s" s="2">
-        <v>665</v>
+        <v>624</v>
       </c>
       <c r="F192" t="s" s="2">
-        <v>666</v>
+        <v>625</v>
       </c>
       <c r="G192" t="n">
-        <v>3.0</v>
+        <v>10781.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
+        <v>590</v>
+      </c>
+      <c r="B193" t="s">
+        <v>603</v>
+      </c>
+      <c r="C193" t="s">
+        <v>626</v>
+      </c>
+      <c r="D193" t="s">
+        <v>627</v>
+      </c>
+      <c r="E193" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="B193" t="s">
+      <c r="F193" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="C193" t="s">
-        <v>667</v>
-      </c>
-      <c r="D193" t="s">
-        <v>668</v>
-      </c>
-      <c r="E193" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="F193" t="s" s="2">
-        <v>670</v>
-      </c>
       <c r="G193" t="n">
-        <v>37771.0</v>
+        <v>10177.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B194" t="s">
-        <v>643</v>
+        <v>595</v>
       </c>
       <c r="C194" t="s">
-        <v>671</v>
+        <v>630</v>
       </c>
       <c r="D194" t="s">
-        <v>672</v>
+        <v>631</v>
       </c>
       <c r="E194" t="s" s="2">
-        <v>673</v>
+        <v>632</v>
       </c>
       <c r="F194" t="s" s="2">
-        <v>662</v>
+        <v>17</v>
       </c>
       <c r="G194" t="n">
-        <v>44155.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B195" t="s">
-        <v>643</v>
+        <v>603</v>
       </c>
       <c r="C195" t="s">
-        <v>674</v>
+        <v>633</v>
       </c>
       <c r="D195" t="s">
-        <v>675</v>
+        <v>634</v>
       </c>
       <c r="E195" t="s" s="2">
-        <v>676</v>
+        <v>635</v>
       </c>
       <c r="F195" t="s" s="2">
-        <v>677</v>
+        <v>636</v>
       </c>
       <c r="G195" t="n">
-        <v>259.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B196" t="s">
-        <v>643</v>
+        <v>595</v>
       </c>
       <c r="C196" t="s">
-        <v>678</v>
+        <v>637</v>
       </c>
       <c r="D196" t="s">
-        <v>679</v>
+        <v>638</v>
       </c>
       <c r="E196" t="s" s="2">
-        <v>680</v>
+        <v>639</v>
       </c>
       <c r="F196" t="s" s="2">
-        <v>681</v>
+        <v>640</v>
       </c>
       <c r="G196" t="n">
-        <v>189.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B197" t="s">
-        <v>629</v>
+        <v>595</v>
       </c>
       <c r="C197" t="s">
-        <v>682</v>
+        <v>641</v>
       </c>
       <c r="D197" t="s">
-        <v>683</v>
+        <v>642</v>
       </c>
       <c r="E197" t="s" s="2">
-        <v>684</v>
+        <v>620</v>
       </c>
       <c r="F197" t="s" s="2">
-        <v>670</v>
+        <v>643</v>
       </c>
       <c r="G197" t="n">
-        <v>37767.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B198" t="s">
-        <v>629</v>
+        <v>603</v>
       </c>
       <c r="C198" t="s">
-        <v>685</v>
+        <v>644</v>
       </c>
       <c r="D198" t="s">
-        <v>686</v>
+        <v>645</v>
       </c>
       <c r="E198" t="s" s="2">
-        <v>687</v>
+        <v>646</v>
       </c>
       <c r="F198" t="s" s="2">
         <v>17</v>
@@ -7864,433 +7297,433 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B199" t="s">
-        <v>638</v>
+        <v>603</v>
       </c>
       <c r="C199" t="s">
-        <v>688</v>
+        <v>647</v>
       </c>
       <c r="D199" t="s">
-        <v>689</v>
+        <v>648</v>
       </c>
       <c r="E199" t="s" s="2">
-        <v>690</v>
+        <v>649</v>
       </c>
       <c r="F199" t="s" s="2">
-        <v>17</v>
+        <v>650</v>
       </c>
       <c r="G199" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B200" t="s">
-        <v>638</v>
+        <v>591</v>
       </c>
       <c r="C200" t="s">
-        <v>691</v>
+        <v>651</v>
       </c>
       <c r="D200" t="s">
-        <v>692</v>
+        <v>652</v>
       </c>
       <c r="E200" t="s" s="2">
-        <v>693</v>
+        <v>653</v>
       </c>
       <c r="F200" t="s" s="2">
-        <v>694</v>
+        <v>654</v>
       </c>
       <c r="G200" t="n">
-        <v>198.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B201" t="s">
-        <v>638</v>
+        <v>591</v>
       </c>
       <c r="C201" t="s">
-        <v>695</v>
+        <v>655</v>
       </c>
       <c r="D201" t="s">
-        <v>696</v>
+        <v>656</v>
       </c>
       <c r="E201" t="s" s="2">
-        <v>697</v>
+        <v>657</v>
       </c>
       <c r="F201" t="s" s="2">
-        <v>698</v>
+        <v>17</v>
       </c>
       <c r="G201" t="n">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B202" t="s">
-        <v>629</v>
+        <v>591</v>
       </c>
       <c r="C202" t="s">
-        <v>699</v>
+        <v>658</v>
       </c>
       <c r="D202" t="s">
-        <v>700</v>
+        <v>659</v>
       </c>
       <c r="E202" t="s" s="2">
-        <v>701</v>
+        <v>660</v>
       </c>
       <c r="F202" t="s" s="2">
-        <v>702</v>
+        <v>625</v>
       </c>
       <c r="G202" t="n">
-        <v>147.0</v>
+        <v>10773.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B203" t="s">
-        <v>638</v>
+        <v>661</v>
       </c>
       <c r="C203" t="s">
-        <v>703</v>
+        <v>662</v>
       </c>
       <c r="D203" t="s">
-        <v>704</v>
+        <v>663</v>
       </c>
       <c r="E203" t="s" s="2">
-        <v>705</v>
+        <v>664</v>
       </c>
       <c r="F203" t="s" s="2">
-        <v>706</v>
+        <v>629</v>
       </c>
       <c r="G203" t="n">
-        <v>14.0</v>
+        <v>10165.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B204" t="s">
-        <v>643</v>
+        <v>603</v>
       </c>
       <c r="C204" t="s">
-        <v>707</v>
+        <v>665</v>
       </c>
       <c r="D204" t="s">
-        <v>708</v>
+        <v>666</v>
       </c>
       <c r="E204" t="s" s="2">
-        <v>709</v>
+        <v>667</v>
       </c>
       <c r="F204" t="s" s="2">
-        <v>702</v>
+        <v>17</v>
       </c>
       <c r="G204" t="n">
-        <v>455.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B205" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="C205" t="s">
-        <v>710</v>
+        <v>668</v>
       </c>
       <c r="D205" t="s">
-        <v>711</v>
+        <v>669</v>
       </c>
       <c r="E205" t="s" s="2">
-        <v>712</v>
+        <v>670</v>
       </c>
       <c r="F205" t="s" s="2">
-        <v>713</v>
+        <v>17</v>
       </c>
       <c r="G205" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B206" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="C206" t="s">
-        <v>714</v>
+        <v>671</v>
       </c>
       <c r="D206" t="s">
-        <v>715</v>
+        <v>672</v>
       </c>
       <c r="E206" t="s" s="2">
-        <v>716</v>
+        <v>620</v>
       </c>
       <c r="F206" t="s" s="2">
-        <v>717</v>
+        <v>673</v>
       </c>
       <c r="G206" t="n">
-        <v>782.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B207" t="s">
-        <v>638</v>
+        <v>603</v>
       </c>
       <c r="C207" t="s">
-        <v>718</v>
+        <v>674</v>
       </c>
       <c r="D207" t="s">
-        <v>719</v>
+        <v>675</v>
       </c>
       <c r="E207" t="s" s="2">
-        <v>720</v>
+        <v>676</v>
       </c>
       <c r="F207" t="s" s="2">
-        <v>721</v>
+        <v>677</v>
       </c>
       <c r="G207" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B208" t="s">
-        <v>629</v>
+        <v>603</v>
       </c>
       <c r="C208" t="s">
-        <v>722</v>
+        <v>678</v>
       </c>
       <c r="D208" t="s">
-        <v>723</v>
+        <v>679</v>
       </c>
       <c r="E208" t="s" s="2">
-        <v>724</v>
+        <v>680</v>
       </c>
       <c r="F208" t="s" s="2">
-        <v>717</v>
+        <v>17</v>
       </c>
       <c r="G208" t="n">
-        <v>1487.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B209" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
       <c r="C209" t="s">
-        <v>725</v>
+        <v>681</v>
       </c>
       <c r="D209" t="s">
-        <v>726</v>
+        <v>682</v>
       </c>
       <c r="E209" t="s" s="2">
-        <v>727</v>
+        <v>683</v>
       </c>
       <c r="F209" t="s" s="2">
-        <v>728</v>
+        <v>625</v>
       </c>
       <c r="G209" t="n">
-        <v>172.0</v>
+        <v>10775.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B210" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="C210" t="s">
-        <v>729</v>
+        <v>684</v>
       </c>
       <c r="D210" t="s">
-        <v>730</v>
+        <v>685</v>
       </c>
       <c r="E210" t="s" s="2">
-        <v>731</v>
+        <v>686</v>
       </c>
       <c r="F210" t="s" s="2">
-        <v>732</v>
+        <v>687</v>
       </c>
       <c r="G210" t="n">
-        <v>195.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B211" t="s">
+        <v>591</v>
+      </c>
+      <c r="C211" t="s">
+        <v>688</v>
+      </c>
+      <c r="D211" t="s">
+        <v>689</v>
+      </c>
+      <c r="E211" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="F211" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="C211" t="s">
-        <v>733</v>
-      </c>
-      <c r="D211" t="s">
-        <v>734</v>
-      </c>
-      <c r="E211" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="F211" t="s" s="2">
-        <v>736</v>
-      </c>
       <c r="G211" t="n">
-        <v>1042.0</v>
+        <v>10168.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B212" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
       <c r="C212" t="s">
-        <v>737</v>
+        <v>691</v>
       </c>
       <c r="D212" t="s">
-        <v>738</v>
+        <v>692</v>
       </c>
       <c r="E212" t="s" s="2">
-        <v>739</v>
+        <v>693</v>
       </c>
       <c r="F212" t="s" s="2">
-        <v>740</v>
+        <v>625</v>
       </c>
       <c r="G212" t="n">
-        <v>1417.0</v>
+        <v>10775.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B213" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
       <c r="C213" t="s">
-        <v>741</v>
+        <v>694</v>
       </c>
       <c r="D213" t="s">
-        <v>742</v>
+        <v>695</v>
       </c>
       <c r="E213" t="s" s="2">
-        <v>743</v>
+        <v>696</v>
       </c>
       <c r="F213" t="s" s="2">
-        <v>744</v>
+        <v>697</v>
       </c>
       <c r="G213" t="n">
-        <v>116.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B214" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="C214" t="s">
-        <v>745</v>
+        <v>698</v>
       </c>
       <c r="D214" t="s">
-        <v>746</v>
+        <v>699</v>
       </c>
       <c r="E214" t="s" s="2">
-        <v>747</v>
+        <v>700</v>
       </c>
       <c r="F214" t="s" s="2">
-        <v>748</v>
+        <v>17</v>
       </c>
       <c r="G214" t="n">
-        <v>31.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B215" t="s">
-        <v>638</v>
+        <v>591</v>
       </c>
       <c r="C215" t="s">
-        <v>749</v>
+        <v>701</v>
       </c>
       <c r="D215" t="s">
-        <v>750</v>
+        <v>702</v>
       </c>
       <c r="E215" t="s" s="2">
-        <v>751</v>
+        <v>703</v>
       </c>
       <c r="F215" t="s" s="2">
-        <v>752</v>
+        <v>629</v>
       </c>
       <c r="G215" t="n">
-        <v>27.0</v>
+        <v>10167.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B216" t="s">
-        <v>753</v>
+        <v>591</v>
       </c>
       <c r="C216" t="s">
-        <v>754</v>
+        <v>704</v>
       </c>
       <c r="D216" t="s">
-        <v>755</v>
+        <v>705</v>
       </c>
       <c r="E216" t="s" s="2">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="F216" t="s" s="2">
-        <v>757</v>
+        <v>17</v>
       </c>
       <c r="G216" t="n">
-        <v>33.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B217" t="s">
-        <v>753</v>
+        <v>603</v>
       </c>
       <c r="C217" t="s">
-        <v>758</v>
+        <v>707</v>
       </c>
       <c r="D217" t="s">
-        <v>759</v>
+        <v>708</v>
       </c>
       <c r="E217" t="s" s="2">
-        <v>760</v>
+        <v>709</v>
       </c>
       <c r="F217" t="s" s="2">
         <v>17</v>
@@ -8301,370 +7734,370 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B218" t="s">
-        <v>753</v>
+        <v>603</v>
       </c>
       <c r="C218" t="s">
-        <v>761</v>
+        <v>710</v>
       </c>
       <c r="D218" t="s">
-        <v>762</v>
+        <v>711</v>
       </c>
       <c r="E218" t="s" s="2">
-        <v>763</v>
+        <v>712</v>
       </c>
       <c r="F218" t="s" s="2">
-        <v>764</v>
+        <v>17</v>
       </c>
       <c r="G218" t="n">
-        <v>219.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B219" t="s">
-        <v>638</v>
+        <v>603</v>
       </c>
       <c r="C219" t="s">
-        <v>765</v>
+        <v>713</v>
       </c>
       <c r="D219" t="s">
-        <v>766</v>
+        <v>714</v>
       </c>
       <c r="E219" t="s" s="2">
-        <v>767</v>
+        <v>715</v>
       </c>
       <c r="F219" t="s" s="2">
-        <v>768</v>
+        <v>17</v>
       </c>
       <c r="G219" t="n">
-        <v>213.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B220" t="s">
-        <v>638</v>
+        <v>591</v>
       </c>
       <c r="C220" t="s">
-        <v>769</v>
+        <v>716</v>
       </c>
       <c r="D220" t="s">
-        <v>770</v>
+        <v>717</v>
       </c>
       <c r="E220" t="s" s="2">
-        <v>771</v>
+        <v>718</v>
       </c>
       <c r="F220" t="s" s="2">
-        <v>772</v>
+        <v>17</v>
       </c>
       <c r="G220" t="n">
-        <v>134.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B221" t="s">
-        <v>753</v>
+        <v>603</v>
       </c>
       <c r="C221" t="s">
-        <v>773</v>
+        <v>719</v>
       </c>
       <c r="D221" t="s">
-        <v>774</v>
+        <v>720</v>
       </c>
       <c r="E221" t="s" s="2">
-        <v>775</v>
+        <v>721</v>
       </c>
       <c r="F221" t="s" s="2">
-        <v>776</v>
+        <v>17</v>
       </c>
       <c r="G221" t="n">
-        <v>218.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B222" t="s">
-        <v>777</v>
+        <v>614</v>
       </c>
       <c r="C222" t="s">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="D222" t="s">
-        <v>779</v>
+        <v>723</v>
       </c>
       <c r="E222" t="s" s="2">
-        <v>780</v>
+        <v>724</v>
       </c>
       <c r="F222" t="s" s="2">
-        <v>17</v>
+        <v>725</v>
       </c>
       <c r="G222" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B223" t="s">
-        <v>753</v>
+        <v>591</v>
       </c>
       <c r="C223" t="s">
-        <v>781</v>
+        <v>726</v>
       </c>
       <c r="D223" t="s">
-        <v>782</v>
+        <v>727</v>
       </c>
       <c r="E223" t="s" s="2">
-        <v>783</v>
+        <v>728</v>
       </c>
       <c r="F223" t="s" s="2">
-        <v>784</v>
+        <v>17</v>
       </c>
       <c r="G223" t="n">
-        <v>2253.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B224" t="s">
-        <v>629</v>
+        <v>591</v>
       </c>
       <c r="C224" t="s">
-        <v>785</v>
+        <v>729</v>
       </c>
       <c r="D224" t="s">
-        <v>786</v>
+        <v>730</v>
       </c>
       <c r="E224" t="s" s="2">
-        <v>787</v>
+        <v>731</v>
       </c>
       <c r="F224" t="s" s="2">
-        <v>788</v>
+        <v>732</v>
       </c>
       <c r="G224" t="n">
-        <v>118.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B225" t="s">
-        <v>789</v>
+        <v>603</v>
       </c>
       <c r="C225" t="s">
-        <v>790</v>
+        <v>733</v>
       </c>
       <c r="D225" t="s">
-        <v>791</v>
+        <v>734</v>
       </c>
       <c r="E225" t="s" s="2">
-        <v>792</v>
+        <v>735</v>
       </c>
       <c r="F225" t="s" s="2">
-        <v>793</v>
+        <v>17</v>
       </c>
       <c r="G225" t="n">
-        <v>898.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B226" t="s">
-        <v>638</v>
+        <v>591</v>
       </c>
       <c r="C226" t="s">
-        <v>794</v>
+        <v>736</v>
       </c>
       <c r="D226" t="s">
-        <v>795</v>
+        <v>737</v>
       </c>
       <c r="E226" t="s" s="2">
-        <v>796</v>
+        <v>738</v>
       </c>
       <c r="F226" t="s" s="2">
-        <v>17</v>
+        <v>739</v>
       </c>
       <c r="G226" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B227" t="s">
-        <v>629</v>
+        <v>603</v>
       </c>
       <c r="C227" t="s">
-        <v>797</v>
+        <v>740</v>
       </c>
       <c r="D227" t="s">
-        <v>798</v>
+        <v>741</v>
       </c>
       <c r="E227" t="s" s="2">
-        <v>799</v>
+        <v>742</v>
       </c>
       <c r="F227" t="s" s="2">
-        <v>800</v>
+        <v>743</v>
       </c>
       <c r="G227" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B228" t="s">
-        <v>638</v>
+        <v>591</v>
       </c>
       <c r="C228" t="s">
-        <v>801</v>
+        <v>744</v>
       </c>
       <c r="D228" t="s">
-        <v>802</v>
+        <v>745</v>
       </c>
       <c r="E228" t="s" s="2">
-        <v>803</v>
+        <v>746</v>
       </c>
       <c r="F228" t="s" s="2">
-        <v>804</v>
+        <v>747</v>
       </c>
       <c r="G228" t="n">
-        <v>208.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B229" t="s">
-        <v>629</v>
+        <v>591</v>
       </c>
       <c r="C229" t="s">
-        <v>805</v>
+        <v>748</v>
       </c>
       <c r="D229" t="s">
-        <v>806</v>
+        <v>749</v>
       </c>
       <c r="E229" t="s" s="2">
-        <v>807</v>
+        <v>750</v>
       </c>
       <c r="F229" t="s" s="2">
-        <v>808</v>
+        <v>751</v>
       </c>
       <c r="G229" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B230" t="s">
-        <v>629</v>
+        <v>603</v>
       </c>
       <c r="C230" t="s">
-        <v>809</v>
+        <v>752</v>
       </c>
       <c r="D230" t="s">
-        <v>810</v>
+        <v>753</v>
       </c>
       <c r="E230" t="s" s="2">
-        <v>811</v>
+        <v>754</v>
       </c>
       <c r="F230" t="s" s="2">
-        <v>812</v>
+        <v>755</v>
       </c>
       <c r="G230" t="n">
-        <v>180.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B231" t="s">
-        <v>638</v>
+        <v>603</v>
       </c>
       <c r="C231" t="s">
-        <v>813</v>
+        <v>756</v>
       </c>
       <c r="D231" t="s">
-        <v>814</v>
+        <v>757</v>
       </c>
       <c r="E231" t="s" s="2">
-        <v>815</v>
+        <v>758</v>
       </c>
       <c r="F231" t="s" s="2">
-        <v>816</v>
+        <v>759</v>
       </c>
       <c r="G231" t="n">
-        <v>439.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B232" t="s">
-        <v>629</v>
+        <v>591</v>
       </c>
       <c r="C232" t="s">
-        <v>817</v>
+        <v>760</v>
       </c>
       <c r="D232" t="s">
-        <v>818</v>
+        <v>761</v>
       </c>
       <c r="E232" t="s" s="2">
-        <v>819</v>
+        <v>762</v>
       </c>
       <c r="F232" t="s" s="2">
-        <v>694</v>
+        <v>17</v>
       </c>
       <c r="G232" t="n">
-        <v>208.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
       <c r="B233" t="s">
-        <v>629</v>
+        <v>603</v>
       </c>
       <c r="C233" t="s">
-        <v>820</v>
+        <v>763</v>
       </c>
       <c r="D233" t="s">
-        <v>821</v>
+        <v>764</v>
       </c>
       <c r="E233" t="s" s="2">
-        <v>822</v>
+        <v>765</v>
       </c>
       <c r="F233" t="s" s="2">
-        <v>17</v>
+        <v>766</v>
       </c>
       <c r="G233" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/records.xlsx
+++ b/records.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="738">
   <si>
     <t>Project</t>
   </si>
@@ -258,10 +258,6 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@1061884 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/WixTask.java:105:	Avoid using implementation types like 'ArrayList'; use the interface instead
-/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/WixTask.java:112:	Avoid unnecessary constructors - the compiler will generate these for you</t>
-  </si>
-  <si>
     <t>4817ceb273701b452728cea6e7a4533e9d24a1bf</t>
   </si>
   <si>
@@ -272,9 +268,6 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@984111 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/util/CollectionUtils.java:31:	All methods are static.  Consider using a utility class instead. Alternatively, you could add a private constructor or make the class abstract to silence this warning.</t>
-  </si>
-  <si>
     <t>00d74e3d5f4bcdf542071880579cce09dfa7e922</t>
   </si>
   <si>
@@ -295,9 +288,6 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@909400 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/compile/FSharp.java:22:	Avoid unused imports such as 'org.apache.tools.ant.BuildException'</t>
-  </si>
-  <si>
     <t>ceee1df21d23912c86b96dec6fb944ec5d763f7c</t>
   </si>
   <si>
@@ -348,13 +338,11 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@763647 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/TallowTask.java:22:	Avoid unused imports such as 'org.apache.ant.dotnet.build.AbstractBuildTask'
-/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/TallowTask.java:51:	Avoid using implementation types like 'ArrayList'; use the interface instead
+    <t>/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/TallowTask.java:51:	Avoid using implementation types like 'ArrayList'; use the interface instead
 /Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/TallowTask.java:72:	Avoid unnecessary constructors - the compiler will generate these for you
 /Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/TallowTask.java:157:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()
 /Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/TallowTask.java:167:	This for loop can be replaced by a foreach loop
-/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/TallowTask.java:213:	This for loop can be replaced by a f
-...{continued}...</t>
+/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/wix/TallowTask.java:213:	This for loop can be replaced by a foreach loop</t>
   </si>
   <si>
     <t>b44338390be9d6688dfba13460a8858f48d3d409</t>
@@ -387,9 +375,6 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@677883 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/NUnitTask.java:308:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()</t>
-  </si>
-  <si>
     <t>298dd6570ad1bf145bcd7ac98abd5bfd87541061</t>
   </si>
   <si>
@@ -430,9 +415,6 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@641488 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/compile/WsdlToDotnet.java:409:	New exception is thrown in catch block, original stack trace may be lost</t>
-  </si>
-  <si>
     <t>174f066d9791ce6539f88961e5f849d9695eb295</t>
   </si>
   <si>
@@ -763,10 +745,7 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@437212 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/ant-antlibs-dotnet/src/etc/testcases/src/jsharp.java:22:	All classes and interfaces must belong to a named package
-/Users/danikgan/Desktop/ant-antlibs-dotnet/src/etc/testcases/src/jsharp.java:22:	All methods are static.  Consider using a utility class instead. Alternatively, you could add a private constructor or make the class abstract to silence this warning.
-/Users/danikgan/Desktop/ant-antlibs-dotnet/src/etc/testcases/src/jsharp.java:22:	The class name 'jsharp' doesn't match '[A-Z][a-zA-Z0-9]*'
-/Users/danikgan/Desktop/ant-antlibs-dotnet/src/tests/junit/org/apache/ant/dotnet/compile/DotnetTest.java:114:	The instance method name 'testILDASM_empty' doesn't match '[a-z][a-zA-Z0-9]*'</t>
+    <t>/Users/danikgan/Desktop/ant-antlibs-dotnet/src/tests/junit/org/apache/ant/dotnet/compile/DotnetTest.java:114:	The instance method name 'testILDASM_empty' doesn't match '[a-z][a-zA-Z0-9]*'</t>
   </si>
   <si>
     <t>90276cc8a5acc13cfeecec1a8cc3b5fbd5c500d2</t>
@@ -858,9 +837,6 @@
 git-svn-id: https://svn.apache.org/repos/asf/ant/antlibs/dotnet/trunk@348377 13f79535-47bb-0310-9956-ffa450edef68</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/ant-antlibs-dotnet/src/main/org/apache/ant/dotnet/MSBuildTask.java:39:	Avoid unnecessary constructors - the compiler will generate these for you</t>
-  </si>
-  <si>
     <t>2ee1a9b038d0ce7fafc44afff0f5e1181a4e46cb</t>
   </si>
   <si>
@@ -937,12 +913,13 @@
 unlikely that such subclasses exist.</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/ant/src/etc/testcases/core/containersrc/test/SpecialSeq.java:30:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/ant/src/etc/testcases/taskdefs/javadoc/java/ClassToJavadoc.java:28:	Document empty method body
-/Users/danikgan/Desktop/ant/src/etc/testcases/taskdefs/optional/depend/src6/org.dummy/Foo.java:20:	All methods are static.  Consider using a utility class instead. Alternatively, you could add a private constructor or make the class abstract to silence this warning.
-/Users/danikgan/Desktop/ant/src/etc/testcases/taskdefs/rmic/src/AntTimestamp.java:26:	All classes and interfaces must belong to a named package
-/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/ProjectComponent.java:167:	The return type of the clone() method must be the class name when implements Cloneable
-/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/ProjectHelper.java:153:	Avoid using implementation types like 'Vector'; use t
+    <t>/Users/danikgan/Desktop/ant/src/etc/testcases/taskdefs/javadoc/java/ClassToJavadoc.java:28:	Document empty method body
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/filters/BaseParamFilterReader.java:61:	The method 'setParameters(Parameter...)' is missing an @Override annotation.
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/filters/LineContainsRegExp.java:61:	Avoid using implementation types like 'Vector'; use the interface instead
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/filters/StripLineComments.java:58:	Avoid using implementation types like 'Vector'; use the interface instead
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/filters/TailFilter.java:69:	Avoid using implementation types like 'LinkedList'; use the interface instead
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/helper/AntXMLContext.java:56:	Avoid using implementation types like 'Vector'; use the interface instead
+/Users/danikgan/Desktop/ant/src/main/org/apach
 ...{continued}...</t>
   </si>
   <si>
@@ -969,12 +946,12 @@
   <si>
     <t>/Users/danikgan/Desktop/ant/src/etc/testcases/core/containersrc/test/SpecialSeq.java:31:	Avoid using implementation types like 'Vector'; use the interface instead
 /Users/danikgan/Desktop/ant/src/etc/testcases/taskdefs/javadoc/java/ClassToJavadoc.java:28:	Document empty method body
-/Users/danikgan/Desktop/ant/src/etc/testcases/taskdefs/rmic/src/AntTimestamp.java:17:	Avoid unused imports such as 'java.rmi.Remote'
-/Users/danikgan/Desktop/ant/src/etc/testcases/taskdefs/rmic/src/AntTimestamp.java:21:	Avoid unused imports such as 'org.apache.tools.ant.BuildException'
-/Users/danikgan/Desktop/ant/src/etc/testcases/taskdefs/rmic/src/AntTimestamp.java:29:	All classes and interfaces must belong to a named package
-/Users/danikgan/Desktop/ant/src/etc/testcases/taskdefs/rmic/src/RemoteTimestampImpl.java:17:	Avoid unused imports such as 'java.rmi.Remote'
 /Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/DefaultDefinitions.java:69:	Avoid unused local variables such as 'n'.
-/Users/danikgan/Desk
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/ProjectHelper.java:150:	Avoid unnecessary constructors - the compiler will generate these for you
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/ProjectHelper.java:150:	Document empty constructor
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/ProjectHelper.java:157:	Avoid using implementation types like 'Vector'; use the interface instead
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/attribute/IfBlankAttribute.java:37:	Useless parentheses.
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/
 ...{continued}...</t>
   </si>
   <si>
@@ -1159,9 +1136,6 @@
 ...{continued}...</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/Project.java:147:	Avoid using implementation types like 'Hashtable'; use the interface instead</t>
-  </si>
-  <si>
     <t>69269adced56238dc80297b9ae881442cd56259c</t>
   </si>
   <si>
@@ -1171,10 +1145,6 @@
     <t>bz-62952 Fix the jar-test.xml#testMultiReleaseJar antunit test case</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/ant/src/tests/junit/org/example/junitlauncher/Tracker.java:28:	Avoid unused imports such as 'java.io.FileOutputStream'
-/Users/danikgan/Desktop/ant/src/tests/junit/org/example/junitlauncher/Tracker.java:33:	Avoid unused imports such as 'java.nio.file.OpenOption'</t>
-  </si>
-  <si>
     <t>593aff2d2ea52a025cfe7da32155216719029a7d</t>
   </si>
   <si>
@@ -1214,11 +1184,6 @@
     <t>Make DataType and Reference generic</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/types/selectors/AbstractSelectorContainer.java:371:	The method 'clone()' is missing an @Override annotation.
-/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/types/selectors/AbstractSelectorContainer.java:371:	The return type of the clone() method must be the class name when implements Cloneable
-/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/types/selectors/AbstractSelectorContainer.java:371:	clone() method should throw CloneNotSupportedException</t>
-  </si>
-  <si>
     <t>bd82d189ad5bb32cb5b0a537113eae14dac32f1f</t>
   </si>
   <si>
@@ -1226,16 +1191,6 @@
   </si>
   <si>
     <t>Remove unused imports</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/types/FileList.java:136:	This call to Collection.toArray() may be optimizable
-/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/types/FilterChain.java:69:	Avoid using implementation types like 'Vector'; use the interface instead
-/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/types/optional/depend/ClassfileSet.java:164:	Object clone() should be implemented with super.clone()
-/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/types/optional/depend/ClassfileSet.java:164:	The return type of the clone() method must be the class name when implements Cloneable
-/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/types/optional/depend/ClassfileSet.java:164:	clone() method should throw CloneNotSupportedException
-/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/types/resources/MultiRootFileSet.java:114:	The return type of the clone() method must be the class name when implements Cloneable
-/Users/dan
-...{continued}...</t>
   </si>
   <si>
     <t>2c2cdb090ebdecbed8f737af3045f1edfbe3ad2a</t>
@@ -1302,10 +1257,6 @@
     <t>Update javadoc</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/taskdefs/optional/junit/JUnitTestRunner.java:1218:	Avoid empty catch blocks
-/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/types/selectors/modifiedselector/HashvalueAlgorithm.java:55:	The method 'getValue(File)' is missing an @Override annotation.</t>
-  </si>
-  <si>
     <t>ab13b876c6cca733449a5b2a4bf3386f3013ddd2</t>
   </si>
   <si>
@@ -1324,9 +1275,6 @@
     <t>A new CharSet type to hold available Charset names</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/types/CharSetTest.java:29:	Avoid unused imports such as 'org.hamcrest.Matchers.equalTo'</t>
-  </si>
-  <si>
     <t>e208ad936016e871412d19848ea15db54f8e8b52</t>
   </si>
   <si>
@@ -1376,12 +1324,6 @@
   </si>
   <si>
     <t>Add “since” tag to documentation</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/ant/src/tests/antunit/core/uuencode/src/task/BaseTask.java:26:	Avoid unused imports such as 'java.io.FileOutputStream'
-/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/taskdefs/BZip2Test.java:29:	Avoid unused imports such as 'java.io.FileInputStream'
-/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/taskdefs/FixCrLfTest.java:23:	Avoid unused imports such as 'java.io.FileInputStream'
-/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/taskdefs/ReplaceTest.java:23:	Avoid unused imports such as 'java.io.FileInputStream'</t>
   </si>
   <si>
     <t>454c252fe42625200bd91d6555e241b9932853fd</t>
@@ -1475,10 +1417,6 @@
     <t>bz-62890 Make sure the sync task considers the case sensitivity of the destination directory's filesystem while looking for orphan files to delete</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/taskdefs/SyncTest.java:23:	Avoid unused imports such as 'org.junit.Assume'
-/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/taskdefs/SyncTest.java:28:	Avoid unused imports such as 'java.util.Optional'</t>
-  </si>
-  <si>
     <t>abce9225f5f8d7091bbe0e50c8217eac65ad3424</t>
   </si>
   <si>
@@ -1488,9 +1426,6 @@
     <t>Update the junitlauncher task to explain the ability to include JUnit libraries as part of the task's classpath</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/util/FileUtilsTest.java:24:	Avoid unused imports such as 'java.nio.file.FileSystem'</t>
-  </si>
-  <si>
     <t>59c79222772275522f3d971ae4f0c6417a8d7de8</t>
   </si>
   <si>
@@ -1515,9 +1450,6 @@
     <t>Revert last 5 commits</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/DirectoryScanner.java:1241:	Useless parentheses.</t>
-  </si>
-  <si>
     <t>2b699eb695dd42f5343f8f007a87b01e499b146b</t>
   </si>
   <si>
@@ -1527,15 +1459,15 @@
     <t>SonarQube: nested if’s is a major code smell</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/AntClassLoader.java:129:	The method 'hasMoreElements()' is missing an @Override annotation.
-/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/AntClassLoader.java:130:	Useless parentheses.
+    <t>/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/AntClassLoader.java:130:	Useless parentheses.
 /Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/AntTypeDefinition.java:319:	Useless parentheses.
 /Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/AntTypeDefinition.java:319:	Useless parentheses.
-/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/BuildException.java:144:	The method 'toString()' is missing an @Override annotation.
 /Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/ComponentHelper.java:714:	Useless parentheses.
 /Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/Project.java:271:	Useless parentheses.
-/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/ProjectHelper.java:131:	The method 'toString()' is missing an @Override annotation.
-/Users/danikgan/Desktop/ant/src/main/org/apac
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/dispatch/DispatchUtils.java:107:	New exception is thrown in catch block, original stack trace may be lost
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/dispatch/DispatchUtils.java:107:	Useless parentheses.
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/taskdefs/AbstractCvsTask.java:367:	Useless parentheses.
+/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/taskdefs/Exit.java:137:	Useless 
 ...{continued}...</t>
   </si>
   <si>
@@ -1549,9 +1481,6 @@
 (major code smell)</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/util/GlobPatternMapper.java:199:	When doing a String.toLowerCase()/toUpperCase() call, use a Locale</t>
-  </si>
-  <si>
     <t>ec70921a964be0c38fbceff8a01c16bcad9ebd40</t>
   </si>
   <si>
@@ -1579,12 +1508,7 @@
     <t>Checkstyle: dangling operators</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/dispatch/DispatchUtils.java:109:	New exception is thrown in catch block, original stack trace may be lost
-/Users/danikgan/Desktop/ant/src/main/org/apache/tools/bzip2/BZip2Constants.java:42:	Avoid constants in interfaces. Interfaces define types, constants are implementation details better placed in classes or enums. See Effective Java, item 19.
-/Users/danikgan/Desktop/ant/src/main/org/apache/tools/bzip2/BZip2Constants.java:43:	Avoid constants in interfaces. Interfaces define types, constants are implementation details better placed in classes or enums. See Effective Java, item 19.
-/Users/danikgan/Desktop/ant/src/main/org/apache/tools/bzip2/BZip2Constants.java:44:	Avoid constants in interfaces. Interfaces define types, constants are implementation details better placed in classes or enums. See Effective Java, item 19.
-/Users/danikgan/Desktop/ant/src/main/org/apache/tools/bzip2/BZip2Constants.java:45:	Avoid constants in interfaces
-...{continued}...</t>
+    <t>/Users/danikgan/Desktop/ant/src/main/org/apache/tools/bzip2/BZip2Constants.java:45:	Avoid constants in interfaces. Interfaces define types, constants are implementation details better placed in classes or enums. See Effective Java, item 19.</t>
   </si>
   <si>
     <t>8cc8feebb0581bbcce5d745c8283c231db715d5a</t>
@@ -1678,10 +1602,6 @@
     <t>there are no tests in MagicTestNames, thanks Gintas</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/taskdefs/optional/junitlauncher/confined/Constants.java:24:	The utility class name 'Constants' doesn't match '[A-Z][a-zA-Z0-9]+(Utils?|Helper)'
-/Users/danikgan/Desktop/ant/src/main/org/apache/tools/ant/taskdefs/optional/junitlauncher/confined/JUnitLauncherClassPathUtil.java:31:	All methods are static.  Consider using a utility class instead. Alternatively, you could add a private constructor or make the class abstract to silence this warning.</t>
-  </si>
-  <si>
     <t>3b0fb1ebaa5ac11b503f9aa6fee999d701be59f9</t>
   </si>
   <si>
@@ -1710,9 +1630,6 @@
 (please note different exclude rules than for compiler…)</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/MagicTestNames.java:25:	The utility class name 'MagicTestNames' doesn't match '[A-Z][a-zA-Z0-9]+(Utils?|Helper)'</t>
-  </si>
-  <si>
     <t>432cc329eee0764d235ada5891e5462440914945</t>
   </si>
   <si>
@@ -1732,11 +1649,7 @@
     <t>Fixed a broken test</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/UnknownElementTest.java:59:	Document empty method body
-/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/UnknownElementTest.java:62:	Document empty method body
-/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/UnknownElementTest.java:65:	Document empty method body
-/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/UnknownElementTest.java:68:	Document empty method body
-/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/UnknownElementTest.java:79:	Document empty method body</t>
+    <t>/Users/danikgan/Desktop/ant/src/tests/junit/org/apache/tools/ant/UnknownElementTest.java:79:	Document empty method body</t>
   </si>
   <si>
     <t>99b2c646d30b3c30a39007e0add2f45a65cc1a74</t>
@@ -1968,6 +1881,211 @@
   </si>
   <si>
     <t>Mike Walch &lt;mwalch@apache.org&gt;</t>
+  </si>
+  <si>
+    <t>e26532a022574551f8c76869e8eb9f878b524a5a</t>
+  </si>
+  <si>
+    <t>Sun Jan 27 09:08:51 2019 -0500</t>
+  </si>
+  <si>
+    <t>Fixes several ITs that are broken (#921)
+* Hadoop config cannot be pulled from ServerContext if it has it has been
+constructed yet
+* Remove usages of scanner after it has been closed</t>
+  </si>
+  <si>
+    <t>Keith Turner &lt;kturner@apache.org&gt;</t>
+  </si>
+  <si>
+    <t>43626decef4577e1f38d281a94aa91eab4848852</t>
+  </si>
+  <si>
+    <t>Sat Jan 26 17:33:43 2019 -0500</t>
+  </si>
+  <si>
+    <t>fix IT and suppress spurious errors on close (#905 follow up)</t>
+  </si>
+  <si>
+    <t>Mike Miller &lt;mmiller@apache.org&gt;</t>
+  </si>
+  <si>
+    <t>a423f954cbeca9ac0873e147f7e00124b2d116a7</t>
+  </si>
+  <si>
+    <t>Fri Jan 25 18:39:10 2019 -0500</t>
+  </si>
+  <si>
+    <t>Remove CachedConfiguration (#916)
+* Replace static class with non static instances</t>
+  </si>
+  <si>
+    <t>7e2e6bd2d1afff7fde0223463f84b0c70f9cab7f</t>
+  </si>
+  <si>
+    <t>Fri Jan 25 11:13:14 2019 -0500</t>
+  </si>
+  <si>
+    <t>Center logo in Monitor about modal</t>
+  </si>
+  <si>
+    <t>781ff87ac7a7dd0e4a611bc9b9884e6a083406dd</t>
+  </si>
+  <si>
+    <t>Wed Jan 23 16:24:51 2019 -0500</t>
+  </si>
+  <si>
+    <t>Improved some 2.0 javadocs (#913)</t>
+  </si>
+  <si>
+    <t>b161b6600a89bca090dd2ce4138c132dfa35d672</t>
+  </si>
+  <si>
+    <t>Wed Jan 23 13:42:18 2019 -0500</t>
+  </si>
+  <si>
+    <t>Replace use of CachedConfiguration (#912)
+* Make some ServerConstants methods take ServerContext
+* Removed method that uses CachedConfigruation from VolumeConfiguraiton
+* Removed CachedConfigruation from util classes and Initialize
+* Add hadoop conf to LogCloser
+* Pull hadoop conf from server context in ITs</t>
+  </si>
+  <si>
+    <t>1bb6226aa9c10060d7e01c66dbc5145c269aaecf</t>
+  </si>
+  <si>
+    <t>Wed Jan 23 10:09:17 2019 -0500</t>
+  </si>
+  <si>
+    <t>fixes #908 improve and fix reading stdout from test (#911)</t>
+  </si>
+  <si>
+    <t>7db5a0d8b4ca9fb3abde81c4f1caa6ff24af5685</t>
+  </si>
+  <si>
+    <t>Tue Jan 22 18:14:06 2019 -0500</t>
+  </si>
+  <si>
+    <t>Clean up Volume chooser ITs</t>
+  </si>
+  <si>
+    <t>c7a54c80b937fd606ebdd6b3672f837f65b6258f</t>
+  </si>
+  <si>
+    <t>Fri Jan 18 17:15:27 2019 -0500</t>
+  </si>
+  <si>
+    <t>Reduce use of CachedConfiguration for #735 (#909)
+* Add hadoop conf to ClientContext and utilize where available
+* Drop use of CachedConfiguration in Volume Manager
+* Remove unused instances of CachedConfiguration from Tests
+* Replace with new object in unit tests where reuse doesn't matter</t>
+  </si>
+  <si>
+    <t>7496fc62f8aaeb6a92bfd830c2b76214adc05d3e</t>
+  </si>
+  <si>
+    <t>Thu Jan 17 18:20:27 2019 -0500</t>
+  </si>
+  <si>
+    <t>Exclude vuln thrift dep from build (#904)</t>
+  </si>
+  <si>
+    <t>7bc5d326342ad5673e330e66f513b8cf3b5531e0</t>
+  </si>
+  <si>
+    <t>Thu Jan 17 18:11:10 2019 -0500</t>
+  </si>
+  <si>
+    <t>fixes #813 close server side session when scanner closed (#905)</t>
+  </si>
+  <si>
+    <t>6481ccca5486f5aa8c475fb2a9479bea96034368</t>
+  </si>
+  <si>
+    <t>Wed Jan 16 12:49:21 2019 -0500</t>
+  </si>
+  <si>
+    <t>Organize new Bulk Import code (#890)
+* Move bulk import clientImpl code to its own bulk package
+* Pull some FaTE logic out of BulkImport
+* Made the LoadMappingIterator its own class and push some of the reader logic into it
+* Added comments to BulkSerialize
+* Removed some VisibileForTesting annotations from ConcurrentKeyExtentCache where its used in BulkImport
+* Pulled some logic out of LoadFiles.loadFiles and created a new method for readability
+* Use PeekingIterator in LoadFiles
+* Inlined second time measurement in LoadFiles</t>
+  </si>
+  <si>
+    <t>/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/ThriftScanner.java:573:	Logger calls should be surrounded by log level guards.
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/ThriftScanner.java:576:	This statement should have braces
+/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/CloseScannerIT.java:78:	This statement should have braces</t>
+  </si>
+  <si>
+    <t>e66d1031ba4b32e270d3230fe49fa9e839663c50</t>
+  </si>
+  <si>
+    <t>Wed Jan 16 12:48:50 2019 -0500</t>
+  </si>
+  <si>
+    <t>fixes #736 avoid dropping exceptions in scanner (#889)</t>
+  </si>
+  <si>
+    <t>Jeffrey L. Zeiberg &lt;Jeffrey.Zeiberg@asrcfederal.com&gt;</t>
+  </si>
+  <si>
+    <t>2d634f2a330e8f1b7f925b744770f65da0eab037</t>
+  </si>
+  <si>
+    <t>Tue Jan 15 12:28:53 2019 -0500</t>
+  </si>
+  <si>
+    <t>Fixes #810 - Removed MiniAccumulo's custom redirection code (#897)</t>
+  </si>
+  <si>
+    <t>f47840dca6b6fa162af2b4e9bd103dd72e8d2267</t>
+  </si>
+  <si>
+    <t>Wed Jan 16 10:43:56 2019 -0500</t>
+  </si>
+  <si>
+    <t>Upgrade jackson to 2.9.8 (#903)</t>
+  </si>
+  <si>
+    <t>19e43058b36e6d540da95eaee7a2b0da6277e282</t>
+  </si>
+  <si>
+    <t>Tue Jan 15 19:30:13 2019 -0500</t>
+  </si>
+  <si>
+    <t>Add exclusion to test for mini-kdc lib (#902)</t>
+  </si>
+  <si>
+    <t>c24c611b6e1d3bb2b2d27e86f0396aaeddaac294</t>
+  </si>
+  <si>
+    <t>Tue Jan 15 14:54:33 2019 -0500</t>
+  </si>
+  <si>
+    <t>Fix MultiInstanceReplicationIT &amp; KerberosReplicationIT (#898)
+* Added back no-args constructor to SequentialWorkAssigner
+to fix ITs</t>
+  </si>
+  <si>
+    <t>Jeffrey Zeiberg &lt;jzeiberg@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>1687f33eadc737efe3359cc93934a20aedc92b2a</t>
+  </si>
+  <si>
+    <t>Tue Jan 15 12:29:38 2019 -0500</t>
+  </si>
+  <si>
+    <t>Fixes #849 Test Value in CountingSummarizer Converter (#893)</t>
+  </si>
+  <si>
+    <t>/Users/danikgan/Desktop/accumulo/server/master/src/main/java/org/apache/accumulo/master/replication/SequentialWorkAssigner.java:61:	Document empty constructor</t>
   </si>
   <si>
     <t>44b4af2c5243f7c123ea22e364b70158512a0643</t>
@@ -1993,9 +2111,6 @@
     <t>Fix SslIT integration tests (#895)
 Ensure ssl parameters are properly passed from the Ssl IT to the
 mapreduce client process running with ssl.</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapreduce/lib/ConfiguratorBase.java:17:	Package name contains upper case characters</t>
   </si>
   <si>
     <t>b78f8e90789c824fa1802fcfee9c4193dc572606</t>
@@ -2018,9 +2133,6 @@
 * Check failure state when core/mapred ITs fail</t>
   </si>
   <si>
-    <t>Mike Miller &lt;mmiller@apache.org&gt;</t>
-  </si>
-  <si>
     <t>2e405b51eb6c2bd93b8557ed43e38580af3d92cd</t>
   </si>
   <si>
@@ -2055,18 +2167,15 @@
 * Remove Java implementation and echo CLASSPATH variable</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapred/AccumuloRecordReader.java:17:	Package name contains upper case characters
-/Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapred/AccumuloRecordReader.java:122:	This statement should have braces
+    <t>/Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapred/AccumuloRecordReader.java:122:	This statement should have braces
 /Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapred/AccumuloRecordReader.java:131:	Logger calls should be surrounded by log level guards.
 /Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapred/AccumuloRecordReader.java:144:	Logger calls should be surrounded by log level guards.
 /Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapred/AccumuloRecordReader.java:145:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImp
+/Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapred/AccumuloRecordReader.java:146:	Logger calls should be surrounded by log level guards.
+/Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumu
 ...{continued}...</t>
   </si>
   <si>
-    <t>Keith Turner &lt;kturner@apache.org&gt;</t>
-  </si>
-  <si>
     <t>0930e896e222193d6edd50d0c40d14a4078fdf6c</t>
   </si>
   <si>
@@ -2085,11 +2194,11 @@
     <t>Merge branch '1.9'</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/tabletserver/thrift/TabletClientService.java:59:	Unnecessary modifier 'public' on method 'bulkImport': the method is declared in an interface type
-/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/tabletserver/thrift/TabletClientService.java:59:	Unnecessary use of fully qualified name 'java.lang.String' due to existing implicit import 'java.lang.*'
-/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/tabletserver/thrift/TabletClientService.java:61:	Unnecessary modifier 'public' on method 'loadFiles': the method is declared in an interface type
+    <t>/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/tabletserver/thrift/TabletClientService.java:61:	Unnecessary modifier 'public' on method 'loadFiles': the method is declared in an interface type
 /Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/tabletserver/thrift/TabletClientService.java:61:	Unnecessary use of fully qualified name 'java.lang.String' due to existing implicit import 'java.lang.*'
-/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/tabletserver/t
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/tabletserver/thrift/TabletClientService.java:61:	Unnecessary use of fully qualified name 'java.lang.String' due to existing implicit import 'java.lang.*'
+/Users/danikgan/Desktop/accumulo/server/base/src/main/java/org/apache/accumulo/server/zookeeper/TransactionWatcher.java:133:	Logger calls should be surrounded by log level guards.
+/Users/danikgan/Desktop/accumulo/server/base/src/main/java/org/apache/accumulo/server/zookeeper/TransactionWatcher.java:137:	Logger cal
 ...{continued}...</t>
   </si>
   <si>
@@ -2111,12 +2220,12 @@
 when a subset of the logs define a tablet.</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/Constants.java:25:	The utility class name 'Constants' doesn't match '[A-Z][a-zA-Z0-9]+(Utils?|Helper)'
-/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/cli/ConfigOpts.java:96:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()
+    <t>/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/cli/ConfigOpts.java:96:	Substitute calls to size() == 0 (or size() != 0, size() &gt; 0, size() &lt; 1) with calls to isEmpty()
 /Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/cli/ConfigOpts.java:100:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/client/Accumulo.java:47:	The utility class name 'Accumulo' doesn't match '[A-Z][a-zA-Z0-9]+(Utils?|Helper)'
-/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/client/ClientConfiguration.java:53:	A class which only has private constructors should be final
-/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/client/TableOfflineException.j
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/client/TableOfflineException.java:27:	Avoid unused constructor parameters such as 'instance'.
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/client/summary/summarizers/AuthorizationSummarizer.java:65:	This final field could be made static
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/client/summary/summarizers/AuthorizationSummarizer.java:104:	Avoid using implementation types like 'HashSet'; use the interface instead
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/client/su
 ...{continued}...</t>
   </si>
   <si>
@@ -2130,12 +2239,12 @@
 * Also add new test to BulkLoadIT for tableTime</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/Constants.java:27:	The utility class name 'Constants' doesn't match '[A-Z][a-zA-Z0-9]+(Utils?|Helper)'
-/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/cli/MapReduceClientOnRequiredTable.java:40:	Use one line for each declaration, it enhances code readability.
+    <t>/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/cli/MapReduceClientOnRequiredTable.java:40:	Use one line for each declaration, it enhances code readability.
 /Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/cli/MapReduceClientOpts.java:67:	Logger calls should be surrounded by log level guards.
 /Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/client/TableOfflineException.java:27:	This statement should have braces
-/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/client/admin/DiskUsage.java:49:	This statement should have braces
 /Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/client/admin/DiskUsage.java:50:	Avoid unnecessary if..then..else statements when returning booleans
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/client/admin/DiskUsage.java:51:	This statement should have braces
+/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/client/admin/Locations.java:38:	Unnecessary modifier 'public' on method 'groupByRange': the method is d
 ...{continued}...</t>
   </si>
   <si>
@@ -2162,9 +2271,6 @@
 * Also remove unused initTable method</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/accumulo/server/base/src/main/java/org/apache/accumulo/server/util/MasterMetadataUtil.java:130:	Useless parentheses.</t>
-  </si>
-  <si>
     <t>d351abff8198ea12fd9a9bb055fe003bf6cdf8ca</t>
   </si>
   <si>
@@ -2174,8 +2280,7 @@
     <t>Regenerate thrift after #846</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/accumulo/server/base/src/main/java/org/apache/accumulo/server/security/SecurityOperation.java:401:	This statement should have braces
-/Users/danikgan/Desktop/accumulo/server/base/src/main/java/org/apache/accumulo/server/security/SecurityOperation.java:404:	New exception is thrown in catch block, original stack trace may be lost</t>
+    <t>/Users/danikgan/Desktop/accumulo/server/base/src/main/java/org/apache/accumulo/server/security/SecurityOperation.java:401:	This statement should have braces</t>
   </si>
   <si>
     <t>2c06451b858a29fb312b6d4717a1b92747560522</t>
@@ -2184,12 +2289,8 @@
     <t>Mon Jan 7 18:10:44 2019 -0500</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/rpc/thrift/SimpleThriftService.java:211:	The class name 'echoPass_call' doesn't match '[A-Z][a-zA-Z0-9]*'
-/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/rpc/thrift/SimpleThriftService.java:211:	Unnecessary use of fully qualified name 'java.lang.String' due to existing implicit import 'java.lang.*'
-/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/rpc/thrift/SimpleThriftService.java:212:	Unnecessary use of fully qualified name 'java.lang.String' due to existing implicit import 'java.lang.*'
-/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/rpc/thrift/SimpleThriftService.java:213:	Unnecessary use of fully qualified name 'java.lang.String' due to existing implicit import 'java.lang.*'
-/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/rpc/thrift/SimpleThriftService.java:213:	Unnecessary use of fully quali
-...{continued}...</t>
+    <t>/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/rpc/thrift/SimpleThriftService.java:213:	Unnecessary use of fully qualified name 'java.lang.String' due to existing implicit import 'java.lang.*'
+/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/rpc/thrift/SimpleThriftService.java:213:	Unnecessary use of fully qualified name 'java.lang.String' due to existing implicit import 'java.lang.*'</t>
   </si>
   <si>
     <t>91988183d0649e9fd09901e2c5905e9f7a678368</t>
@@ -2212,8 +2313,7 @@
 * Also deprecated PermissionHander.initTable() since it has never been used</t>
   </si>
   <si>
-    <t>/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/TabletServer.java:344:	Use of modifier volatile is not recommended.
-/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/TabletServer.java:346:	Perhaps 'bulkFailedCopyQ' could be replaced by a local variable.</t>
+    <t>/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/TabletServer.java:344:	Use of modifier volatile is not recommended.</t>
   </si>
   <si>
     <t>0adec43da0d3652f4642c5fbcd16537fccf4a0aa</t>
@@ -2224,9 +2324,6 @@
   <si>
     <t>Fix MapReduce bug (#874)
 * AccumuloOutputFormat is using wrong getClientInfo method</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/accumulo/server/base/src/main/java/org/apache/accumulo/server/security/SecurityUtil.java:30:	All methods are static.  Consider using a utility class instead. Alternatively, you could add a private constructor or make the class abstract to silence this warning.</t>
   </si>
   <si>
     <t>c265ea5b16171032419b164e809f5478f70bbba8</t>
@@ -2253,9 +2350,6 @@
     <t>#859 - Fix CLASSPATH bug causing cur dir to be added (#864)</t>
   </si>
   <si>
-    <t>Jeffrey L. Zeiberg &lt;Jeffrey.Zeiberg@asrcfederal.com&gt;</t>
-  </si>
-  <si>
     <t>42c50298383512a7794e85613d7e0b50cfbdfa8b</t>
   </si>
   <si>
@@ -2287,11 +2381,6 @@
   </si>
   <si>
     <t>Wed Jan 2 16:53:01 2019 -0500</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/TabletServer.java:334:	Perhaps 'majorCompactorThread' could be replaced by a local variable.
-/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/TabletServer.java:338:	Use of modifier volatile is not recommended.
-/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/tablet/ScanOptions.java:95:	This statement should have braces</t>
   </si>
   <si>
     <t>6539df69aa741a280e9297e8f398929e37823953</t>
@@ -2305,7 +2394,6 @@
   <si>
     <t>/Users/danikgan/Desktop/accumulo/server/base/src/main/java/org/apache/accumulo/server/log/WalStateManager.java:172:	Logger calls should be surrounded by log level guards.
 /Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/TabletServerResourceManager.java:744:	This statement should have braces
-/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/tablet/ScanOptions.java:99:	This statement should have braces
 /Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/functional/BulkFailureIT.java:155:	Avoid empty catch blocks
 /Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/functional/BulkFailureIT.java:187:	Consider simply returning the value vs storing it in local variable 'filesStr'
 /Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/functional/ManyWriteAheadLogsIT.java:154:	Logger calls should be surrounded by log level guards.</t>
@@ -2408,268 +2496,6 @@
   </si>
   <si>
     <t>Use double brackets for bash conditionals (#865)</t>
-  </si>
-  <si>
-    <t>825c9b66de5694df5031a1eed3348503e667a4a2</t>
-  </si>
-  <si>
-    <t>Mon Dec 31 11:06:00 2018 -0500</t>
-  </si>
-  <si>
-    <t>Fix CLASSPATH bug causing current dir to be added (#859)
-* If CLASSPATH variable was empty, a colon was added
-to front of CLASSPATH causing user's current directory
-to be added to directory.
-* This could cause unexpected files like accumulo.properties to be
-added to the classpath</t>
-  </si>
-  <si>
-    <t>56b21ca4395b54e525850437d70e7ec28568d2b3</t>
-  </si>
-  <si>
-    <t>Fri Dec 28 12:31:16 2018 -0500</t>
-  </si>
-  <si>
-    <t>More cleanup for WAL (#842)
-* Only synchronize on write method
-* Actually log MUTATION for single mutation
-* Make TabletMutations constructor take CommitSession
-* Simplify calls to defineTablet and logFileData
-* Remove unused datafile path param
-* Fix slf4j debug statement</t>
-  </si>
-  <si>
-    <t>9e66ba53cdc916a72d7bfd10dd5889913a517f0e</t>
-  </si>
-  <si>
-    <t>Fri Dec 28 11:19:28 2018 -0500</t>
-  </si>
-  <si>
-    <t>Remove unused param from Summaries (#861)
-* Also replace duplicate code in SummaryReader with method
-* Also inline print method only called by other print method</t>
-  </si>
-  <si>
-    <t>a6fa30fa8716c5a0f9010948616d40015e1a1860</t>
-  </si>
-  <si>
-    <t>Thu Dec 27 14:22:53 2018 -0500</t>
-  </si>
-  <si>
-    <t>Create builder to clean up CachableBlockFile (#858)</t>
-  </si>
-  <si>
-    <t>22b0bf59bc8186f7ca29f769f459c3ecd8c46d78</t>
-  </si>
-  <si>
-    <t>Thu Dec 27 13:40:44 2018 -0500</t>
-  </si>
-  <si>
-    <t>Updates to DumpZookeeper utility (#857)
-* Created human readable option which is now default
-* Xml can still be output by passing --xml argument
-* Utility can now be called using 'accumulo-util dump-zoo'</t>
-  </si>
-  <si>
-    <t>b66ba5c3f9843f813dfde97664e4ed24445b279e</t>
-  </si>
-  <si>
-    <t>Fri Dec 21 18:44:29 2018 -0500</t>
-  </si>
-  <si>
-    <t>Remove unused code (#856)
-* Remove many unused methods
-* Remove unused config from CachableBlockFile
-* Remove unused blockfile constants
-* Deleted unused TableParentConfiguration and MapRLogCloser
-* Remove unused replication code
-* Remove gc dependency no longer used</t>
-  </si>
-  <si>
-    <t>fdd885c0ee92495d2427f64c3e38466d3d6adc9a</t>
-  </si>
-  <si>
-    <t>Fri Dec 21 17:35:51 2018 -0500</t>
-  </si>
-  <si>
-    <t>fixes #815 test converting key values to TabletMetadata object (#851)</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/file/rfile/PrintInfo.java:181:	The local variable name '_rdr' doesn't match '[a-z][a-zA-Z0-9]*'
-/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/file/rfile/RFileOperations.java:48:	The local variable name '_cbr' doesn't match '[a-z][a-zA-Z0-9]*'
-/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/summary/SummaryReader.java:181:	Unnecessary use of fully qualified name 'org.apache.accumulo.core.file.blockfile.impl.CachableBlockFile.Reader' due to existing import 'org.apache.accumulo.core.file.blockfile.impl.CachableBlockFile'
-/Users/danikgan/Desktop/accumulo/core/src/test/java/org/apache/accumulo/core/file/rfile/MultiLevelIndexTest.java:85:	The local variable name '_cbr' doesn't match '[a-z][a-zA-Z0-9]*'
-/Users/danikgan/Desktop/accumulo/core/src/test/java/org/apache/accumulo/core/file/rfile/MultiThreadedRFileTest.java:189:	The local variable name '_cbr' doesn'
-...{continued}...</t>
-  </si>
-  <si>
-    <t>6f47590896755a454e8b48b465923724e396f81b</t>
-  </si>
-  <si>
-    <t>Fri Dec 21 13:00:24 2018 -0500</t>
-  </si>
-  <si>
-    <t>Remove unnecessary exceptions in core module (#853)</t>
-  </si>
-  <si>
-    <t>dbfbfe88f4e1e5d2c1ccd96bbde988d4c16b34b6</t>
-  </si>
-  <si>
-    <t>Fri Dec 21 11:29:23 2018 -0500</t>
-  </si>
-  <si>
-    <t>Add validation to SiteConfiguration (#852)</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/ClientConfConverter.java:17:	Package name contains upper case characters
-/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/ConcurrentKeyExtentCache.java:17:	Package name contains upper case characters
-/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/TabletServerBatchWriter.java:227:	This statement should have braces
-/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/ThriftScanner.java:96:	This statement should have braces
-/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/lexicoder/FixedByteArrayOutputStream.java:17:	Package name contains upper case characters
-/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/mapreduce/BatchInputSplit.java:111:	This statement should have braces
-/Users/danikgan/Desktop/accumulo/cor
-...{continued}...</t>
-  </si>
-  <si>
-    <t>d06c3fac39b162dfff97178ed8034bd0b9a23873</t>
-  </si>
-  <si>
-    <t>Thu Dec 20 18:13:23 2018 -0500</t>
-  </si>
-  <si>
-    <t>Remove unused declarations (#848)
-* Remove unused declarations across code mainly in server, impl and tests
-* Avoided API and internal pluggable components</t>
-  </si>
-  <si>
-    <t>2b9c9275ea5f992cfa2bd1a7e3f8994a41e69df3</t>
-  </si>
-  <si>
-    <t>Thu Dec 20 10:27:13 2018 -0500</t>
-  </si>
-  <si>
-    <t>Remove empty comments (#847)</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/ConditionalWriterImpl.java:632:	'catch' branch identical to 'TTransportException' branch
-/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/ThriftScanner.java:96:	This statement should have braces
-/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/file/rfile/RFileOperations.java:132:	The local variable name '_cbw' doesn't match '[a-z][a-zA-Z0-9]*'
-/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/iterators/system/MapFileIterator.java:55:	Avoid unused constructor parameters such as 'acuconf'.
-/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/fate/Fate.java:74:	This statement should have braces
-/Users/danikgan/Desktop/accumulo/core/src/test/java/org/apache/accumulo/core/file/rfile/CreateCompatTestFile.java:63:	The local variable name '_cbw' doesn't match '[a-z][a-zA-Z0-9]*'
-/Users/danikgan/D
-...{continued}...</t>
-  </si>
-  <si>
-    <t>c06636e1d701947bc66d0ff6f3652e32ef5dddb6</t>
-  </si>
-  <si>
-    <t>Wed Dec 19 18:39:01 2018 -0500</t>
-  </si>
-  <si>
-    <t>Remove extra loop in InMemoryMap (#843)
-* The number of total keys across mutations was counted twice so just
-pass the count down to the InMemoryMap</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/ConditionalMutationSet.java:30:	All methods are static.  Consider using a utility class instead. Alternatively, you could add a private constructor or make the class abstract to silence this warning.
-/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/ConditionalMutationSet.java:30:	The utility class name 'ConditionalMutationSet' doesn't match '[A-Z][a-zA-Z0-9]+(Utils?|Helper)'
-/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/metrics/Metrics2TabletServerMetrics.java:33:	Use one line for each declaration, it enhances code readability.
-/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserver/metrics/Metrics2TabletServerMinCMetrics.java:32:	Use one line for each declaration, it enhances code readability.
-/Users/danikgan/Desktop/accumulo/server/tserver/src/main/java/org/apache/accumulo/tserv
-...{continued}...</t>
-  </si>
-  <si>
-    <t>ad996b636fbabc710b8f54655056399249968436</t>
-  </si>
-  <si>
-    <t>Wed Dec 19 18:35:07 2018 -0500</t>
-  </si>
-  <si>
-    <t>Remove unnecessary exceptions in test module (#846)</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/InMemoryMapIT.java:270:	This statement should have braces</t>
-  </si>
-  <si>
-    <t>7abe4e8dc73e14bc25524587924781e2f9d322bc</t>
-  </si>
-  <si>
-    <t>Wed Dec 19 17:48:04 2018 -0500</t>
-  </si>
-  <si>
-    <t>Remove unnecessary exceptions (#844)</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/CloneIT.java:228:	Avoid unused method parameters such as 'dir'.
-/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/functional/ConfigurableMacBase.java:68:	Document empty method body
-/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/functional/ConfigurableMacBase.java:70:	Document empty method body
-/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/mapreduce/AccumuloOutputFormatIT.java:64:	This statement should have braces
-/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/mapreduce/TokenFileIT.java:70:	This statement should have braces
-/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/rpc/thrift/SimpleThriftService.java:211:	The class name 'echoPass_call' doesn't match '[A-Z][a-zA-Z0-9]*'
-/Users/danikgan/Desktop/accumulo/test/src/main/java/org/apache/accumulo/test/rpc/thrift/Simpl
-...{continued}...</t>
-  </si>
-  <si>
-    <t>14e0bd6f671ad12eada7a62aaa49243ca7eb000d</t>
-  </si>
-  <si>
-    <t>Wed Dec 19 15:01:13 2018 -0500</t>
-  </si>
-  <si>
-    <t>Multi table input for new MR. Closes #749 (#821)
-* Modified new MapReduce builder and implementation to allow multiple
-tables through the same fluent API as AccumuloInputFormat
-* Replaced setIterators method with addIterator</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/accumulo/server/base/src/main/java/org/apache/accumulo/server/master/recovery/MapRLogCloser.java:37:	Do not start a literal by 0 unless its an octal value
-/Users/danikgan/Desktop/accumulo/server/base/src/main/java/org/apache/accumulo/server/security/SecurityOperation.java:139:	This statement should have braces
-/Users/danikgan/Desktop/accumulo/server/base/src/test/java/org/apache/accumulo/server/constraints/MetadataConstraintsTest.java:49:	This statement should have braces
-/Users/danikgan/Desktop/accumulo/server/base/src/test/java/org/apache/accumulo/server/iterators/MetadataBulkLoadFilterTest.java:51:	This statement should have braces
-/Users/danikgan/Desktop/accumulo/server/base/src/test/java/org/apache/accumulo/server/security/UserImpersonationTest.java:279:	Use one line for each declaration, it enhances code readability.
-/Users/danikgan/Desktop/accumulo/server/base/src/test/java/org/apache/accumulo/server/zookeeper/TransactionWatcherTest.java:76:	This statemen
-...{continued}...</t>
-  </si>
-  <si>
-    <t>bdb59cdb2c9cac44a7ca19a5848217dfc88d4bbc</t>
-  </si>
-  <si>
-    <t>Wed Dec 19 14:57:34 2018 -0500</t>
-  </si>
-  <si>
-    <t>Formatting</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapreduce/lib/InputConfigurator.java:783:	This statement should have braces
-/Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/main/java/org/apache/accumulo/hadoopImpl/mapreduce/lib/InputConfigurator.java:786:	This statement should have braces
-/Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/test/java/org/apache/accumulo/hadoop/its/mapred/MultiTableInputFormatIT.java:63:	This statement should have braces
-/Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/test/java/org/apache/accumulo/hadoop/its/mapred/MultiTableInputFormatIT.java:74:	Document empty method body
-/Users/danikgan/Desktop/accumulo/hadoop-mapreduce/src/test/java/org/apache/accumulo/hadoop/its/mapreduce/MultiTableInputFormatIT.java:60:	This statement should have braces</t>
-  </si>
-  <si>
-    <t>90dfad3b341a5098113ea8fdce28a0bc4511d067</t>
-  </si>
-  <si>
-    <t>Wed Dec 19 14:51:56 2018 -0500</t>
-  </si>
-  <si>
-    <t>Refactored SiteConfiguration (#841)
-* Constructor now creates ImmutableMap
-* Improved unit test</t>
-  </si>
-  <si>
-    <t>2297c0c3d03c49491dc1c2e82086572c136aa014</t>
-  </si>
-  <si>
-    <t>Wed Dec 19 14:34:16 2018 -0500</t>
-  </si>
-  <si>
-    <t>Stop creating double OuputStreams for WAL (#829)</t>
-  </si>
-  <si>
-    <t>/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/clientImpl/ClientConfConverter.java:175:	Logger calls should be surrounded by log level guards.
-/Users/danikgan/Desktop/accumulo/core/src/main/java/org/apache/accumulo/core/conf/CredentialProviderFactoryShim.java:353:	Return an empty array rather than null.</t>
   </si>
 </sst>
 </file>
@@ -2737,7 +2563,7 @@
     <col min="3" max="3" width="46.7890625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="32.3984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="205.1953125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="219.35546875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="15.203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3241,10 +3067,10 @@
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="G22" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -3255,19 +3081,19 @@
         <v>13</v>
       </c>
       <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
         <v>77</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="E23" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="G23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
@@ -3278,13 +3104,13 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="D24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>17</v>
@@ -3301,19 +3127,19 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="D25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="G25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -3324,13 +3150,13 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>17</v>
@@ -3347,13 +3173,13 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>17</v>
@@ -3370,13 +3196,13 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>17</v>
@@ -3393,13 +3219,13 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>17</v>
@@ -3416,19 +3242,19 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="F30" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="D30" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="G30" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="31">
@@ -3439,13 +3265,13 @@
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>17</v>
@@ -3462,13 +3288,13 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>17</v>
@@ -3485,19 +3311,19 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="G33" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
@@ -3508,13 +3334,13 @@
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>17</v>
@@ -3531,13 +3357,13 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>17</v>
@@ -3554,13 +3380,13 @@
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>17</v>
@@ -3577,19 +3403,19 @@
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="G37" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
@@ -3600,13 +3426,13 @@
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>17</v>
@@ -3623,13 +3449,13 @@
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>17</v>
@@ -3646,13 +3472,13 @@
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>17</v>
@@ -3669,13 +3495,13 @@
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>17</v>
@@ -3692,13 +3518,13 @@
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>17</v>
@@ -3715,13 +3541,13 @@
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D43" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>17</v>
@@ -3738,13 +3564,13 @@
         <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D44" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>17</v>
@@ -3761,13 +3587,13 @@
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D45" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>17</v>
@@ -3784,13 +3610,13 @@
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D46" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>17</v>
@@ -3807,13 +3633,13 @@
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D47" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>17</v>
@@ -3830,13 +3656,13 @@
         <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D48" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>17</v>
@@ -3853,13 +3679,13 @@
         <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D49" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>17</v>
@@ -3876,13 +3702,13 @@
         <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D50" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>17</v>
@@ -3899,13 +3725,13 @@
         <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D51" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>17</v>
@@ -3922,13 +3748,13 @@
         <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D52" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>17</v>
@@ -3945,13 +3771,13 @@
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D53" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>17</v>
@@ -3968,13 +3794,13 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D54" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>17</v>
@@ -3991,13 +3817,13 @@
         <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D55" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>17</v>
@@ -4014,13 +3840,13 @@
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D56" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>17</v>
@@ -4037,13 +3863,13 @@
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D57" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>17</v>
@@ -4060,13 +3886,13 @@
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D58" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>17</v>
@@ -4083,13 +3909,13 @@
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D59" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>17</v>
@@ -4106,13 +3932,13 @@
         <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D60" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>17</v>
@@ -4129,13 +3955,13 @@
         <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D61" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>17</v>
@@ -4152,13 +3978,13 @@
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D62" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>17</v>
@@ -4175,13 +4001,13 @@
         <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D63" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>17</v>
@@ -4198,13 +4024,13 @@
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D64" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>17</v>
@@ -4221,13 +4047,13 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D65" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>17</v>
@@ -4244,13 +4070,13 @@
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D66" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>17</v>
@@ -4267,13 +4093,13 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D67" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E67" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>17</v>
@@ -4290,13 +4116,13 @@
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D68" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>17</v>
@@ -4313,13 +4139,13 @@
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D69" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>17</v>
@@ -4336,19 +4162,19 @@
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D70" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G70" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="71">
@@ -4359,13 +4185,13 @@
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D71" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E71" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>17</v>
@@ -4382,19 +4208,19 @@
         <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D72" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E72" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G72" t="n">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="73">
@@ -4405,13 +4231,13 @@
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D73" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E73" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>17</v>
@@ -4428,13 +4254,13 @@
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D74" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E74" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>17</v>
@@ -4451,13 +4277,13 @@
         <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D75" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E75" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>17</v>
@@ -4474,13 +4300,13 @@
         <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D76" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>17</v>
@@ -4497,13 +4323,13 @@
         <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D77" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E77" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>17</v>
@@ -4520,19 +4346,19 @@
         <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D78" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E78" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="G78" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
@@ -4543,13 +4369,13 @@
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D79" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E79" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>17</v>
@@ -4566,13 +4392,13 @@
         <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D80" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E80" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>17</v>
@@ -4589,13 +4415,13 @@
         <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D81" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E81" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>17</v>
@@ -4612,13 +4438,13 @@
         <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D82" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E82" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>17</v>
@@ -4635,13 +4461,13 @@
         <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D83" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E83" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>17</v>
@@ -4652,19 +4478,19 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B84" t="s">
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D84" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E84" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>12</v>
@@ -4675,42 +4501,42 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>262</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" t="s">
+        <v>266</v>
+      </c>
+      <c r="D85" t="s">
+        <v>267</v>
+      </c>
+      <c r="E85" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="B85" t="s">
-        <v>13</v>
-      </c>
-      <c r="C85" t="s">
-        <v>272</v>
-      </c>
-      <c r="D85" t="s">
-        <v>273</v>
-      </c>
-      <c r="E85" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="F85" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G85" t="n">
-        <v>222.0</v>
+        <v>152.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B86" t="s">
         <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D86" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E86" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>17</v>
@@ -4721,134 +4547,134 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B87" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C87" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D87" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E87" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G87" t="n">
-        <v>319.0</v>
+        <v>147.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B88" t="s">
+        <v>273</v>
+      </c>
+      <c r="C88" t="s">
+        <v>278</v>
+      </c>
+      <c r="D88" t="s">
         <v>279</v>
       </c>
-      <c r="C88" t="s">
-        <v>284</v>
-      </c>
-      <c r="D88" t="s">
-        <v>285</v>
-      </c>
       <c r="E88" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G88" t="n">
-        <v>222.0</v>
+        <v>152.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B89" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C89" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D89" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E89" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G89" t="n">
-        <v>319.0</v>
+        <v>147.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B90" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C90" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D90" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E90" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G90" t="n">
-        <v>222.0</v>
+        <v>152.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B91" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C91" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D91" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E91" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G91" t="n">
-        <v>319.0</v>
+        <v>147.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B92" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C92" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D92" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E92" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>17</v>
@@ -4859,19 +4685,19 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B93" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C93" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D93" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>17</v>
@@ -4882,16 +4708,16 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B94" t="s">
         <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D94" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E94" t="s" s="2">
         <v>11</v>
@@ -4905,19 +4731,19 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B95" t="s">
         <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D95" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E95" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>17</v>
@@ -4928,19 +4754,19 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B96" t="s">
         <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D96" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E96" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>17</v>
@@ -4951,19 +4777,19 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B97" t="s">
         <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D97" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E97" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>17</v>
@@ -4974,19 +4800,19 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B98" t="s">
         <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D98" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E98" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>17</v>
@@ -4997,19 +4823,19 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B99" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C99" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D99" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E99" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>17</v>
@@ -5020,19 +4846,19 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B100" t="s">
+        <v>311</v>
+      </c>
+      <c r="C100" t="s">
+        <v>315</v>
+      </c>
+      <c r="D100" t="s">
+        <v>316</v>
+      </c>
+      <c r="E100" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="C100" t="s">
-        <v>321</v>
-      </c>
-      <c r="D100" t="s">
-        <v>322</v>
-      </c>
-      <c r="E100" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="F100" t="s" s="2">
         <v>17</v>
@@ -5043,42 +4869,42 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B101" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C101" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D101" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E101" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G101" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B102" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C102" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D102" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E102" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>17</v>
@@ -5089,65 +4915,65 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B103" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C103" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D103" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E103" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>335</v>
+        <v>17</v>
       </c>
       <c r="G103" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B104" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C104" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D104" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E104" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>339</v>
+        <v>17</v>
       </c>
       <c r="G104" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B105" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C105" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D105" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E105" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>17</v>
@@ -5158,19 +4984,19 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B106" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C106" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D106" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="E106" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F106" t="s" s="2">
         <v>17</v>
@@ -5181,19 +5007,19 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B107" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C107" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D107" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E107" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>17</v>
@@ -5204,65 +5030,65 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B108" t="s">
+        <v>335</v>
+      </c>
+      <c r="C108" t="s">
+        <v>342</v>
+      </c>
+      <c r="D108" t="s">
         <v>343</v>
       </c>
-      <c r="C108" t="s">
-        <v>350</v>
-      </c>
-      <c r="D108" t="s">
-        <v>351</v>
-      </c>
       <c r="E108" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>353</v>
+        <v>17</v>
       </c>
       <c r="G108" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B109" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C109" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D109" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="E109" t="s" s="2">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>357</v>
+        <v>17</v>
       </c>
       <c r="G109" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B110" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C110" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D110" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="E110" t="s" s="2">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="F110" t="s" s="2">
         <v>17</v>
@@ -5273,19 +5099,19 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B111" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C111" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D111" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="E111" t="s" s="2">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>17</v>
@@ -5296,22 +5122,22 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B112" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C112" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D112" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E112" t="s" s="2">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G112" t="n">
         <v>2.0</v>
@@ -5319,19 +5145,19 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B113" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C113" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D113" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="E113" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F113" t="s" s="2">
         <v>17</v>
@@ -5342,19 +5168,19 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B114" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C114" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D114" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="E114" t="s" s="2">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="F114" t="s" s="2">
         <v>17</v>
@@ -5365,19 +5191,19 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B115" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C115" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="D115" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E115" t="s" s="2">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="F115" t="s" s="2">
         <v>17</v>
@@ -5388,42 +5214,42 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B116" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C116" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D116" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="E116" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>379</v>
+        <v>17</v>
       </c>
       <c r="G116" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B117" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C117" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="D117" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="E117" t="s" s="2">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="F117" t="s" s="2">
         <v>17</v>
@@ -5434,45 +5260,45 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B118" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C118" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D118" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E118" t="s" s="2">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>386</v>
+        <v>17</v>
       </c>
       <c r="G118" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B119" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C119" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="D119" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="E119" t="s" s="2">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="G119" t="n">
         <v>1.0</v>
@@ -5480,19 +5306,19 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B120" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C120" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D120" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="E120" t="s" s="2">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="F120" t="s" s="2">
         <v>17</v>
@@ -5503,19 +5329,19 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B121" t="s">
         <v>13</v>
       </c>
       <c r="C121" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="D121" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E121" t="s" s="2">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="F121" t="s" s="2">
         <v>17</v>
@@ -5526,19 +5352,19 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B122" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C122" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D122" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E122" t="s" s="2">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="F122" t="s" s="2">
         <v>17</v>
@@ -5549,42 +5375,42 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B123" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C123" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="D123" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="E123" t="s" s="2">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>404</v>
+        <v>17</v>
       </c>
       <c r="G123" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B124" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C124" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="D124" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="E124" t="s" s="2">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="F124" t="s" s="2">
         <v>17</v>
@@ -5595,19 +5421,19 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B125" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C125" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="D125" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="E125" t="s" s="2">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F125" t="s" s="2">
         <v>17</v>
@@ -5618,19 +5444,19 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B126" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C126" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="D126" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="E126" t="s" s="2">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="F126" t="s" s="2">
         <v>17</v>
@@ -5641,19 +5467,19 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B127" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C127" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="D127" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="E127" t="s" s="2">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="F127" t="s" s="2">
         <v>17</v>
@@ -5664,19 +5490,19 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B128" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C128" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="D128" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="E128" t="s" s="2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="F128" t="s" s="2">
         <v>17</v>
@@ -5687,19 +5513,19 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B129" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C129" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="D129" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="E129" t="s" s="2">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="F129" t="s" s="2">
         <v>17</v>
@@ -5710,19 +5536,19 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B130" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C130" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="D130" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="E130" t="s" s="2">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="F130" t="s" s="2">
         <v>17</v>
@@ -5733,19 +5559,19 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B131" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C131" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="D131" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E131" t="s" s="2">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="F131" t="s" s="2">
         <v>17</v>
@@ -5756,19 +5582,19 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B132" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C132" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="D132" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="E132" t="s" s="2">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="F132" t="s" s="2">
         <v>17</v>
@@ -5779,65 +5605,65 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B133" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C133" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="D133" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="E133" t="s" s="2">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>435</v>
+        <v>17</v>
       </c>
       <c r="G133" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B134" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C134" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="D134" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="E134" t="s" s="2">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>439</v>
+        <v>17</v>
       </c>
       <c r="G134" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B135" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C135" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="D135" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="E135" t="s" s="2">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="F135" t="s" s="2">
         <v>17</v>
@@ -5848,19 +5674,19 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B136" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C136" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="D136" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="E136" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F136" t="s" s="2">
         <v>17</v>
@@ -5871,88 +5697,88 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B137" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C137" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="D137" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="E137" t="s" s="2">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>448</v>
+        <v>17</v>
       </c>
       <c r="G137" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B138" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C138" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="D138" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="E138" t="s" s="2">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="G138" t="n">
-        <v>81.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B139" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C139" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="D139" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="E139" t="s" s="2">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>456</v>
+        <v>17</v>
       </c>
       <c r="G139" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B140" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C140" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D140" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="E140" t="s" s="2">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="F140" t="s" s="2">
         <v>17</v>
@@ -5963,19 +5789,19 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B141" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C141" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="D141" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="E141" t="s" s="2">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="F141" t="s" s="2">
         <v>17</v>
@@ -5986,111 +5812,111 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B142" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C142" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="D142" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="E142" t="s" s="2">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="G142" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B143" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C143" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="D143" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="E143" t="s" s="2">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G143" t="n">
-        <v>181.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B144" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C144" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="D144" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="E144" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G144" t="n">
-        <v>324.0</v>
+        <v>147.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B145" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C145" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="D145" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="E145" t="s" s="2">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G145" t="n">
-        <v>181.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B146" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="C146" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="D146" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="E146" t="s" s="2">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="F146" t="s" s="2">
         <v>17</v>
@@ -6101,42 +5927,42 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B147" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C147" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="D147" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="E147" t="s" s="2">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G147" t="n">
-        <v>324.0</v>
+        <v>147.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B148" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C148" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="D148" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="E148" t="s" s="2">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="F148" t="s" s="2">
         <v>17</v>
@@ -6147,19 +5973,19 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B149" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C149" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="D149" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="E149" t="s" s="2">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="F149" t="s" s="2">
         <v>17</v>
@@ -6170,19 +5996,19 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B150" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C150" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="D150" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="E150" t="s" s="2">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="F150" t="s" s="2">
         <v>17</v>
@@ -6193,19 +6019,19 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B151" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C151" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="D151" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="E151" t="s" s="2">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="F151" t="s" s="2">
         <v>17</v>
@@ -6216,42 +6042,42 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B152" t="s">
         <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="D152" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="E152" t="s" s="2">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="F152" t="s" s="2">
-        <v>497</v>
+        <v>17</v>
       </c>
       <c r="G152" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B153" t="s">
         <v>13</v>
       </c>
       <c r="C153" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="D153" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="E153" t="s" s="2">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="F153" t="s" s="2">
         <v>17</v>
@@ -6262,19 +6088,19 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B154" t="s">
         <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="D154" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="E154" t="s" s="2">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="F154" t="s" s="2">
         <v>17</v>
@@ -6285,42 +6111,42 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B155" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C155" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="D155" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="E155" t="s" s="2">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="F155" t="s" s="2">
-        <v>507</v>
+        <v>17</v>
       </c>
       <c r="G155" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B156" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C156" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="D156" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="E156" t="s" s="2">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="F156" t="s" s="2">
         <v>17</v>
@@ -6331,42 +6157,42 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B157" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C157" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="D157" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="E157" t="s" s="2">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="G157" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B158" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C158" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="D158" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="E158" t="s" s="2">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="F158" t="s" s="2">
         <v>17</v>
@@ -6377,19 +6203,19 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B159" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C159" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="D159" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="E159" t="s" s="2">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="F159" t="s" s="2">
         <v>17</v>
@@ -6400,19 +6226,19 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B160" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C160" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="D160" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="E160" t="s" s="2">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="F160" t="s" s="2">
         <v>17</v>
@@ -6423,19 +6249,19 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B161" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C161" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="D161" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="E161" t="s" s="2">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="F161" t="s" s="2">
         <v>17</v>
@@ -6446,19 +6272,19 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B162" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C162" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="D162" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="E162" t="s" s="2">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="F162" t="s" s="2">
         <v>17</v>
@@ -6469,19 +6295,19 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B163" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C163" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D163" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="E163" t="s" s="2">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="F163" t="s" s="2">
         <v>17</v>
@@ -6492,19 +6318,19 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B164" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C164" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="D164" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E164" t="s" s="2">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="F164" t="s" s="2">
         <v>17</v>
@@ -6515,19 +6341,19 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B165" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C165" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="D165" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="E165" t="s" s="2">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="F165" t="s" s="2">
         <v>17</v>
@@ -6538,19 +6364,19 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B166" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C166" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="D166" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="E166" t="s" s="2">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="F166" t="s" s="2">
         <v>17</v>
@@ -6561,19 +6387,19 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B167" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C167" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="D167" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="E167" t="s" s="2">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="F167" t="s" s="2">
         <v>17</v>
@@ -6584,19 +6410,19 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B168" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C168" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="D168" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="E168" t="s" s="2">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="F168" t="s" s="2">
         <v>17</v>
@@ -6607,19 +6433,19 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B169" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C169" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="D169" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="E169" t="s" s="2">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="F169" t="s" s="2">
         <v>17</v>
@@ -6630,19 +6456,19 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B170" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C170" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="D170" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="E170" t="s" s="2">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="F170" t="s" s="2">
         <v>17</v>
@@ -6653,22 +6479,22 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B171" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C171" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="D171" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="E171" t="s" s="2">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="G171" t="n">
         <v>1.0</v>
@@ -6676,19 +6502,19 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B172" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C172" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="D172" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="E172" t="s" s="2">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="F172" t="s" s="2">
         <v>17</v>
@@ -6699,19 +6525,19 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B173" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C173" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="D173" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="E173" t="s" s="2">
-        <v>563</v>
+        <v>544</v>
       </c>
       <c r="F173" t="s" s="2">
         <v>17</v>
@@ -6722,19 +6548,19 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C174" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="D174" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="E174" t="s" s="2">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="F174" t="s" s="2">
         <v>17</v>
@@ -6745,19 +6571,19 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B175" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C175" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="D175" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="E175" t="s" s="2">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="F175" t="s" s="2">
         <v>17</v>
@@ -6768,19 +6594,19 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B176" t="s">
         <v>13</v>
       </c>
       <c r="C176" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="D176" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="E176" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F176" t="s" s="2">
         <v>17</v>
@@ -6791,134 +6617,134 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B177" t="s">
         <v>13</v>
       </c>
       <c r="C177" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="D177" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="E177" t="s" s="2">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="F177" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G177" t="n">
-        <v>178.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B178" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C178" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="D178" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="E178" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F178" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G178" t="n">
-        <v>325.0</v>
+        <v>147.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B179" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C179" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="D179" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="E179" t="s" s="2">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="F179" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G179" t="n">
-        <v>178.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B180" t="s">
         <v>13</v>
       </c>
       <c r="C180" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="D180" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="E180" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F180" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G180" t="n">
-        <v>325.0</v>
+        <v>147.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B181" t="s">
         <v>13</v>
       </c>
       <c r="C181" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="D181" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="E181" t="s" s="2">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="F181" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G181" t="n">
-        <v>178.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B182" t="s">
         <v>13</v>
       </c>
       <c r="C182" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="D182" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
       <c r="E182" t="s" s="2">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="F182" t="s" s="2">
         <v>17</v>
@@ -6929,42 +6755,42 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B183" t="s">
         <v>13</v>
       </c>
       <c r="C183" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="D183" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="E183" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F183" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G183" t="n">
-        <v>325.0</v>
+        <v>147.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B184" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="C184" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="D184" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="E184" t="s" s="2">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="F184" t="s" s="2">
         <v>12</v>
@@ -6975,42 +6801,42 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B185" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="C185" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
       <c r="D185" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="E185" t="s" s="2">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="F185" t="s" s="2">
-        <v>599</v>
+        <v>17</v>
       </c>
       <c r="G185" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B186" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="C186" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="D186" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="E186" t="s" s="2">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="F186" t="s" s="2">
         <v>17</v>
@@ -7021,19 +6847,19 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B187" t="s">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="C187" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="D187" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="E187" t="s" s="2">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="F187" t="s" s="2">
         <v>17</v>
@@ -7044,19 +6870,19 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B188" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
       <c r="C188" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="D188" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="E188" t="s" s="2">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="F188" t="s" s="2">
         <v>17</v>
@@ -7067,42 +6893,42 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
+        <v>571</v>
+      </c>
+      <c r="B189" t="s">
+        <v>580</v>
+      </c>
+      <c r="C189" t="s">
         <v>590</v>
       </c>
-      <c r="B189" t="s">
+      <c r="D189" t="s">
         <v>591</v>
       </c>
-      <c r="C189" t="s">
-        <v>610</v>
-      </c>
-      <c r="D189" t="s">
-        <v>611</v>
-      </c>
       <c r="E189" t="s" s="2">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="F189" t="s" s="2">
-        <v>613</v>
+        <v>17</v>
       </c>
       <c r="G189" t="n">
-        <v>82.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B190" t="s">
-        <v>614</v>
+        <v>576</v>
       </c>
       <c r="C190" t="s">
-        <v>615</v>
+        <v>593</v>
       </c>
       <c r="D190" t="s">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="E190" t="s" s="2">
-        <v>617</v>
+        <v>595</v>
       </c>
       <c r="F190" t="s" s="2">
         <v>17</v>
@@ -7113,88 +6939,88 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B191" t="s">
-        <v>614</v>
+        <v>580</v>
       </c>
       <c r="C191" t="s">
-        <v>618</v>
+        <v>596</v>
       </c>
       <c r="D191" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
       <c r="E191" t="s" s="2">
-        <v>620</v>
+        <v>598</v>
       </c>
       <c r="F191" t="s" s="2">
-        <v>621</v>
+        <v>17</v>
       </c>
       <c r="G191" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B192" t="s">
-        <v>614</v>
+        <v>580</v>
       </c>
       <c r="C192" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="D192" t="s">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="E192" t="s" s="2">
-        <v>624</v>
+        <v>601</v>
       </c>
       <c r="F192" t="s" s="2">
-        <v>625</v>
+        <v>17</v>
       </c>
       <c r="G192" t="n">
-        <v>10781.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B193" t="s">
+        <v>580</v>
+      </c>
+      <c r="C193" t="s">
+        <v>602</v>
+      </c>
+      <c r="D193" t="s">
         <v>603</v>
       </c>
-      <c r="C193" t="s">
-        <v>626</v>
-      </c>
-      <c r="D193" t="s">
-        <v>627</v>
-      </c>
       <c r="E193" t="s" s="2">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="F193" t="s" s="2">
-        <v>629</v>
+        <v>17</v>
       </c>
       <c r="G193" t="n">
-        <v>10177.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B194" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="C194" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="D194" t="s">
-        <v>631</v>
+        <v>606</v>
       </c>
       <c r="E194" t="s" s="2">
-        <v>632</v>
+        <v>607</v>
       </c>
       <c r="F194" t="s" s="2">
         <v>17</v>
@@ -7205,88 +7031,88 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B195" t="s">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="C195" t="s">
-        <v>633</v>
+        <v>608</v>
       </c>
       <c r="D195" t="s">
-        <v>634</v>
+        <v>609</v>
       </c>
       <c r="E195" t="s" s="2">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="F195" t="s" s="2">
-        <v>636</v>
+        <v>611</v>
       </c>
       <c r="G195" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B196" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="C196" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="D196" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
       <c r="E196" t="s" s="2">
-        <v>639</v>
+        <v>614</v>
       </c>
       <c r="F196" t="s" s="2">
-        <v>640</v>
+        <v>17</v>
       </c>
       <c r="G196" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B197" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="C197" t="s">
-        <v>641</v>
+        <v>616</v>
       </c>
       <c r="D197" t="s">
-        <v>642</v>
+        <v>617</v>
       </c>
       <c r="E197" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F197" t="s" s="2">
-        <v>643</v>
+        <v>17</v>
       </c>
       <c r="G197" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B198" t="s">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="C198" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="D198" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="E198" t="s" s="2">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="F198" t="s" s="2">
         <v>17</v>
@@ -7297,134 +7123,134 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B199" t="s">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="C199" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
       <c r="D199" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="E199" t="s" s="2">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="F199" t="s" s="2">
-        <v>650</v>
+        <v>17</v>
       </c>
       <c r="G199" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B200" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="C200" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
       <c r="D200" t="s">
-        <v>652</v>
+        <v>626</v>
       </c>
       <c r="E200" t="s" s="2">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="F200" t="s" s="2">
-        <v>654</v>
+        <v>17</v>
       </c>
       <c r="G200" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B201" t="s">
-        <v>591</v>
+        <v>628</v>
       </c>
       <c r="C201" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
       <c r="D201" t="s">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="E201" t="s" s="2">
-        <v>657</v>
+        <v>631</v>
       </c>
       <c r="F201" t="s" s="2">
-        <v>17</v>
+        <v>632</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B202" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="C202" t="s">
-        <v>658</v>
+        <v>633</v>
       </c>
       <c r="D202" t="s">
-        <v>659</v>
+        <v>634</v>
       </c>
       <c r="E202" t="s" s="2">
-        <v>660</v>
+        <v>635</v>
       </c>
       <c r="F202" t="s" s="2">
-        <v>625</v>
+        <v>17</v>
       </c>
       <c r="G202" t="n">
-        <v>10773.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B203" t="s">
-        <v>661</v>
+        <v>636</v>
       </c>
       <c r="C203" t="s">
-        <v>662</v>
+        <v>637</v>
       </c>
       <c r="D203" t="s">
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="E203" t="s" s="2">
-        <v>664</v>
+        <v>639</v>
       </c>
       <c r="F203" t="s" s="2">
-        <v>629</v>
+        <v>17</v>
       </c>
       <c r="G203" t="n">
-        <v>10165.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B204" t="s">
-        <v>603</v>
+        <v>636</v>
       </c>
       <c r="C204" t="s">
-        <v>665</v>
+        <v>640</v>
       </c>
       <c r="D204" t="s">
-        <v>666</v>
+        <v>641</v>
       </c>
       <c r="E204" t="s" s="2">
-        <v>667</v>
+        <v>642</v>
       </c>
       <c r="F204" t="s" s="2">
         <v>17</v>
@@ -7435,19 +7261,19 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B205" t="s">
-        <v>614</v>
+        <v>580</v>
       </c>
       <c r="C205" t="s">
-        <v>668</v>
+        <v>643</v>
       </c>
       <c r="D205" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="E205" t="s" s="2">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="F205" t="s" s="2">
         <v>17</v>
@@ -7458,65 +7284,65 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B206" t="s">
-        <v>614</v>
+        <v>580</v>
       </c>
       <c r="C206" t="s">
-        <v>671</v>
+        <v>646</v>
       </c>
       <c r="D206" t="s">
-        <v>672</v>
+        <v>647</v>
       </c>
       <c r="E206" t="s" s="2">
-        <v>620</v>
+        <v>648</v>
       </c>
       <c r="F206" t="s" s="2">
-        <v>673</v>
+        <v>17</v>
       </c>
       <c r="G206" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B207" t="s">
-        <v>603</v>
+        <v>572</v>
       </c>
       <c r="C207" t="s">
-        <v>674</v>
+        <v>649</v>
       </c>
       <c r="D207" t="s">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="E207" t="s" s="2">
-        <v>676</v>
+        <v>651</v>
       </c>
       <c r="F207" t="s" s="2">
-        <v>677</v>
+        <v>652</v>
       </c>
       <c r="G207" t="n">
-        <v>6.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B208" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
       <c r="C208" t="s">
-        <v>678</v>
+        <v>653</v>
       </c>
       <c r="D208" t="s">
-        <v>679</v>
+        <v>654</v>
       </c>
       <c r="E208" t="s" s="2">
-        <v>680</v>
+        <v>655</v>
       </c>
       <c r="F208" t="s" s="2">
         <v>17</v>
@@ -7527,180 +7353,180 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B209" t="s">
-        <v>614</v>
+        <v>576</v>
       </c>
       <c r="C209" t="s">
-        <v>681</v>
+        <v>656</v>
       </c>
       <c r="D209" t="s">
-        <v>682</v>
+        <v>657</v>
       </c>
       <c r="E209" t="s" s="2">
-        <v>683</v>
+        <v>658</v>
       </c>
       <c r="F209" t="s" s="2">
-        <v>625</v>
+        <v>659</v>
       </c>
       <c r="G209" t="n">
-        <v>10775.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B210" t="s">
-        <v>614</v>
+        <v>576</v>
       </c>
       <c r="C210" t="s">
-        <v>684</v>
+        <v>660</v>
       </c>
       <c r="D210" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="E210" t="s" s="2">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="F210" t="s" s="2">
-        <v>687</v>
+        <v>663</v>
       </c>
       <c r="G210" t="n">
-        <v>1.0</v>
+        <v>9968.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B211" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="C211" t="s">
-        <v>688</v>
+        <v>664</v>
       </c>
       <c r="D211" t="s">
-        <v>689</v>
+        <v>665</v>
       </c>
       <c r="E211" t="s" s="2">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="F211" t="s" s="2">
-        <v>629</v>
+        <v>667</v>
       </c>
       <c r="G211" t="n">
-        <v>10168.0</v>
+        <v>8057.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B212" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
       <c r="C212" t="s">
-        <v>691</v>
+        <v>668</v>
       </c>
       <c r="D212" t="s">
-        <v>692</v>
+        <v>669</v>
       </c>
       <c r="E212" t="s" s="2">
-        <v>693</v>
+        <v>670</v>
       </c>
       <c r="F212" t="s" s="2">
-        <v>625</v>
+        <v>17</v>
       </c>
       <c r="G212" t="n">
-        <v>10775.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B213" t="s">
-        <v>614</v>
+        <v>580</v>
       </c>
       <c r="C213" t="s">
-        <v>694</v>
+        <v>671</v>
       </c>
       <c r="D213" t="s">
-        <v>695</v>
+        <v>672</v>
       </c>
       <c r="E213" t="s" s="2">
-        <v>696</v>
+        <v>673</v>
       </c>
       <c r="F213" t="s" s="2">
-        <v>697</v>
+        <v>17</v>
       </c>
       <c r="G213" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B214" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
       <c r="C214" t="s">
-        <v>698</v>
+        <v>674</v>
       </c>
       <c r="D214" t="s">
-        <v>699</v>
+        <v>675</v>
       </c>
       <c r="E214" t="s" s="2">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="F214" t="s" s="2">
-        <v>17</v>
+        <v>677</v>
       </c>
       <c r="G214" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B215" t="s">
-        <v>591</v>
+        <v>636</v>
       </c>
       <c r="C215" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="D215" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="E215" t="s" s="2">
-        <v>703</v>
+        <v>658</v>
       </c>
       <c r="F215" t="s" s="2">
-        <v>629</v>
+        <v>680</v>
       </c>
       <c r="G215" t="n">
-        <v>10167.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B216" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="C216" t="s">
-        <v>704</v>
+        <v>681</v>
       </c>
       <c r="D216" t="s">
-        <v>705</v>
+        <v>682</v>
       </c>
       <c r="E216" t="s" s="2">
-        <v>706</v>
+        <v>683</v>
       </c>
       <c r="F216" t="s" s="2">
         <v>17</v>
@@ -7711,42 +7537,42 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B217" t="s">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="C217" t="s">
-        <v>707</v>
+        <v>684</v>
       </c>
       <c r="D217" t="s">
-        <v>708</v>
+        <v>685</v>
       </c>
       <c r="E217" t="s" s="2">
-        <v>709</v>
+        <v>686</v>
       </c>
       <c r="F217" t="s" s="2">
-        <v>17</v>
+        <v>687</v>
       </c>
       <c r="G217" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B218" t="s">
-        <v>603</v>
+        <v>572</v>
       </c>
       <c r="C218" t="s">
-        <v>710</v>
+        <v>688</v>
       </c>
       <c r="D218" t="s">
-        <v>711</v>
+        <v>689</v>
       </c>
       <c r="E218" t="s" s="2">
-        <v>712</v>
+        <v>690</v>
       </c>
       <c r="F218" t="s" s="2">
         <v>17</v>
@@ -7757,19 +7583,19 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B219" t="s">
-        <v>603</v>
+        <v>572</v>
       </c>
       <c r="C219" t="s">
-        <v>713</v>
+        <v>691</v>
       </c>
       <c r="D219" t="s">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="E219" t="s" s="2">
-        <v>715</v>
+        <v>693</v>
       </c>
       <c r="F219" t="s" s="2">
         <v>17</v>
@@ -7780,88 +7606,88 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B220" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="C220" t="s">
-        <v>716</v>
+        <v>694</v>
       </c>
       <c r="D220" t="s">
-        <v>717</v>
+        <v>695</v>
       </c>
       <c r="E220" t="s" s="2">
-        <v>718</v>
+        <v>696</v>
       </c>
       <c r="F220" t="s" s="2">
-        <v>17</v>
+        <v>663</v>
       </c>
       <c r="G220" t="n">
-        <v>0.0</v>
+        <v>9958.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B221" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="C221" t="s">
-        <v>719</v>
+        <v>697</v>
       </c>
       <c r="D221" t="s">
-        <v>720</v>
+        <v>698</v>
       </c>
       <c r="E221" t="s" s="2">
-        <v>721</v>
+        <v>699</v>
       </c>
       <c r="F221" t="s" s="2">
-        <v>17</v>
+        <v>667</v>
       </c>
       <c r="G221" t="n">
-        <v>0.0</v>
+        <v>8043.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B222" t="s">
-        <v>614</v>
+        <v>580</v>
       </c>
       <c r="C222" t="s">
-        <v>722</v>
+        <v>700</v>
       </c>
       <c r="D222" t="s">
-        <v>723</v>
+        <v>701</v>
       </c>
       <c r="E222" t="s" s="2">
-        <v>724</v>
+        <v>702</v>
       </c>
       <c r="F222" t="s" s="2">
-        <v>725</v>
+        <v>17</v>
       </c>
       <c r="G222" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B223" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="C223" t="s">
-        <v>726</v>
+        <v>703</v>
       </c>
       <c r="D223" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="E223" t="s" s="2">
-        <v>728</v>
+        <v>705</v>
       </c>
       <c r="F223" t="s" s="2">
         <v>17</v>
@@ -7872,114 +7698,114 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B224" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="C224" t="s">
-        <v>729</v>
+        <v>706</v>
       </c>
       <c r="D224" t="s">
-        <v>730</v>
+        <v>707</v>
       </c>
       <c r="E224" t="s" s="2">
-        <v>731</v>
+        <v>658</v>
       </c>
       <c r="F224" t="s" s="2">
-        <v>732</v>
+        <v>17</v>
       </c>
       <c r="G224" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B225" t="s">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="C225" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
       <c r="D225" t="s">
-        <v>734</v>
+        <v>709</v>
       </c>
       <c r="E225" t="s" s="2">
-        <v>735</v>
+        <v>710</v>
       </c>
       <c r="F225" t="s" s="2">
-        <v>17</v>
+        <v>711</v>
       </c>
       <c r="G225" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B226" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="C226" t="s">
-        <v>736</v>
+        <v>712</v>
       </c>
       <c r="D226" t="s">
-        <v>737</v>
+        <v>713</v>
       </c>
       <c r="E226" t="s" s="2">
-        <v>738</v>
+        <v>714</v>
       </c>
       <c r="F226" t="s" s="2">
-        <v>739</v>
+        <v>17</v>
       </c>
       <c r="G226" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B227" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
       <c r="C227" t="s">
-        <v>740</v>
+        <v>715</v>
       </c>
       <c r="D227" t="s">
-        <v>741</v>
+        <v>716</v>
       </c>
       <c r="E227" t="s" s="2">
-        <v>742</v>
+        <v>717</v>
       </c>
       <c r="F227" t="s" s="2">
-        <v>743</v>
+        <v>663</v>
       </c>
       <c r="G227" t="n">
-        <v>8.0</v>
+        <v>9959.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B228" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="C228" t="s">
-        <v>744</v>
+        <v>718</v>
       </c>
       <c r="D228" t="s">
-        <v>745</v>
+        <v>719</v>
       </c>
       <c r="E228" t="s" s="2">
-        <v>746</v>
+        <v>720</v>
       </c>
       <c r="F228" t="s" s="2">
-        <v>747</v>
+        <v>721</v>
       </c>
       <c r="G228" t="n">
         <v>1.0</v>
@@ -7987,88 +7813,88 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B229" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="C229" t="s">
-        <v>748</v>
+        <v>722</v>
       </c>
       <c r="D229" t="s">
-        <v>749</v>
+        <v>723</v>
       </c>
       <c r="E229" t="s" s="2">
-        <v>750</v>
+        <v>724</v>
       </c>
       <c r="F229" t="s" s="2">
-        <v>751</v>
+        <v>667</v>
       </c>
       <c r="G229" t="n">
-        <v>12.0</v>
+        <v>8046.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B230" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
       <c r="C230" t="s">
-        <v>752</v>
+        <v>725</v>
       </c>
       <c r="D230" t="s">
-        <v>753</v>
+        <v>726</v>
       </c>
       <c r="E230" t="s" s="2">
-        <v>754</v>
+        <v>727</v>
       </c>
       <c r="F230" t="s" s="2">
-        <v>755</v>
+        <v>663</v>
       </c>
       <c r="G230" t="n">
-        <v>21.0</v>
+        <v>9959.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B231" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
       <c r="C231" t="s">
-        <v>756</v>
+        <v>728</v>
       </c>
       <c r="D231" t="s">
-        <v>757</v>
+        <v>729</v>
       </c>
       <c r="E231" t="s" s="2">
-        <v>758</v>
+        <v>730</v>
       </c>
       <c r="F231" t="s" s="2">
-        <v>759</v>
+        <v>731</v>
       </c>
       <c r="G231" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B232" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="C232" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="D232" t="s">
-        <v>761</v>
+        <v>733</v>
       </c>
       <c r="E232" t="s" s="2">
-        <v>762</v>
+        <v>734</v>
       </c>
       <c r="F232" t="s" s="2">
         <v>17</v>
@@ -8079,25 +7905,25 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="B233" t="s">
-        <v>603</v>
+        <v>572</v>
       </c>
       <c r="C233" t="s">
-        <v>763</v>
+        <v>735</v>
       </c>
       <c r="D233" t="s">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="E233" t="s" s="2">
-        <v>765</v>
+        <v>737</v>
       </c>
       <c r="F233" t="s" s="2">
-        <v>766</v>
+        <v>667</v>
       </c>
       <c r="G233" t="n">
-        <v>2.0</v>
+        <v>8045.0</v>
       </c>
     </row>
   </sheetData>

--- a/records.xlsx
+++ b/records.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="738">
   <si>
     <t>Project</t>
   </si>
@@ -2538,9 +2538,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2558,13 +2561,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.79296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="48.359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="46.7890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="32.3984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="205.1953125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="219.35546875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="15.203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.79296875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="48.359375" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="46.7890625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="32.3984375" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="205.1953125" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="219.35546875" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2690,19 +2693,19 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s" s="3">
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="7">
@@ -2713,15 +2716,15 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s" s="3">
         <v>17</v>
       </c>
       <c r="G7" t="n">
